--- a/covidDataset/코로나 자료조사 통합.xlsx
+++ b/covidDataset/코로나 자료조사 통합.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="79">
   <si>
     <t>Portugal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -854,6 +854,197 @@
     <t>Belarus</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ahrain</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>angladesh</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uwait</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azakhstan</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zbekistan</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zerbaijan</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lovenia</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osnia and herzegovina</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rmenia</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ithuania</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>man</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1369,7 +1560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,11 +1568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI103"/>
+  <dimension ref="A1:GQ103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G80" sqref="G80"/>
+      <pane xSplit="1" topLeftCell="DW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DW1" sqref="DW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1596,7 @@
     <col min="118" max="118" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:199" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="12" t="s">
         <v>19</v>
@@ -1624,8 +1815,44 @@
       <c r="DX1" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="DZ1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="EB1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="ED1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="EF1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="EH1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="EJ1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="EL1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="EN1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="EP1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="ER1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="ET1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="EV1" s="15" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2043,8 +2270,188 @@
       <c r="EI2" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="EJ2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EL2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EN2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EP2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="ER2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EX2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="EZ2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FB2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FF2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FH2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FJ2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FL2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FN2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FP2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FQ2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FR2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FT2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FV2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GB2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GD2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GF2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GH2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GJ2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GL2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GN2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="GP2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>43852</v>
       </c>
@@ -2103,7 +2510,7 @@
       <c r="AX3" s="9"/>
       <c r="AY3" s="27"/>
     </row>
-    <row r="4" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>43853</v>
       </c>
@@ -2162,7 +2569,7 @@
       <c r="AX4" s="9"/>
       <c r="AY4" s="27"/>
     </row>
-    <row r="5" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43854</v>
       </c>
@@ -2222,7 +2629,7 @@
       <c r="AY5" s="27"/>
       <c r="AZ5" s="23"/>
     </row>
-    <row r="6" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>43855</v>
       </c>
@@ -2281,7 +2688,7 @@
       <c r="AX6" s="9"/>
       <c r="AY6" s="27"/>
     </row>
-    <row r="7" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>43856</v>
       </c>
@@ -2340,7 +2747,7 @@
       <c r="AX7" s="9"/>
       <c r="AY7" s="27"/>
     </row>
-    <row r="8" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>43857</v>
       </c>
@@ -2399,7 +2806,7 @@
       <c r="AX8" s="9"/>
       <c r="AY8" s="27"/>
     </row>
-    <row r="9" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43858</v>
       </c>
@@ -2458,7 +2865,7 @@
       <c r="AX9" s="9"/>
       <c r="AY9" s="27"/>
     </row>
-    <row r="10" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>43859</v>
       </c>
@@ -2517,7 +2924,7 @@
       <c r="AX10" s="9"/>
       <c r="AY10" s="27"/>
     </row>
-    <row r="11" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>43860</v>
       </c>
@@ -2576,7 +2983,7 @@
       <c r="AX11" s="9"/>
       <c r="AY11" s="27"/>
     </row>
-    <row r="12" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>43861</v>
       </c>
@@ -2635,7 +3042,7 @@
       <c r="AX12" s="9"/>
       <c r="AY12" s="27"/>
     </row>
-    <row r="13" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43862</v>
       </c>
@@ -2696,7 +3103,7 @@
       <c r="AX13" s="9"/>
       <c r="AY13" s="27"/>
     </row>
-    <row r="14" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43863</v>
       </c>
@@ -2755,7 +3162,7 @@
       <c r="AX14" s="9"/>
       <c r="AY14" s="27"/>
     </row>
-    <row r="15" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43864</v>
       </c>
@@ -2814,7 +3221,7 @@
       <c r="AX15" s="9"/>
       <c r="AY15" s="27"/>
     </row>
-    <row r="16" spans="1:139" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>43865</v>
       </c>
@@ -2873,7 +3280,7 @@
       <c r="AX16" s="9"/>
       <c r="AY16" s="27"/>
     </row>
-    <row r="17" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43866</v>
       </c>
@@ -2932,7 +3339,7 @@
       <c r="AX17" s="9"/>
       <c r="AY17" s="27"/>
     </row>
-    <row r="18" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>43867</v>
       </c>
@@ -2993,7 +3400,7 @@
       <c r="AX18" s="9"/>
       <c r="AY18" s="27"/>
     </row>
-    <row r="19" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43868</v>
       </c>
@@ -3052,7 +3459,7 @@
       <c r="AX19" s="9"/>
       <c r="AY19" s="27"/>
     </row>
-    <row r="20" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>43869</v>
       </c>
@@ -3111,7 +3518,7 @@
       <c r="AX20" s="9"/>
       <c r="AY20" s="27"/>
     </row>
-    <row r="21" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43870</v>
       </c>
@@ -3170,7 +3577,7 @@
       <c r="AX21" s="9"/>
       <c r="AY21" s="27"/>
     </row>
-    <row r="22" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43871</v>
       </c>
@@ -3229,7 +3636,7 @@
       <c r="AX22" s="9"/>
       <c r="AY22" s="27"/>
     </row>
-    <row r="23" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43872</v>
       </c>
@@ -3288,7 +3695,7 @@
       <c r="AX23" s="9"/>
       <c r="AY23" s="27"/>
     </row>
-    <row r="24" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43873</v>
       </c>
@@ -3349,7 +3756,7 @@
       <c r="AX24" s="9"/>
       <c r="AY24" s="27"/>
     </row>
-    <row r="25" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43874</v>
       </c>
@@ -3412,7 +3819,7 @@
       <c r="AX25" s="9"/>
       <c r="AY25" s="27"/>
     </row>
-    <row r="26" spans="1:129" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43875</v>
       </c>
@@ -3471,7 +3878,7 @@
       <c r="AX26" s="9"/>
       <c r="AY26" s="27"/>
     </row>
-    <row r="27" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43876</v>
       </c>
@@ -3859,8 +4266,80 @@
       <c r="DY27">
         <v>0</v>
       </c>
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>0</v>
+      </c>
+      <c r="EC27">
+        <v>0</v>
+      </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27">
+        <v>0</v>
+      </c>
+      <c r="EM27">
+        <v>0</v>
+      </c>
+      <c r="EN27">
+        <v>0</v>
+      </c>
+      <c r="EO27">
+        <v>0</v>
+      </c>
+      <c r="EP27">
+        <v>0</v>
+      </c>
+      <c r="EQ27">
+        <v>0</v>
+      </c>
+      <c r="ER27">
+        <v>0</v>
+      </c>
+      <c r="ES27">
+        <v>0</v>
+      </c>
+      <c r="ET27">
+        <v>0</v>
+      </c>
+      <c r="EU27">
+        <v>0</v>
+      </c>
+      <c r="EV27">
+        <v>0</v>
+      </c>
+      <c r="EW27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43877</v>
       </c>
@@ -4248,8 +4727,80 @@
       <c r="DY28" s="27">
         <v>0</v>
       </c>
+      <c r="DZ28">
+        <v>0</v>
+      </c>
+      <c r="EA28">
+        <v>0</v>
+      </c>
+      <c r="EB28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC28" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH28">
+        <v>0</v>
+      </c>
+      <c r="EI28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ28" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER28" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES28" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV28">
+        <v>0</v>
+      </c>
+      <c r="EW28" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43878</v>
       </c>
@@ -4637,8 +5188,80 @@
       <c r="DY29" s="27">
         <v>0</v>
       </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC29" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ29" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER29" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES29" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV29">
+        <v>0</v>
+      </c>
+      <c r="EW29" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43879</v>
       </c>
@@ -5026,8 +5649,80 @@
       <c r="DY30" s="27">
         <v>0</v>
       </c>
+      <c r="DZ30">
+        <v>0</v>
+      </c>
+      <c r="EA30">
+        <v>0</v>
+      </c>
+      <c r="EB30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC30" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF30">
+        <v>0</v>
+      </c>
+      <c r="EG30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ30" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER30" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES30" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV30">
+        <v>0</v>
+      </c>
+      <c r="EW30" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43880</v>
       </c>
@@ -5415,8 +6110,80 @@
       <c r="DY31" s="27">
         <v>0</v>
       </c>
+      <c r="DZ31">
+        <v>0</v>
+      </c>
+      <c r="EA31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC31" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF31">
+        <v>0</v>
+      </c>
+      <c r="EG31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ31" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER31" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES31" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV31">
+        <v>0</v>
+      </c>
+      <c r="EW31" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43881</v>
       </c>
@@ -5804,8 +6571,80 @@
       <c r="DY32" s="27">
         <v>0</v>
       </c>
+      <c r="DZ32">
+        <v>0</v>
+      </c>
+      <c r="EA32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC32" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF32">
+        <v>0</v>
+      </c>
+      <c r="EG32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ32" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER32" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES32" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV32">
+        <v>0</v>
+      </c>
+      <c r="EW32" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43882</v>
       </c>
@@ -6193,8 +7032,80 @@
       <c r="DY33" s="27">
         <v>0</v>
       </c>
+      <c r="DZ33">
+        <v>0</v>
+      </c>
+      <c r="EA33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC33" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF33">
+        <v>0</v>
+      </c>
+      <c r="EG33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ33" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER33" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES33" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV33">
+        <v>0</v>
+      </c>
+      <c r="EW33" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43883</v>
       </c>
@@ -6582,8 +7493,80 @@
       <c r="DY34" s="27">
         <v>0</v>
       </c>
+      <c r="DZ34">
+        <v>0</v>
+      </c>
+      <c r="EA34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC34" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF34">
+        <v>0</v>
+      </c>
+      <c r="EG34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ34" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER34" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES34" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV34">
+        <v>0</v>
+      </c>
+      <c r="EW34" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43884</v>
       </c>
@@ -6971,8 +7954,80 @@
       <c r="DY35" s="27">
         <v>0</v>
       </c>
+      <c r="DZ35">
+        <v>0</v>
+      </c>
+      <c r="EA35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC35" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>0</v>
+      </c>
+      <c r="EG35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ35" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER35" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES35" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV35">
+        <v>0</v>
+      </c>
+      <c r="EW35" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43885</v>
       </c>
@@ -7360,8 +8415,80 @@
       <c r="DY36" s="27">
         <v>0</v>
       </c>
+      <c r="DZ36">
+        <v>2</v>
+      </c>
+      <c r="EA36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC36" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF36">
+        <v>5</v>
+      </c>
+      <c r="EG36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ36" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER36" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES36" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV36">
+        <v>2</v>
+      </c>
+      <c r="EW36" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43886</v>
       </c>
@@ -7749,8 +8876,80 @@
       <c r="DY37" s="27">
         <v>0</v>
       </c>
+      <c r="DZ37">
+        <v>23</v>
+      </c>
+      <c r="EA37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC37" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF37">
+        <v>11</v>
+      </c>
+      <c r="EG37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ37" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER37" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES37" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV37">
+        <v>4</v>
+      </c>
+      <c r="EW37" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43887</v>
       </c>
@@ -8138,8 +9337,80 @@
       <c r="DY38" s="27">
         <v>0</v>
       </c>
+      <c r="DZ38">
+        <v>33</v>
+      </c>
+      <c r="EA38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC38" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF38">
+        <v>26</v>
+      </c>
+      <c r="EG38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ38" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER38" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES38" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV38">
+        <v>4</v>
+      </c>
+      <c r="EW38" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43888</v>
       </c>
@@ -8527,8 +9798,80 @@
       <c r="DY39" s="27">
         <v>0</v>
       </c>
+      <c r="DZ39">
+        <v>33</v>
+      </c>
+      <c r="EA39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC39" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF39">
+        <v>43</v>
+      </c>
+      <c r="EG39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EM39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ39" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER39" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES39" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EU39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV39">
+        <v>6</v>
+      </c>
+      <c r="EW39" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43889</v>
       </c>
@@ -8916,8 +10259,80 @@
       <c r="DY40" s="27">
         <v>0</v>
       </c>
+      <c r="DZ40">
+        <v>38</v>
+      </c>
+      <c r="EA40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC40" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF40">
+        <v>45</v>
+      </c>
+      <c r="EG40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL40">
+        <v>1</v>
+      </c>
+      <c r="EM40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ40" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER40" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES40" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET40" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV40">
+        <v>6</v>
+      </c>
+      <c r="EW40" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43890</v>
       </c>
@@ -9305,8 +10720,80 @@
       <c r="DY41" s="27">
         <v>0</v>
       </c>
+      <c r="DZ41">
+        <v>41</v>
+      </c>
+      <c r="EA41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC41" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF41">
+        <v>45</v>
+      </c>
+      <c r="EG41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL41">
+        <v>3</v>
+      </c>
+      <c r="EM41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ41" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER41" s="27">
+        <v>0</v>
+      </c>
+      <c r="ES41" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET41" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV41">
+        <v>6</v>
+      </c>
+      <c r="EW41" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43891</v>
       </c>
@@ -9694,8 +11181,80 @@
       <c r="DY42" s="27">
         <v>0</v>
       </c>
+      <c r="DZ42">
+        <v>47</v>
+      </c>
+      <c r="EA42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC42" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF42">
+        <v>46</v>
+      </c>
+      <c r="EG42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL42">
+        <v>3</v>
+      </c>
+      <c r="EM42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ42" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER42">
+        <v>1</v>
+      </c>
+      <c r="ES42" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET42" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV42">
+        <v>6</v>
+      </c>
+      <c r="EW42" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43892</v>
       </c>
@@ -10083,8 +11642,80 @@
       <c r="DY43" s="27">
         <v>0</v>
       </c>
+      <c r="DZ43">
+        <v>49</v>
+      </c>
+      <c r="EA43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC43" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF43">
+        <v>56</v>
+      </c>
+      <c r="EG43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL43">
+        <v>3</v>
+      </c>
+      <c r="EM43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EO43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ43" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER43" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES43" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET43" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV43">
+        <v>6</v>
+      </c>
+      <c r="EW43" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43893</v>
       </c>
@@ -10472,8 +12103,80 @@
       <c r="DY44" s="27">
         <v>0</v>
       </c>
+      <c r="DZ44">
+        <v>49</v>
+      </c>
+      <c r="EA44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EC44" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF44">
+        <v>56</v>
+      </c>
+      <c r="EG44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL44">
+        <v>3</v>
+      </c>
+      <c r="EM44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN44">
+        <v>0</v>
+      </c>
+      <c r="EO44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ44" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER44" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES44" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET44" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV44">
+        <v>12</v>
+      </c>
+      <c r="EW44" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43894</v>
       </c>
@@ -10861,8 +12564,80 @@
       <c r="DY45" s="27">
         <v>0</v>
       </c>
+      <c r="DZ45">
+        <v>52</v>
+      </c>
+      <c r="EA45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB45">
+        <v>2</v>
+      </c>
+      <c r="EC45" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF45">
+        <v>56</v>
+      </c>
+      <c r="EG45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL45">
+        <v>3</v>
+      </c>
+      <c r="EM45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN45">
+        <v>1</v>
+      </c>
+      <c r="EO45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EQ45" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER45" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES45" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET45" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV45">
+        <v>15</v>
+      </c>
+      <c r="EW45" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43895</v>
       </c>
@@ -11250,8 +13025,80 @@
       <c r="DY46" s="27">
         <v>0</v>
       </c>
+      <c r="DZ46">
+        <v>55</v>
+      </c>
+      <c r="EA46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB46">
+        <v>4</v>
+      </c>
+      <c r="EC46" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF46">
+        <v>58</v>
+      </c>
+      <c r="EG46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL46">
+        <v>6</v>
+      </c>
+      <c r="EM46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN46">
+        <v>6</v>
+      </c>
+      <c r="EO46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP46">
+        <v>2</v>
+      </c>
+      <c r="EQ46" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER46" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES46" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET46" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV46">
+        <v>16</v>
+      </c>
+      <c r="EW46" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43896</v>
       </c>
@@ -11639,8 +13486,80 @@
       <c r="DY47" s="27">
         <v>0</v>
       </c>
+      <c r="DZ47">
+        <v>60</v>
+      </c>
+      <c r="EA47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB47">
+        <v>4</v>
+      </c>
+      <c r="EC47" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF47">
+        <v>58</v>
+      </c>
+      <c r="EG47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL47">
+        <v>9</v>
+      </c>
+      <c r="EM47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN47">
+        <v>8</v>
+      </c>
+      <c r="EO47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP47">
+        <v>3</v>
+      </c>
+      <c r="EQ47" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER47" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES47" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET47" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV47">
+        <v>16</v>
+      </c>
+      <c r="EW47" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -12028,8 +13947,80 @@
       <c r="DY48" s="27">
         <v>0</v>
       </c>
+      <c r="DZ48">
+        <v>85</v>
+      </c>
+      <c r="EA48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB48">
+        <v>5</v>
+      </c>
+      <c r="EC48" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EE48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF48">
+        <v>61</v>
+      </c>
+      <c r="EG48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL48">
+        <v>9</v>
+      </c>
+      <c r="EM48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN48">
+        <v>12</v>
+      </c>
+      <c r="EO48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP48">
+        <v>3</v>
+      </c>
+      <c r="EQ48" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER48" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES48" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET48" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV48">
+        <v>16</v>
+      </c>
+      <c r="EW48" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>43898</v>
       </c>
@@ -12417,8 +14408,80 @@
       <c r="DY49" s="27">
         <v>0</v>
       </c>
+      <c r="DZ49">
+        <v>85</v>
+      </c>
+      <c r="EA49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB49">
+        <v>7</v>
+      </c>
+      <c r="EC49" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED49">
+        <v>3</v>
+      </c>
+      <c r="EE49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF49">
+        <v>64</v>
+      </c>
+      <c r="EG49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL49">
+        <v>9</v>
+      </c>
+      <c r="EM49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN49">
+        <v>16</v>
+      </c>
+      <c r="EO49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP49">
+        <v>3</v>
+      </c>
+      <c r="EQ49" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER49" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES49" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET49" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV49">
+        <v>16</v>
+      </c>
+      <c r="EW49" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43899</v>
       </c>
@@ -12806,8 +14869,80 @@
       <c r="DY50" s="27">
         <v>0</v>
       </c>
+      <c r="DZ50">
+        <v>109</v>
+      </c>
+      <c r="EA50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB50">
+        <v>9</v>
+      </c>
+      <c r="EC50" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED50">
+        <v>3</v>
+      </c>
+      <c r="EE50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF50">
+        <v>65</v>
+      </c>
+      <c r="EG50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL50">
+        <v>9</v>
+      </c>
+      <c r="EM50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN50">
+        <v>25</v>
+      </c>
+      <c r="EO50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP50">
+        <v>5</v>
+      </c>
+      <c r="EQ50" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER50" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES50" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET50" s="27">
+        <v>1</v>
+      </c>
+      <c r="EU50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV50">
+        <v>18</v>
+      </c>
+      <c r="EW50" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>43900</v>
       </c>
@@ -13195,8 +15330,80 @@
       <c r="DY51" s="27">
         <v>0</v>
       </c>
+      <c r="DZ51">
+        <v>110</v>
+      </c>
+      <c r="EA51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB51">
+        <v>12</v>
+      </c>
+      <c r="EC51" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED51">
+        <v>3</v>
+      </c>
+      <c r="EE51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF51">
+        <v>69</v>
+      </c>
+      <c r="EG51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL51">
+        <v>11</v>
+      </c>
+      <c r="EM51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN51">
+        <v>34</v>
+      </c>
+      <c r="EO51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP51">
+        <v>7</v>
+      </c>
+      <c r="EQ51" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER51" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES51" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET51">
+        <v>3</v>
+      </c>
+      <c r="EU51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV51">
+        <v>18</v>
+      </c>
+      <c r="EW51" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>43901</v>
       </c>
@@ -13584,8 +15791,80 @@
       <c r="DY52" s="27">
         <v>0</v>
       </c>
+      <c r="DZ52">
+        <v>195</v>
+      </c>
+      <c r="EA52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB52">
+        <v>13</v>
+      </c>
+      <c r="EC52" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED52">
+        <v>3</v>
+      </c>
+      <c r="EE52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF52">
+        <v>72</v>
+      </c>
+      <c r="EG52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL52">
+        <v>11</v>
+      </c>
+      <c r="EM52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EN52">
+        <v>57</v>
+      </c>
+      <c r="EO52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP52">
+        <v>7</v>
+      </c>
+      <c r="EQ52" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER52" s="27">
+        <v>1</v>
+      </c>
+      <c r="ES52" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET52">
+        <v>3</v>
+      </c>
+      <c r="EU52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV52">
+        <v>18</v>
+      </c>
+      <c r="EW52" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>43902</v>
       </c>
@@ -13602,7 +15881,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="13">
-        <v>1697</v>
+        <v>1630</v>
       </c>
       <c r="G53" s="14">
         <v>41</v>
@@ -13973,8 +16252,80 @@
       <c r="DY53" s="27">
         <v>0</v>
       </c>
+      <c r="DZ53">
+        <v>197</v>
+      </c>
+      <c r="EA53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB53">
+        <v>16</v>
+      </c>
+      <c r="EC53" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED53">
+        <v>3</v>
+      </c>
+      <c r="EE53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF53">
+        <v>80</v>
+      </c>
+      <c r="EG53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EI53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL53">
+        <v>15</v>
+      </c>
+      <c r="EM53">
+        <v>1</v>
+      </c>
+      <c r="EN53">
+        <v>96</v>
+      </c>
+      <c r="EO53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EP53">
+        <v>11</v>
+      </c>
+      <c r="EQ53" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER53">
+        <v>6</v>
+      </c>
+      <c r="ES53" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET53">
+        <v>3</v>
+      </c>
+      <c r="EU53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV53">
+        <v>18</v>
+      </c>
+      <c r="EW53" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43903</v>
       </c>
@@ -13991,10 +16342,10 @@
         <v>21</v>
       </c>
       <c r="F54" s="13">
-        <v>2247</v>
+        <v>2183</v>
       </c>
       <c r="G54" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" s="16">
         <v>17660</v>
@@ -14362,8 +16713,80 @@
       <c r="DY54" s="27">
         <v>0</v>
       </c>
+      <c r="DZ54">
+        <v>210</v>
+      </c>
+      <c r="EA54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB54">
+        <v>19</v>
+      </c>
+      <c r="EC54" s="27">
+        <v>0</v>
+      </c>
+      <c r="ED54">
+        <v>3</v>
+      </c>
+      <c r="EE54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF54">
+        <v>100</v>
+      </c>
+      <c r="EG54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH54">
+        <v>4</v>
+      </c>
+      <c r="EI54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL54">
+        <v>15</v>
+      </c>
+      <c r="EM54" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN54">
+        <v>141</v>
+      </c>
+      <c r="EO54">
+        <v>0</v>
+      </c>
+      <c r="EP54">
+        <v>18</v>
+      </c>
+      <c r="EQ54" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER54">
+        <v>8</v>
+      </c>
+      <c r="ES54" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET54">
+        <v>6</v>
+      </c>
+      <c r="EU54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV54">
+        <v>19</v>
+      </c>
+      <c r="EW54" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>43904</v>
       </c>
@@ -14380,7 +16803,7 @@
         <v>22</v>
       </c>
       <c r="F55" s="13">
-        <v>2943</v>
+        <v>2770</v>
       </c>
       <c r="G55" s="14">
         <v>57</v>
@@ -14751,8 +17174,80 @@
       <c r="DY55" s="27">
         <v>0</v>
       </c>
+      <c r="DZ55">
+        <v>212</v>
+      </c>
+      <c r="EA55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EB55">
+        <v>30</v>
+      </c>
+      <c r="EC55">
+        <v>0</v>
+      </c>
+      <c r="ED55">
+        <v>5</v>
+      </c>
+      <c r="EE55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF55">
+        <v>104</v>
+      </c>
+      <c r="EG55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH55">
+        <v>6</v>
+      </c>
+      <c r="EI55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EK55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL55">
+        <v>19</v>
+      </c>
+      <c r="EM55" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN55">
+        <v>181</v>
+      </c>
+      <c r="EO55">
+        <v>1</v>
+      </c>
+      <c r="EP55">
+        <v>21</v>
+      </c>
+      <c r="EQ55" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER55">
+        <v>20</v>
+      </c>
+      <c r="ES55" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET55">
+        <v>9</v>
+      </c>
+      <c r="EU55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV55">
+        <v>20</v>
+      </c>
+      <c r="EW55" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>43905</v>
       </c>
@@ -14769,10 +17264,10 @@
         <v>24</v>
       </c>
       <c r="F56" s="13">
-        <v>3680</v>
+        <v>3613</v>
       </c>
       <c r="G56" s="14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H56" s="16">
         <v>24747</v>
@@ -15140,8 +17635,80 @@
       <c r="DY56" s="27">
         <v>0</v>
       </c>
+      <c r="DZ56">
+        <v>214</v>
+      </c>
+      <c r="EA56">
+        <v>0</v>
+      </c>
+      <c r="EB56">
+        <v>32</v>
+      </c>
+      <c r="EC56">
+        <v>1</v>
+      </c>
+      <c r="ED56">
+        <v>5</v>
+      </c>
+      <c r="EE56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF56">
+        <v>112</v>
+      </c>
+      <c r="EG56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH56">
+        <v>9</v>
+      </c>
+      <c r="EI56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ56">
+        <v>4</v>
+      </c>
+      <c r="EK56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL56">
+        <v>23</v>
+      </c>
+      <c r="EM56" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN56">
+        <v>219</v>
+      </c>
+      <c r="EO56">
+        <v>1</v>
+      </c>
+      <c r="EP56">
+        <v>24</v>
+      </c>
+      <c r="EQ56" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER56">
+        <v>28</v>
+      </c>
+      <c r="ES56" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET56">
+        <v>14</v>
+      </c>
+      <c r="EU56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV56">
+        <v>22</v>
+      </c>
+      <c r="EW56" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>43906</v>
       </c>
@@ -15158,10 +17725,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="13">
-        <v>4663</v>
+        <v>4596</v>
       </c>
       <c r="G57" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" s="16">
         <v>27980</v>
@@ -15529,8 +18096,80 @@
       <c r="DY57" s="27">
         <v>0</v>
       </c>
+      <c r="DZ57">
+        <v>228</v>
+      </c>
+      <c r="EA57">
+        <v>1</v>
+      </c>
+      <c r="EB57">
+        <v>39</v>
+      </c>
+      <c r="EC57">
+        <v>1</v>
+      </c>
+      <c r="ED57">
+        <v>8</v>
+      </c>
+      <c r="EE57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EF57">
+        <v>123</v>
+      </c>
+      <c r="EG57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH57">
+        <v>10</v>
+      </c>
+      <c r="EI57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ57">
+        <v>8</v>
+      </c>
+      <c r="EK57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL57">
+        <v>25</v>
+      </c>
+      <c r="EM57" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN57">
+        <v>253</v>
+      </c>
+      <c r="EO57">
+        <v>1</v>
+      </c>
+      <c r="EP57">
+        <v>25</v>
+      </c>
+      <c r="EQ57" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER57">
+        <v>52</v>
+      </c>
+      <c r="ES57" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET57">
+        <v>18</v>
+      </c>
+      <c r="EU57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV57">
+        <v>24</v>
+      </c>
+      <c r="EW57" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>43907</v>
       </c>
@@ -15547,10 +18186,10 @@
         <v>29</v>
       </c>
       <c r="F58" s="13">
-        <v>6411</v>
+        <v>6346</v>
       </c>
       <c r="G58" s="14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H58" s="16">
         <v>31506</v>
@@ -15918,8 +18557,80 @@
       <c r="DY58" s="27">
         <v>0</v>
       </c>
+      <c r="DZ58">
+        <v>241</v>
+      </c>
+      <c r="EA58">
+        <v>1</v>
+      </c>
+      <c r="EB58">
+        <v>50</v>
+      </c>
+      <c r="EC58">
+        <v>1</v>
+      </c>
+      <c r="ED58">
+        <v>10</v>
+      </c>
+      <c r="EE58">
+        <v>0</v>
+      </c>
+      <c r="EF58">
+        <v>130</v>
+      </c>
+      <c r="EG58" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH58">
+        <v>33</v>
+      </c>
+      <c r="EI58" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ58">
+        <v>11</v>
+      </c>
+      <c r="EK58" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL58">
+        <v>34</v>
+      </c>
+      <c r="EM58" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN58">
+        <v>275</v>
+      </c>
+      <c r="EO58">
+        <v>1</v>
+      </c>
+      <c r="EP58">
+        <v>34</v>
+      </c>
+      <c r="EQ58" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER58">
+        <v>78</v>
+      </c>
+      <c r="ES58" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET58">
+        <v>26</v>
+      </c>
+      <c r="EU58" s="27">
+        <v>0</v>
+      </c>
+      <c r="EV58">
+        <v>33</v>
+      </c>
+      <c r="EW58" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>43908</v>
       </c>
@@ -15936,7 +18647,7 @@
         <v>29</v>
       </c>
       <c r="F59" s="13">
-        <v>9259</v>
+        <v>9296</v>
       </c>
       <c r="G59" s="14">
         <v>150</v>
@@ -16307,8 +19018,80 @@
       <c r="DY59" s="27">
         <v>0</v>
       </c>
+      <c r="DZ59">
+        <v>256</v>
+      </c>
+      <c r="EA59">
+        <v>1</v>
+      </c>
+      <c r="EB59">
+        <v>58</v>
+      </c>
+      <c r="EC59">
+        <v>1</v>
+      </c>
+      <c r="ED59">
+        <v>14</v>
+      </c>
+      <c r="EE59">
+        <v>1</v>
+      </c>
+      <c r="EF59">
+        <v>142</v>
+      </c>
+      <c r="EG59" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH59">
+        <v>36</v>
+      </c>
+      <c r="EI59" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ59">
+        <v>18</v>
+      </c>
+      <c r="EK59" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL59">
+        <v>34</v>
+      </c>
+      <c r="EM59" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN59">
+        <v>286</v>
+      </c>
+      <c r="EO59">
+        <v>1</v>
+      </c>
+      <c r="EP59">
+        <v>39</v>
+      </c>
+      <c r="EQ59" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER59">
+        <v>110</v>
+      </c>
+      <c r="ES59" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET59">
+        <v>34</v>
+      </c>
+      <c r="EU59">
+        <v>0</v>
+      </c>
+      <c r="EV59">
+        <v>39</v>
+      </c>
+      <c r="EW59" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>43909</v>
       </c>
@@ -16325,10 +19108,10 @@
         <v>33</v>
       </c>
       <c r="F60" s="13">
-        <v>13789</v>
+        <v>13865</v>
       </c>
       <c r="G60" s="14">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H60" s="16">
         <v>41035</v>
@@ -16696,8 +19479,80 @@
       <c r="DY60" s="27">
         <v>0</v>
       </c>
+      <c r="DZ60">
+        <v>279</v>
+      </c>
+      <c r="EA60">
+        <v>1</v>
+      </c>
+      <c r="EB60">
+        <v>73</v>
+      </c>
+      <c r="EC60">
+        <v>1</v>
+      </c>
+      <c r="ED60">
+        <v>18</v>
+      </c>
+      <c r="EE60">
+        <v>1</v>
+      </c>
+      <c r="EF60">
+        <v>148</v>
+      </c>
+      <c r="EG60" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH60">
+        <v>44</v>
+      </c>
+      <c r="EI60" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ60">
+        <v>23</v>
+      </c>
+      <c r="EK60" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL60">
+        <v>44</v>
+      </c>
+      <c r="EM60" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN60">
+        <v>319</v>
+      </c>
+      <c r="EO60">
+        <v>1</v>
+      </c>
+      <c r="EP60">
+        <v>64</v>
+      </c>
+      <c r="EQ60" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER60">
+        <v>122</v>
+      </c>
+      <c r="ES60" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET60">
+        <v>48</v>
+      </c>
+      <c r="EU60">
+        <v>0</v>
+      </c>
+      <c r="EV60">
+        <v>48</v>
+      </c>
+      <c r="EW60" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>43910</v>
       </c>
@@ -16714,10 +19569,10 @@
         <v>35</v>
       </c>
       <c r="F61" s="13">
-        <v>19383</v>
+        <v>19497</v>
       </c>
       <c r="G61" s="14">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H61" s="16">
         <v>47021</v>
@@ -17085,8 +19940,80 @@
       <c r="DY61" s="27">
         <v>0</v>
       </c>
+      <c r="DZ61">
+        <v>298</v>
+      </c>
+      <c r="EA61">
+        <v>1</v>
+      </c>
+      <c r="EB61">
+        <v>85</v>
+      </c>
+      <c r="EC61">
+        <v>4</v>
+      </c>
+      <c r="ED61">
+        <v>20</v>
+      </c>
+      <c r="EE61">
+        <v>1</v>
+      </c>
+      <c r="EF61">
+        <v>159</v>
+      </c>
+      <c r="EG61" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH61">
+        <v>52</v>
+      </c>
+      <c r="EI61" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ61">
+        <v>33</v>
+      </c>
+      <c r="EK61" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL61">
+        <v>44</v>
+      </c>
+      <c r="EM61" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN61">
+        <v>341</v>
+      </c>
+      <c r="EO61">
+        <v>1</v>
+      </c>
+      <c r="EP61">
+        <v>89</v>
+      </c>
+      <c r="EQ61" s="27">
+        <v>0</v>
+      </c>
+      <c r="ER61">
+        <v>136</v>
+      </c>
+      <c r="ES61" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET61">
+        <v>69</v>
+      </c>
+      <c r="EU61">
+        <v>1</v>
+      </c>
+      <c r="EV61">
+        <v>48</v>
+      </c>
+      <c r="EW61" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>43911</v>
       </c>
@@ -17103,10 +20030,10 @@
         <v>36</v>
       </c>
       <c r="F62" s="13">
-        <v>24207</v>
+        <v>24345</v>
       </c>
       <c r="G62" s="14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H62" s="16">
         <v>53578</v>
@@ -17474,8 +20401,80 @@
       <c r="DY62" s="27">
         <v>0</v>
       </c>
+      <c r="DZ62">
+        <v>310</v>
+      </c>
+      <c r="EA62">
+        <v>1</v>
+      </c>
+      <c r="EB62">
+        <v>103</v>
+      </c>
+      <c r="EC62">
+        <v>4</v>
+      </c>
+      <c r="ED62">
+        <v>24</v>
+      </c>
+      <c r="EE62">
+        <v>2</v>
+      </c>
+      <c r="EF62">
+        <v>176</v>
+      </c>
+      <c r="EG62" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH62">
+        <v>54</v>
+      </c>
+      <c r="EI62" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ62">
+        <v>41</v>
+      </c>
+      <c r="EK62" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL62">
+        <v>53</v>
+      </c>
+      <c r="EM62" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN62">
+        <v>383</v>
+      </c>
+      <c r="EO62">
+        <v>1</v>
+      </c>
+      <c r="EP62">
+        <v>93</v>
+      </c>
+      <c r="EQ62">
+        <v>1</v>
+      </c>
+      <c r="ER62">
+        <v>160</v>
+      </c>
+      <c r="ES62" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET62">
+        <v>99</v>
+      </c>
+      <c r="EU62">
+        <v>1</v>
+      </c>
+      <c r="EV62">
+        <v>52</v>
+      </c>
+      <c r="EW62" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>43912</v>
       </c>
@@ -17492,10 +20491,10 @@
         <v>41</v>
       </c>
       <c r="F63" s="13">
-        <v>33566</v>
+        <v>33745</v>
       </c>
       <c r="G63" s="14">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H63" s="16">
         <v>59138</v>
@@ -17863,8 +20862,80 @@
       <c r="DY63" s="27">
         <v>0</v>
       </c>
+      <c r="DZ63">
+        <v>334</v>
+      </c>
+      <c r="EA63">
+        <v>2</v>
+      </c>
+      <c r="EB63">
+        <v>131</v>
+      </c>
+      <c r="EC63">
+        <v>6</v>
+      </c>
+      <c r="ED63">
+        <v>27</v>
+      </c>
+      <c r="EE63">
+        <v>2</v>
+      </c>
+      <c r="EF63">
+        <v>188</v>
+      </c>
+      <c r="EG63" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH63">
+        <v>60</v>
+      </c>
+      <c r="EI63" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ63">
+        <v>43</v>
+      </c>
+      <c r="EK63" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL63">
+        <v>65</v>
+      </c>
+      <c r="EM63" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN63">
+        <v>414</v>
+      </c>
+      <c r="EO63">
+        <v>2</v>
+      </c>
+      <c r="EP63">
+        <v>126</v>
+      </c>
+      <c r="EQ63">
+        <v>1</v>
+      </c>
+      <c r="ER63">
+        <v>194</v>
+      </c>
+      <c r="ES63" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET63">
+        <v>143</v>
+      </c>
+      <c r="EU63">
+        <v>1</v>
+      </c>
+      <c r="EV63">
+        <v>55</v>
+      </c>
+      <c r="EW63" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>43913</v>
       </c>
@@ -17881,10 +20952,10 @@
         <v>42</v>
       </c>
       <c r="F64" s="13">
-        <v>43734</v>
+        <v>44056</v>
       </c>
       <c r="G64" s="14">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H64" s="16">
         <v>63927</v>
@@ -18252,8 +21323,80 @@
       <c r="DY64" s="27">
         <v>0</v>
       </c>
+      <c r="DZ64">
+        <v>377</v>
+      </c>
+      <c r="EA64">
+        <v>2</v>
+      </c>
+      <c r="EB64">
+        <v>167</v>
+      </c>
+      <c r="EC64">
+        <v>8</v>
+      </c>
+      <c r="ED64">
+        <v>33</v>
+      </c>
+      <c r="EE64">
+        <v>3</v>
+      </c>
+      <c r="EF64">
+        <v>189</v>
+      </c>
+      <c r="EG64" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH64">
+        <v>62</v>
+      </c>
+      <c r="EI64" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ64">
+        <v>46</v>
+      </c>
+      <c r="EK64" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL64">
+        <v>72</v>
+      </c>
+      <c r="EM64" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN64">
+        <v>442</v>
+      </c>
+      <c r="EO64">
+        <v>3</v>
+      </c>
+      <c r="EP64">
+        <v>136</v>
+      </c>
+      <c r="EQ64">
+        <v>1</v>
+      </c>
+      <c r="ER64">
+        <v>235</v>
+      </c>
+      <c r="ES64" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET64">
+        <v>179</v>
+      </c>
+      <c r="EU64">
+        <v>1</v>
+      </c>
+      <c r="EV64">
+        <v>66</v>
+      </c>
+      <c r="EW64" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>43914</v>
       </c>
@@ -18270,10 +21413,10 @@
         <v>43</v>
       </c>
       <c r="F65" s="24">
-        <v>54856</v>
+        <v>55222</v>
       </c>
       <c r="G65" s="24">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H65" s="24">
         <v>69176</v>
@@ -18641,8 +21784,80 @@
       <c r="DY65" s="27">
         <v>0</v>
       </c>
+      <c r="DZ65">
+        <v>392</v>
+      </c>
+      <c r="EA65">
+        <v>3</v>
+      </c>
+      <c r="EB65">
+        <v>187</v>
+      </c>
+      <c r="EC65">
+        <v>9</v>
+      </c>
+      <c r="ED65">
+        <v>39</v>
+      </c>
+      <c r="EE65">
+        <v>4</v>
+      </c>
+      <c r="EF65">
+        <v>191</v>
+      </c>
+      <c r="EG65" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH65">
+        <v>72</v>
+      </c>
+      <c r="EI65" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ65">
+        <v>50</v>
+      </c>
+      <c r="EK65" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL65">
+        <v>87</v>
+      </c>
+      <c r="EM65" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN65">
+        <v>480</v>
+      </c>
+      <c r="EO65">
+        <v>4</v>
+      </c>
+      <c r="EP65">
+        <v>168</v>
+      </c>
+      <c r="EQ65">
+        <v>3</v>
+      </c>
+      <c r="ER65">
+        <v>249</v>
+      </c>
+      <c r="ES65" s="27">
+        <v>0</v>
+      </c>
+      <c r="ET65">
+        <v>209</v>
+      </c>
+      <c r="EU65">
+        <v>2</v>
+      </c>
+      <c r="EV65">
+        <v>84</v>
+      </c>
+      <c r="EW65" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>43915</v>
       </c>
@@ -18659,10 +21874,10 @@
         <v>45</v>
       </c>
       <c r="F66" s="24">
-        <v>68211</v>
+        <v>68673</v>
       </c>
       <c r="G66" s="24">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H66" s="24">
         <v>74386</v>
@@ -19030,8 +22245,80 @@
       <c r="DY66" s="27">
         <v>0</v>
       </c>
+      <c r="DZ66">
+        <v>419</v>
+      </c>
+      <c r="EA66">
+        <v>4</v>
+      </c>
+      <c r="EB66">
+        <v>226</v>
+      </c>
+      <c r="EC66">
+        <v>10</v>
+      </c>
+      <c r="ED66">
+        <v>39</v>
+      </c>
+      <c r="EE66">
+        <v>5</v>
+      </c>
+      <c r="EF66">
+        <v>195</v>
+      </c>
+      <c r="EG66" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH66">
+        <v>81</v>
+      </c>
+      <c r="EI66" s="27">
+        <v>0</v>
+      </c>
+      <c r="EJ66">
+        <v>60</v>
+      </c>
+      <c r="EK66" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL66">
+        <v>93</v>
+      </c>
+      <c r="EM66">
+        <v>2</v>
+      </c>
+      <c r="EN66">
+        <v>528</v>
+      </c>
+      <c r="EO66">
+        <v>5</v>
+      </c>
+      <c r="EP66">
+        <v>176</v>
+      </c>
+      <c r="EQ66">
+        <v>3</v>
+      </c>
+      <c r="ER66">
+        <v>265</v>
+      </c>
+      <c r="ES66">
+        <v>0</v>
+      </c>
+      <c r="ET66">
+        <v>274</v>
+      </c>
+      <c r="EU66">
+        <v>4</v>
+      </c>
+      <c r="EV66">
+        <v>99</v>
+      </c>
+      <c r="EW66" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>43916</v>
       </c>
@@ -19048,10 +22335,10 @@
         <v>47</v>
       </c>
       <c r="F67" s="24">
-        <v>85435</v>
+        <v>86061</v>
       </c>
       <c r="G67" s="24">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H67" s="24">
         <v>80589</v>
@@ -19419,8 +22706,80 @@
       <c r="DY67" s="27">
         <v>0</v>
       </c>
+      <c r="DZ67" s="27">
+        <v>458</v>
+      </c>
+      <c r="EA67" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB67">
+        <v>261</v>
+      </c>
+      <c r="EC67">
+        <v>10</v>
+      </c>
+      <c r="ED67">
+        <v>44</v>
+      </c>
+      <c r="EE67">
+        <v>5</v>
+      </c>
+      <c r="EF67">
+        <v>208</v>
+      </c>
+      <c r="EG67" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH67">
+        <v>113</v>
+      </c>
+      <c r="EI67">
+        <v>1</v>
+      </c>
+      <c r="EJ67">
+        <v>75</v>
+      </c>
+      <c r="EK67" s="27">
+        <v>0</v>
+      </c>
+      <c r="EL67">
+        <v>122</v>
+      </c>
+      <c r="EM67">
+        <v>3</v>
+      </c>
+      <c r="EN67">
+        <v>562</v>
+      </c>
+      <c r="EO67">
+        <v>6</v>
+      </c>
+      <c r="EP67">
+        <v>191</v>
+      </c>
+      <c r="EQ67">
+        <v>3</v>
+      </c>
+      <c r="ER67">
+        <v>290</v>
+      </c>
+      <c r="ES67">
+        <v>1</v>
+      </c>
+      <c r="ET67">
+        <v>299</v>
+      </c>
+      <c r="EU67">
+        <v>4</v>
+      </c>
+      <c r="EV67">
+        <v>109</v>
+      </c>
+      <c r="EW67" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>43917</v>
       </c>
@@ -19437,10 +22796,10 @@
         <v>49</v>
       </c>
       <c r="F68" s="24">
-        <v>104126</v>
+        <v>104804</v>
       </c>
       <c r="G68" s="24">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H68" s="24">
         <v>86498</v>
@@ -19808,8 +23167,80 @@
       <c r="DY68" s="27">
         <v>0</v>
       </c>
+      <c r="DZ68" s="27">
+        <v>466</v>
+      </c>
+      <c r="EA68" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB68">
+        <v>300</v>
+      </c>
+      <c r="EC68">
+        <v>10</v>
+      </c>
+      <c r="ED68">
+        <v>48</v>
+      </c>
+      <c r="EE68">
+        <v>5</v>
+      </c>
+      <c r="EF68">
+        <v>225</v>
+      </c>
+      <c r="EG68" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH68">
+        <v>150</v>
+      </c>
+      <c r="EI68">
+        <v>1</v>
+      </c>
+      <c r="EJ68">
+        <v>88</v>
+      </c>
+      <c r="EK68">
+        <v>1</v>
+      </c>
+      <c r="EL68">
+        <v>165</v>
+      </c>
+      <c r="EM68">
+        <v>3</v>
+      </c>
+      <c r="EN68">
+        <v>632</v>
+      </c>
+      <c r="EO68">
+        <v>9</v>
+      </c>
+      <c r="EP68">
+        <v>237</v>
+      </c>
+      <c r="EQ68">
+        <v>4</v>
+      </c>
+      <c r="ER68">
+        <v>329</v>
+      </c>
+      <c r="ES68">
+        <v>1</v>
+      </c>
+      <c r="ET68">
+        <v>358</v>
+      </c>
+      <c r="EU68">
+        <v>5</v>
+      </c>
+      <c r="EV68">
+        <v>131</v>
+      </c>
+      <c r="EW68" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>43918</v>
       </c>
@@ -19826,10 +23257,10 @@
         <v>52</v>
       </c>
       <c r="F69" s="24">
-        <v>123578</v>
+        <v>124256</v>
       </c>
       <c r="G69" s="24">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="H69" s="24">
         <v>92472</v>
@@ -20197,8 +23628,80 @@
       <c r="DY69" s="27">
         <v>0</v>
       </c>
+      <c r="DZ69" s="27">
+        <v>476</v>
+      </c>
+      <c r="EA69" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB69">
+        <v>343</v>
+      </c>
+      <c r="EC69">
+        <v>11</v>
+      </c>
+      <c r="ED69">
+        <v>48</v>
+      </c>
+      <c r="EE69">
+        <v>5</v>
+      </c>
+      <c r="EF69">
+        <v>235</v>
+      </c>
+      <c r="EG69" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH69">
+        <v>228</v>
+      </c>
+      <c r="EI69">
+        <v>1</v>
+      </c>
+      <c r="EJ69">
+        <v>104</v>
+      </c>
+      <c r="EK69">
+        <v>2</v>
+      </c>
+      <c r="EL69">
+        <v>182</v>
+      </c>
+      <c r="EM69">
+        <v>4</v>
+      </c>
+      <c r="EN69">
+        <v>684</v>
+      </c>
+      <c r="EO69">
+        <v>9</v>
+      </c>
+      <c r="EP69">
+        <v>278</v>
+      </c>
+      <c r="EQ69">
+        <v>6</v>
+      </c>
+      <c r="ER69">
+        <v>407</v>
+      </c>
+      <c r="ES69">
+        <v>1</v>
+      </c>
+      <c r="ET69">
+        <v>394</v>
+      </c>
+      <c r="EU69">
+        <v>7</v>
+      </c>
+      <c r="EV69">
+        <v>152</v>
+      </c>
+      <c r="EW69" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>43919</v>
       </c>
@@ -20215,10 +23718,10 @@
         <v>54</v>
       </c>
       <c r="F70" s="24">
-        <v>143491</v>
+        <v>144321</v>
       </c>
       <c r="G70" s="24">
-        <v>2583</v>
+        <v>2592</v>
       </c>
       <c r="H70" s="24">
         <v>97689</v>
@@ -20586,8 +24089,80 @@
       <c r="DY70" s="27">
         <v>0</v>
       </c>
+      <c r="DZ70" s="27">
+        <v>499</v>
+      </c>
+      <c r="EA70" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB70">
+        <v>408</v>
+      </c>
+      <c r="EC70">
+        <v>13</v>
+      </c>
+      <c r="ED70">
+        <v>48</v>
+      </c>
+      <c r="EE70">
+        <v>5</v>
+      </c>
+      <c r="EF70">
+        <v>255</v>
+      </c>
+      <c r="EG70" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH70">
+        <v>284</v>
+      </c>
+      <c r="EI70">
+        <v>1</v>
+      </c>
+      <c r="EJ70">
+        <v>144</v>
+      </c>
+      <c r="EK70" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL70">
+        <v>209</v>
+      </c>
+      <c r="EM70">
+        <v>4</v>
+      </c>
+      <c r="EN70">
+        <v>730</v>
+      </c>
+      <c r="EO70">
+        <v>11</v>
+      </c>
+      <c r="EP70">
+        <v>323</v>
+      </c>
+      <c r="EQ70">
+        <v>6</v>
+      </c>
+      <c r="ER70">
+        <v>424</v>
+      </c>
+      <c r="ES70">
+        <v>3</v>
+      </c>
+      <c r="ET70">
+        <v>460</v>
+      </c>
+      <c r="EU70">
+        <v>7</v>
+      </c>
+      <c r="EV70">
+        <v>167</v>
+      </c>
+      <c r="EW70" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>43920</v>
       </c>
@@ -20604,10 +24179,10 @@
         <v>56</v>
       </c>
       <c r="F71" s="24">
-        <v>163788</v>
+        <v>165053</v>
       </c>
       <c r="G71" s="24">
-        <v>3141</v>
+        <v>3150</v>
       </c>
       <c r="H71" s="24">
         <v>101739</v>
@@ -20975,8 +24550,80 @@
       <c r="DY71" s="27">
         <v>0</v>
       </c>
+      <c r="DZ71" s="27">
+        <v>515</v>
+      </c>
+      <c r="EA71" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB71">
+        <v>447</v>
+      </c>
+      <c r="EC71">
+        <v>15</v>
+      </c>
+      <c r="ED71">
+        <v>49</v>
+      </c>
+      <c r="EE71">
+        <v>5</v>
+      </c>
+      <c r="EF71">
+        <v>266</v>
+      </c>
+      <c r="EG71" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH71">
+        <v>302</v>
+      </c>
+      <c r="EI71">
+        <v>1</v>
+      </c>
+      <c r="EJ71">
+        <v>149</v>
+      </c>
+      <c r="EK71" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL71">
+        <v>273</v>
+      </c>
+      <c r="EM71">
+        <v>4</v>
+      </c>
+      <c r="EN71">
+        <v>756</v>
+      </c>
+      <c r="EO71">
+        <v>11</v>
+      </c>
+      <c r="EP71">
+        <v>368</v>
+      </c>
+      <c r="EQ71">
+        <v>10</v>
+      </c>
+      <c r="ER71">
+        <v>482</v>
+      </c>
+      <c r="ES71">
+        <v>3</v>
+      </c>
+      <c r="ET71">
+        <v>491</v>
+      </c>
+      <c r="EU71">
+        <v>7</v>
+      </c>
+      <c r="EV71">
+        <v>179</v>
+      </c>
+      <c r="EW71" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>43921</v>
       </c>
@@ -20993,10 +24640,10 @@
         <v>57</v>
       </c>
       <c r="F72" s="24">
-        <v>188530</v>
+        <v>189967</v>
       </c>
       <c r="G72" s="24">
-        <v>4053</v>
+        <v>4064</v>
       </c>
       <c r="H72" s="24">
         <v>105792</v>
@@ -21364,8 +25011,80 @@
       <c r="DY72">
         <v>1</v>
       </c>
+      <c r="DZ72" s="31">
+        <v>567</v>
+      </c>
+      <c r="EA72" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB72">
+        <v>492</v>
+      </c>
+      <c r="EC72">
+        <v>16</v>
+      </c>
+      <c r="ED72">
+        <v>51</v>
+      </c>
+      <c r="EE72">
+        <v>5</v>
+      </c>
+      <c r="EF72">
+        <v>289</v>
+      </c>
+      <c r="EG72" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH72">
+        <v>343</v>
+      </c>
+      <c r="EI72">
+        <v>2</v>
+      </c>
+      <c r="EJ72">
+        <v>172</v>
+      </c>
+      <c r="EK72" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL72">
+        <v>298</v>
+      </c>
+      <c r="EM72">
+        <v>5</v>
+      </c>
+      <c r="EN72">
+        <v>802</v>
+      </c>
+      <c r="EO72">
+        <v>15</v>
+      </c>
+      <c r="EP72">
+        <v>420</v>
+      </c>
+      <c r="EQ72">
+        <v>13</v>
+      </c>
+      <c r="ER72">
+        <v>532</v>
+      </c>
+      <c r="ES72">
+        <v>3</v>
+      </c>
+      <c r="ET72">
+        <v>537</v>
+      </c>
+      <c r="EU72">
+        <v>8</v>
+      </c>
+      <c r="EV72">
+        <v>192</v>
+      </c>
+      <c r="EW72" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>43922</v>
       </c>
@@ -21382,10 +25101,10 @@
         <v>57</v>
       </c>
       <c r="F73" s="24">
-        <v>215003</v>
+        <v>216622</v>
       </c>
       <c r="G73" s="24">
-        <v>5102</v>
+        <v>5114</v>
       </c>
       <c r="H73" s="24">
         <v>110574</v>
@@ -21753,8 +25472,80 @@
       <c r="DY73" s="31">
         <v>2</v>
       </c>
+      <c r="DZ73" s="31">
+        <v>569</v>
+      </c>
+      <c r="EA73" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB73" s="31">
+        <v>525</v>
+      </c>
+      <c r="EC73" s="31">
+        <v>20</v>
+      </c>
+      <c r="ED73" s="31">
+        <v>54</v>
+      </c>
+      <c r="EE73" s="31">
+        <v>6</v>
+      </c>
+      <c r="EF73" s="31">
+        <v>317</v>
+      </c>
+      <c r="EG73" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="31">
+        <v>380</v>
+      </c>
+      <c r="EI73" s="31">
+        <v>3</v>
+      </c>
+      <c r="EJ73" s="31">
+        <v>181</v>
+      </c>
+      <c r="EK73" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL73" s="31">
+        <v>359</v>
+      </c>
+      <c r="EM73" s="31">
+        <v>5</v>
+      </c>
+      <c r="EN73" s="31">
+        <v>841</v>
+      </c>
+      <c r="EO73" s="31">
+        <v>15</v>
+      </c>
+      <c r="EP73" s="31">
+        <v>459</v>
+      </c>
+      <c r="EQ73" s="31">
+        <v>13</v>
+      </c>
+      <c r="ER73" s="31">
+        <v>571</v>
+      </c>
+      <c r="ES73" s="31">
+        <v>4</v>
+      </c>
+      <c r="ET73" s="31">
+        <v>581</v>
+      </c>
+      <c r="EU73" s="31">
+        <v>8</v>
+      </c>
+      <c r="EV73" s="31">
+        <v>210</v>
+      </c>
+      <c r="EW73" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A74" s="28">
         <v>43923</v>
       </c>
@@ -21771,10 +25562,10 @@
         <v>63</v>
       </c>
       <c r="F74" s="24">
-        <v>244877</v>
+        <v>246729</v>
       </c>
       <c r="G74" s="24">
-        <v>6076</v>
+        <v>6088</v>
       </c>
       <c r="H74" s="24">
         <v>115242</v>
@@ -22142,8 +25933,80 @@
       <c r="DY74" s="31">
         <v>4</v>
       </c>
+      <c r="DZ74" s="31">
+        <v>643</v>
+      </c>
+      <c r="EA74" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB74" s="31">
+        <v>585</v>
+      </c>
+      <c r="EC74" s="31">
+        <v>21</v>
+      </c>
+      <c r="ED74" s="31">
+        <v>56</v>
+      </c>
+      <c r="EE74" s="31">
+        <v>6</v>
+      </c>
+      <c r="EF74" s="31">
+        <v>342</v>
+      </c>
+      <c r="EG74" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH74" s="31">
+        <v>435</v>
+      </c>
+      <c r="EI74" s="31">
+        <v>3</v>
+      </c>
+      <c r="EJ74" s="31">
+        <v>205</v>
+      </c>
+      <c r="EK74" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL74" s="31">
+        <v>400</v>
+      </c>
+      <c r="EM74" s="31">
+        <v>5</v>
+      </c>
+      <c r="EN74" s="31">
+        <v>897</v>
+      </c>
+      <c r="EO74" s="31">
+        <v>17</v>
+      </c>
+      <c r="EP74" s="31">
+        <v>533</v>
+      </c>
+      <c r="EQ74" s="31">
+        <v>16</v>
+      </c>
+      <c r="ER74" s="31">
+        <v>663</v>
+      </c>
+      <c r="ES74" s="31">
+        <v>7</v>
+      </c>
+      <c r="ET74" s="31">
+        <v>649</v>
+      </c>
+      <c r="EU74" s="31">
+        <v>9</v>
+      </c>
+      <c r="EV74" s="31">
+        <v>231</v>
+      </c>
+      <c r="EW74" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A75" s="28">
         <v>43924</v>
       </c>
@@ -22160,10 +26023,10 @@
         <v>69</v>
       </c>
       <c r="F75" s="24">
-        <v>277161</v>
+        <v>279183</v>
       </c>
       <c r="G75" s="24">
-        <v>7121</v>
+        <v>7139</v>
       </c>
       <c r="H75">
         <v>119827</v>
@@ -22531,8 +26394,80 @@
       <c r="DY75" s="31">
         <v>4</v>
       </c>
+      <c r="DZ75" s="31">
+        <v>672</v>
+      </c>
+      <c r="EA75" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB75" s="31">
+        <v>623</v>
+      </c>
+      <c r="EC75" s="31">
+        <v>26</v>
+      </c>
+      <c r="ED75" s="31">
+        <v>61</v>
+      </c>
+      <c r="EE75" s="31">
+        <v>6</v>
+      </c>
+      <c r="EF75" s="31">
+        <v>417</v>
+      </c>
+      <c r="EG75" s="27">
+        <v>0</v>
+      </c>
+      <c r="EH75" s="31">
+        <v>464</v>
+      </c>
+      <c r="EI75" s="31">
+        <v>3</v>
+      </c>
+      <c r="EJ75" s="31">
+        <v>227</v>
+      </c>
+      <c r="EK75" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL75" s="31">
+        <v>443</v>
+      </c>
+      <c r="EM75" s="31">
+        <v>5</v>
+      </c>
+      <c r="EN75" s="31">
+        <v>934</v>
+      </c>
+      <c r="EO75" s="31">
+        <v>20</v>
+      </c>
+      <c r="EP75" s="31">
+        <v>579</v>
+      </c>
+      <c r="EQ75" s="31">
+        <v>17</v>
+      </c>
+      <c r="ER75" s="31">
+        <v>736</v>
+      </c>
+      <c r="ES75" s="31">
+        <v>7</v>
+      </c>
+      <c r="ET75" s="31">
+        <v>696</v>
+      </c>
+      <c r="EU75" s="31">
+        <v>9</v>
+      </c>
+      <c r="EV75" s="31">
+        <v>252</v>
+      </c>
+      <c r="EW75" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A76" s="28">
         <v>43925</v>
       </c>
@@ -22549,10 +26484,10 @@
         <v>77</v>
       </c>
       <c r="F76" s="24">
-        <v>311357</v>
+        <v>313379</v>
       </c>
       <c r="G76">
-        <v>8451</v>
+        <v>8469</v>
       </c>
       <c r="H76">
         <v>124632</v>
@@ -22920,8 +26855,80 @@
       <c r="DY76" s="31">
         <v>5</v>
       </c>
+      <c r="DZ76" s="31">
+        <v>688</v>
+      </c>
+      <c r="EA76" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB76" s="31">
+        <v>678</v>
+      </c>
+      <c r="EC76" s="31">
+        <v>32</v>
+      </c>
+      <c r="ED76" s="31">
+        <v>70</v>
+      </c>
+      <c r="EE76" s="31">
+        <v>8</v>
+      </c>
+      <c r="EF76" s="31">
+        <v>479</v>
+      </c>
+      <c r="EG76" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH76" s="31">
+        <v>531</v>
+      </c>
+      <c r="EI76" s="31">
+        <v>5</v>
+      </c>
+      <c r="EJ76" s="31">
+        <v>266</v>
+      </c>
+      <c r="EK76" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL76" s="31">
+        <v>521</v>
+      </c>
+      <c r="EM76" s="31">
+        <v>5</v>
+      </c>
+      <c r="EN76" s="31">
+        <v>977</v>
+      </c>
+      <c r="EO76" s="31">
+        <v>22</v>
+      </c>
+      <c r="EP76" s="31">
+        <v>624</v>
+      </c>
+      <c r="EQ76" s="31">
+        <v>21</v>
+      </c>
+      <c r="ER76" s="31">
+        <v>770</v>
+      </c>
+      <c r="ES76" s="31">
+        <v>7</v>
+      </c>
+      <c r="ET76" s="31">
+        <v>771</v>
+      </c>
+      <c r="EU76" s="31">
+        <v>11</v>
+      </c>
+      <c r="EV76" s="31">
+        <v>277</v>
+      </c>
+      <c r="EW76" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="77" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A77" s="28">
         <v>43926</v>
       </c>
@@ -22938,10 +26945,10 @@
         <v>85</v>
       </c>
       <c r="F77" s="24">
-        <v>336673</v>
+        <v>338779</v>
       </c>
       <c r="G77">
-        <v>9616</v>
+        <v>9636</v>
       </c>
       <c r="H77">
         <v>128948</v>
@@ -23309,8 +27316,80 @@
       <c r="DY77" s="31">
         <v>8</v>
       </c>
+      <c r="DZ77" s="31">
+        <v>700</v>
+      </c>
+      <c r="EA77" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB77" s="31">
+        <v>733</v>
+      </c>
+      <c r="EC77" s="31">
+        <v>34</v>
+      </c>
+      <c r="ED77" s="31">
+        <v>88</v>
+      </c>
+      <c r="EE77" s="31">
+        <v>9</v>
+      </c>
+      <c r="EF77" s="31">
+        <v>556</v>
+      </c>
+      <c r="EG77" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH77" s="31">
+        <v>584</v>
+      </c>
+      <c r="EI77" s="31">
+        <v>6</v>
+      </c>
+      <c r="EJ77" s="31">
+        <v>342</v>
+      </c>
+      <c r="EK77" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL77" s="31">
+        <v>584</v>
+      </c>
+      <c r="EM77" s="31">
+        <v>7</v>
+      </c>
+      <c r="EN77" s="31">
+        <v>997</v>
+      </c>
+      <c r="EO77" s="31">
+        <v>28</v>
+      </c>
+      <c r="EP77" s="31">
+        <v>654</v>
+      </c>
+      <c r="EQ77" s="31">
+        <v>23</v>
+      </c>
+      <c r="ER77" s="31">
+        <v>822</v>
+      </c>
+      <c r="ES77" s="31">
+        <v>7</v>
+      </c>
+      <c r="ET77" s="31">
+        <v>811</v>
+      </c>
+      <c r="EU77" s="31">
+        <v>13</v>
+      </c>
+      <c r="EV77" s="31">
+        <v>298</v>
+      </c>
+      <c r="EW77" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A78" s="28">
         <v>43927</v>
       </c>
@@ -23327,10 +27406,10 @@
         <v>92</v>
       </c>
       <c r="F78" s="24">
-        <v>367004</v>
+        <v>370019</v>
       </c>
       <c r="G78">
-        <v>10871</v>
+        <v>10895</v>
       </c>
       <c r="H78">
         <v>132547</v>
@@ -23698,8 +27777,80 @@
       <c r="DY78" s="31">
         <v>13</v>
       </c>
+      <c r="DZ78" s="31">
+        <v>756</v>
+      </c>
+      <c r="EA78" s="27">
+        <v>4</v>
+      </c>
+      <c r="EB78" s="31">
+        <v>744</v>
+      </c>
+      <c r="EC78" s="31">
+        <v>38</v>
+      </c>
+      <c r="ED78" s="31">
+        <v>123</v>
+      </c>
+      <c r="EE78" s="31">
+        <v>12</v>
+      </c>
+      <c r="EF78" s="31">
+        <v>665</v>
+      </c>
+      <c r="EG78" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH78" s="31">
+        <v>662</v>
+      </c>
+      <c r="EI78" s="31">
+        <v>6</v>
+      </c>
+      <c r="EJ78" s="31">
+        <v>457</v>
+      </c>
+      <c r="EK78" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL78" s="31">
+        <v>641</v>
+      </c>
+      <c r="EM78" s="31">
+        <v>7</v>
+      </c>
+      <c r="EN78" s="31">
+        <v>1021</v>
+      </c>
+      <c r="EO78" s="31">
+        <v>30</v>
+      </c>
+      <c r="EP78" s="31">
+        <v>674</v>
+      </c>
+      <c r="EQ78" s="31">
+        <v>29</v>
+      </c>
+      <c r="ER78" s="31">
+        <v>833</v>
+      </c>
+      <c r="ES78" s="31">
+        <v>8</v>
+      </c>
+      <c r="ET78" s="31">
+        <v>843</v>
+      </c>
+      <c r="EU78" s="31">
+        <v>15</v>
+      </c>
+      <c r="EV78" s="31">
+        <v>331</v>
+      </c>
+      <c r="EW78" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A79" s="28">
         <v>43928</v>
       </c>
@@ -23716,10 +27867,10 @@
         <v>93</v>
       </c>
       <c r="F79" s="24">
-        <v>400335</v>
+        <v>403521</v>
       </c>
       <c r="G79">
-        <v>12841</v>
+        <v>12868</v>
       </c>
       <c r="H79">
         <v>135586</v>
@@ -24087,58 +28238,449 @@
       <c r="DY79" s="31">
         <v>13</v>
       </c>
+      <c r="DZ79" s="31">
+        <v>811</v>
+      </c>
+      <c r="EA79" s="31">
+        <v>5</v>
+      </c>
+      <c r="EB79" s="31">
+        <v>817</v>
+      </c>
+      <c r="EC79" s="31">
+        <v>47</v>
+      </c>
+      <c r="ED79" s="31">
+        <v>164</v>
+      </c>
+      <c r="EE79" s="31">
+        <v>17</v>
+      </c>
+      <c r="EF79" s="31">
+        <v>743</v>
+      </c>
+      <c r="EG79" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH79" s="31">
+        <v>697</v>
+      </c>
+      <c r="EI79" s="31">
+        <v>6</v>
+      </c>
+      <c r="EJ79" s="31">
+        <v>520</v>
+      </c>
+      <c r="EK79" s="27">
+        <v>2</v>
+      </c>
+      <c r="EL79" s="31">
+        <v>717</v>
+      </c>
+      <c r="EM79" s="31">
+        <v>8</v>
+      </c>
+      <c r="EN79" s="31">
+        <v>1059</v>
+      </c>
+      <c r="EO79" s="31">
+        <v>36</v>
+      </c>
+      <c r="EP79" s="31">
+        <v>764</v>
+      </c>
+      <c r="EQ79" s="31">
+        <v>33</v>
+      </c>
+      <c r="ER79" s="31">
+        <v>853</v>
+      </c>
+      <c r="ES79" s="31">
+        <v>8</v>
+      </c>
+      <c r="ET79" s="31">
+        <v>880</v>
+      </c>
+      <c r="EU79" s="31">
+        <v>15</v>
+      </c>
+      <c r="EV79" s="31">
+        <v>371</v>
+      </c>
+      <c r="EW79" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A80" s="28">
         <v>43929</v>
       </c>
+      <c r="B80" s="23">
+        <v>10384</v>
+      </c>
+      <c r="C80" s="23">
+        <v>200</v>
+      </c>
       <c r="D80" s="23">
         <v>4667</v>
       </c>
       <c r="E80" s="23">
         <v>94</v>
       </c>
-      <c r="AD80" s="24"/>
-      <c r="AF80" s="24"/>
+      <c r="F80" s="24">
+        <v>435518</v>
+      </c>
+      <c r="G80" s="24">
+        <v>14811</v>
+      </c>
+      <c r="H80" s="24">
+        <v>139422</v>
+      </c>
+      <c r="I80" s="24">
+        <v>17669</v>
+      </c>
+      <c r="J80">
+        <v>148220</v>
+      </c>
+      <c r="K80">
+        <v>14792</v>
+      </c>
+      <c r="L80">
+        <v>81865</v>
+      </c>
+      <c r="M80">
+        <v>3335</v>
+      </c>
+      <c r="N80" s="24">
+        <v>113296</v>
+      </c>
+      <c r="O80" s="24">
+        <v>2349</v>
+      </c>
+      <c r="P80" s="23">
+        <v>112950</v>
+      </c>
+      <c r="Q80" s="23">
+        <v>10869</v>
+      </c>
+      <c r="R80" s="23">
+        <v>64586</v>
+      </c>
+      <c r="S80" s="23">
+        <v>3993</v>
+      </c>
+      <c r="T80" s="23">
+        <v>60733</v>
+      </c>
+      <c r="U80" s="24">
+        <v>7097</v>
+      </c>
+      <c r="V80" s="24">
+        <v>23280</v>
+      </c>
+      <c r="W80" s="24">
+        <v>895</v>
+      </c>
+      <c r="X80" s="24">
+        <v>38226</v>
+      </c>
+      <c r="Y80" s="24">
+        <v>812</v>
+      </c>
+      <c r="Z80" s="24">
+        <v>23403</v>
+      </c>
+      <c r="AA80" s="24">
+        <v>2240</v>
+      </c>
+      <c r="AB80" s="24">
+        <v>20549</v>
+      </c>
+      <c r="AC80" s="24">
+        <v>2248</v>
+      </c>
+      <c r="AD80" s="24">
+        <v>12941</v>
+      </c>
+      <c r="AE80" s="24">
+        <v>273</v>
+      </c>
+      <c r="AF80" s="24">
+        <v>19438</v>
+      </c>
+      <c r="AG80" s="24">
+        <v>427</v>
+      </c>
+      <c r="AH80" s="24">
+        <v>13141</v>
+      </c>
+      <c r="AI80" s="24">
+        <v>380</v>
+      </c>
       <c r="AJ80" s="24">
         <v>16188</v>
       </c>
       <c r="AK80" s="24">
         <v>820</v>
       </c>
-      <c r="AP80" s="24"/>
-      <c r="AV80" s="24"/>
-      <c r="BF80" s="24"/>
+      <c r="AL80" s="31">
+        <v>9404</v>
+      </c>
+      <c r="AM80" s="31">
+        <v>73</v>
+      </c>
+      <c r="AN80" s="31">
+        <v>6052</v>
+      </c>
+      <c r="AO80" s="31">
+        <v>50</v>
+      </c>
+      <c r="AP80" s="30">
+        <v>6042</v>
+      </c>
+      <c r="AQ80" s="31">
+        <v>101</v>
+      </c>
+      <c r="AR80" s="31">
+        <v>8419</v>
+      </c>
+      <c r="AS80" s="31">
+        <v>687</v>
+      </c>
+      <c r="AT80" s="31">
+        <v>6074</v>
+      </c>
+      <c r="AU80" s="31">
+        <v>235</v>
+      </c>
+      <c r="AV80" s="30">
+        <v>5402</v>
+      </c>
+      <c r="AW80" s="31">
+        <v>218</v>
+      </c>
+      <c r="AX80" s="31">
+        <v>4119</v>
+      </c>
+      <c r="AY80" s="31">
+        <v>65</v>
+      </c>
+      <c r="AZ80" s="31">
+        <v>5205</v>
+      </c>
+      <c r="BA80" s="31">
+        <v>159</v>
+      </c>
+      <c r="BB80" s="31">
+        <v>3870</v>
+      </c>
+      <c r="BC80" s="31">
+        <v>182</v>
+      </c>
+      <c r="BD80" s="31">
+        <v>2956</v>
+      </c>
+      <c r="BE80" s="31">
+        <v>240</v>
+      </c>
+      <c r="BF80" s="30">
+        <v>5916</v>
+      </c>
+      <c r="BG80" s="31">
+        <v>178</v>
+      </c>
+      <c r="BH80" s="31">
+        <v>1884</v>
+      </c>
+      <c r="BI80" s="31">
+        <v>83</v>
+      </c>
+      <c r="BJ80" s="31">
+        <v>1572</v>
+      </c>
+      <c r="BK80" s="31">
+        <v>205</v>
+      </c>
+      <c r="BL80" s="31">
+        <v>961</v>
+      </c>
+      <c r="BM80" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN80" s="31">
+        <v>1202</v>
+      </c>
+      <c r="BO80" s="31">
+        <v>69</v>
+      </c>
+      <c r="BP80" s="31">
+        <v>8672</v>
+      </c>
+      <c r="BQ80" s="31">
+        <v>63</v>
+      </c>
+      <c r="BR80" s="31">
+        <v>5312</v>
+      </c>
+      <c r="BS80" s="31">
+        <v>99</v>
+      </c>
+      <c r="BT80" s="31">
+        <v>5546</v>
+      </c>
+      <c r="BU80" s="31">
+        <v>48</v>
+      </c>
+      <c r="BV80" s="31">
+        <v>4761</v>
+      </c>
+      <c r="BW80" s="31">
+        <v>220</v>
+      </c>
+      <c r="BX80" s="31">
+        <v>4450</v>
+      </c>
+      <c r="BY80" s="31">
+        <v>242</v>
+      </c>
+      <c r="BZ80" s="31">
+        <v>4263</v>
+      </c>
+      <c r="CA80" s="31">
+        <v>61</v>
+      </c>
+      <c r="CB80" s="31">
+        <v>3034</v>
+      </c>
+      <c r="CC80" s="31">
+        <v>46</v>
+      </c>
+      <c r="CD80" s="31">
+        <v>2369</v>
+      </c>
+      <c r="CE80" s="31">
+        <v>30</v>
+      </c>
+      <c r="CF80" s="31">
+        <v>2932</v>
+      </c>
+      <c r="CG80" s="31">
+        <v>41</v>
+      </c>
+      <c r="CH80" s="31">
+        <v>2487</v>
+      </c>
+      <c r="CI80" s="31">
+        <v>40</v>
+      </c>
+      <c r="CJ80" s="31">
+        <v>2785</v>
+      </c>
+      <c r="CK80" s="31">
+        <v>141</v>
+      </c>
+      <c r="CL80" s="31">
+        <v>2528</v>
+      </c>
+      <c r="CM80" s="31">
+        <v>63</v>
+      </c>
       <c r="CN80" s="31">
         <v>4342</v>
       </c>
       <c r="CO80" s="31">
         <v>121</v>
       </c>
+      <c r="CP80" s="31">
+        <v>1845</v>
+      </c>
+      <c r="CQ80" s="31">
+        <v>18</v>
+      </c>
+      <c r="CR80" s="31">
+        <v>2111</v>
+      </c>
+      <c r="CS80" s="31">
+        <v>108</v>
+      </c>
       <c r="CT80" s="31">
         <v>2666</v>
       </c>
       <c r="CU80" s="31">
         <v>65</v>
       </c>
+      <c r="CV80" s="31">
+        <v>1616</v>
+      </c>
+      <c r="CW80" s="31">
+        <v>6</v>
+      </c>
+      <c r="CX80" s="31">
+        <v>1795</v>
+      </c>
+      <c r="CY80" s="31">
+        <v>65</v>
+      </c>
+      <c r="CZ80" s="31">
+        <v>2054</v>
+      </c>
+      <c r="DA80" s="31">
+        <v>55</v>
+      </c>
       <c r="DB80" s="31">
         <v>2659</v>
       </c>
       <c r="DC80" s="31">
         <v>12</v>
       </c>
+      <c r="DD80" s="31">
+        <v>1623</v>
+      </c>
+      <c r="DE80" s="31">
+        <v>6</v>
+      </c>
+      <c r="DF80" s="31">
+        <v>1668</v>
+      </c>
+      <c r="DG80" s="31">
+        <v>52</v>
+      </c>
+      <c r="DH80" s="31">
+        <v>1343</v>
+      </c>
+      <c r="DI80" s="31">
+        <v>19</v>
+      </c>
       <c r="DJ80" s="31">
         <v>2210</v>
       </c>
       <c r="DK80" s="31">
         <v>6</v>
       </c>
+      <c r="DL80" s="31">
+        <v>1185</v>
+      </c>
+      <c r="DM80" s="31">
+        <v>24</v>
+      </c>
+      <c r="DN80" s="31">
+        <v>1560</v>
+      </c>
+      <c r="DO80" s="31">
+        <v>103</v>
+      </c>
       <c r="DP80" s="31">
         <v>1091</v>
       </c>
       <c r="DQ80" s="31">
         <v>40</v>
       </c>
+      <c r="DR80" s="31">
+        <v>1210</v>
+      </c>
+      <c r="DS80" s="31">
+        <v>1</v>
+      </c>
       <c r="DT80" s="31">
         <v>1275</v>
       </c>
@@ -24157,81 +28699,3318 @@
       <c r="DY80" s="31">
         <v>13</v>
       </c>
+      <c r="DZ80" s="31">
+        <v>823</v>
+      </c>
+      <c r="EA80" s="31">
+        <v>5</v>
+      </c>
+      <c r="EB80" s="31">
+        <v>895</v>
+      </c>
+      <c r="EC80" s="31">
+        <v>58</v>
+      </c>
+      <c r="ED80" s="31">
+        <v>218</v>
+      </c>
+      <c r="EE80" s="31">
+        <v>20</v>
+      </c>
+      <c r="EF80" s="31">
+        <v>855</v>
+      </c>
+      <c r="EG80" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH80" s="31">
+        <v>727</v>
+      </c>
+      <c r="EI80" s="31">
+        <v>7</v>
+      </c>
+      <c r="EJ80" s="31">
+        <v>545</v>
+      </c>
+      <c r="EK80" s="31">
+        <v>3</v>
+      </c>
+      <c r="EL80" s="31">
+        <v>822</v>
+      </c>
+      <c r="EM80" s="31">
+        <v>8</v>
+      </c>
+      <c r="EN80" s="31">
+        <v>1091</v>
+      </c>
+      <c r="EO80" s="31">
+        <v>40</v>
+      </c>
+      <c r="EP80" s="31">
+        <v>804</v>
+      </c>
+      <c r="EQ80" s="31">
+        <v>34</v>
+      </c>
+      <c r="ER80" s="31">
+        <v>881</v>
+      </c>
+      <c r="ES80" s="31">
+        <v>9</v>
+      </c>
+      <c r="ET80" s="31">
+        <v>912</v>
+      </c>
+      <c r="EU80" s="31">
+        <v>15</v>
+      </c>
+      <c r="EV80" s="31">
+        <v>419</v>
+      </c>
+      <c r="EW80" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A81" s="28">
         <v>43930</v>
       </c>
-      <c r="AD81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AP81" s="24"/>
-      <c r="AV81" s="24"/>
-      <c r="BF81" s="24"/>
+      <c r="B81" s="23">
+        <v>10423</v>
+      </c>
+      <c r="C81" s="23">
+        <v>204</v>
+      </c>
+      <c r="D81" s="23">
+        <v>5347</v>
+      </c>
+      <c r="E81" s="23">
+        <v>99</v>
+      </c>
+      <c r="F81" s="24">
+        <v>469124</v>
+      </c>
+      <c r="G81" s="24">
+        <v>16712</v>
+      </c>
+      <c r="H81" s="24">
+        <v>143626</v>
+      </c>
+      <c r="I81" s="24">
+        <v>18279</v>
+      </c>
+      <c r="J81">
+        <v>153222</v>
+      </c>
+      <c r="K81">
+        <v>15447</v>
+      </c>
+      <c r="L81">
+        <v>81907</v>
+      </c>
+      <c r="M81">
+        <v>3336</v>
+      </c>
+      <c r="N81" s="24">
+        <v>118235</v>
+      </c>
+      <c r="O81" s="24">
+        <v>2607</v>
+      </c>
+      <c r="P81" s="23">
+        <v>117749</v>
+      </c>
+      <c r="Q81" s="23">
+        <v>12210</v>
+      </c>
+      <c r="R81" s="23">
+        <v>66220</v>
+      </c>
+      <c r="S81" s="23">
+        <v>4110</v>
+      </c>
+      <c r="T81" s="23">
+        <v>65077</v>
+      </c>
+      <c r="U81" s="24">
+        <v>7978</v>
+      </c>
+      <c r="V81" s="24">
+        <v>24051</v>
+      </c>
+      <c r="W81" s="24">
+        <v>948</v>
+      </c>
+      <c r="X81" s="24">
+        <v>42282</v>
+      </c>
+      <c r="Y81" s="24">
+        <v>908</v>
+      </c>
+      <c r="Z81" s="24">
+        <v>24983</v>
+      </c>
+      <c r="AA81" s="24">
+        <v>2523</v>
+      </c>
+      <c r="AB81" s="24">
+        <v>21762</v>
+      </c>
+      <c r="AC81" s="24">
+        <v>2396</v>
+      </c>
+      <c r="AD81" s="24">
+        <v>13244</v>
+      </c>
+      <c r="AE81" s="24">
+        <v>295</v>
+      </c>
+      <c r="AF81" s="24">
+        <v>20765</v>
+      </c>
+      <c r="AG81" s="24">
+        <v>509</v>
+      </c>
+      <c r="AH81" s="24">
+        <v>13956</v>
+      </c>
+      <c r="AI81" s="24">
+        <v>409</v>
+      </c>
+      <c r="AJ81" s="24">
+        <v>18145</v>
+      </c>
+      <c r="AK81" s="24">
+        <v>954</v>
+      </c>
+      <c r="AL81" s="31">
+        <v>9968</v>
+      </c>
+      <c r="AM81" s="31">
+        <v>86</v>
+      </c>
+      <c r="AN81" s="31">
+        <v>6152</v>
+      </c>
+      <c r="AO81" s="31">
+        <v>51</v>
+      </c>
+      <c r="AP81" s="30">
+        <v>6219</v>
+      </c>
+      <c r="AQ81" s="31">
+        <v>108</v>
+      </c>
+      <c r="AR81" s="31">
+        <v>9141</v>
+      </c>
+      <c r="AS81" s="31">
+        <v>793</v>
+      </c>
+      <c r="AT81" s="31">
+        <v>6574</v>
+      </c>
+      <c r="AU81" s="31">
+        <v>263</v>
+      </c>
+      <c r="AV81" s="30">
+        <v>5635</v>
+      </c>
+      <c r="AW81" s="31">
+        <v>237</v>
+      </c>
+      <c r="AX81" s="31">
+        <v>4228</v>
+      </c>
+      <c r="AY81" s="31">
+        <v>67</v>
+      </c>
+      <c r="AZ81" s="31">
+        <v>5575</v>
+      </c>
+      <c r="BA81" s="31">
+        <v>174</v>
+      </c>
+      <c r="BB81" s="31">
+        <v>4076</v>
+      </c>
+      <c r="BC81" s="31">
+        <v>203</v>
+      </c>
+      <c r="BD81" s="31">
+        <v>3293</v>
+      </c>
+      <c r="BE81" s="31">
+        <v>280</v>
+      </c>
+      <c r="BF81" s="30">
+        <v>6725</v>
+      </c>
+      <c r="BG81" s="31">
+        <v>227</v>
+      </c>
+      <c r="BH81" s="31">
+        <v>1955</v>
+      </c>
+      <c r="BI81" s="31">
+        <v>87</v>
+      </c>
+      <c r="BJ81" s="31">
+        <v>1666</v>
+      </c>
+      <c r="BK81" s="31">
+        <v>235</v>
+      </c>
+      <c r="BL81" s="31">
+        <v>974</v>
+      </c>
+      <c r="BM81" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN81" s="31">
+        <v>1232</v>
+      </c>
+      <c r="BO81" s="31">
+        <v>69</v>
+      </c>
+      <c r="BP81" s="31">
+        <v>10131</v>
+      </c>
+      <c r="BQ81" s="31">
+        <v>76</v>
+      </c>
+      <c r="BR81" s="31">
+        <v>5569</v>
+      </c>
+      <c r="BS81" s="31">
+        <v>112</v>
+      </c>
+      <c r="BT81" s="31">
+        <v>5972</v>
+      </c>
+      <c r="BU81" s="31">
+        <v>57</v>
+      </c>
+      <c r="BV81" s="31">
+        <v>5202</v>
+      </c>
+      <c r="BW81" s="31">
+        <v>248</v>
+      </c>
+      <c r="BX81" s="31">
+        <v>4965</v>
+      </c>
+      <c r="BY81" s="31">
+        <v>272</v>
+      </c>
+      <c r="BZ81" s="31">
+        <v>4489</v>
+      </c>
+      <c r="CA81" s="31">
+        <v>65</v>
+      </c>
+      <c r="CB81" s="31">
+        <v>3115</v>
+      </c>
+      <c r="CC81" s="31">
+        <v>52</v>
+      </c>
+      <c r="CD81" s="31">
+        <v>2423</v>
+      </c>
+      <c r="CE81" s="31">
+        <v>32</v>
+      </c>
+      <c r="CF81" s="31">
+        <v>3287</v>
+      </c>
+      <c r="CG81" s="31">
+        <v>44</v>
+      </c>
+      <c r="CH81" s="31">
+        <v>2605</v>
+      </c>
+      <c r="CI81" s="31">
+        <v>42</v>
+      </c>
+      <c r="CJ81" s="31">
+        <v>3181</v>
+      </c>
+      <c r="CK81" s="31">
+        <v>174</v>
+      </c>
+      <c r="CL81" s="31">
+        <v>2752</v>
+      </c>
+      <c r="CM81" s="31">
+        <v>66</v>
+      </c>
+      <c r="CN81" s="31">
+        <v>5256</v>
+      </c>
+      <c r="CO81" s="31">
+        <v>138</v>
+      </c>
+      <c r="CP81" s="31">
+        <v>1934</v>
+      </c>
+      <c r="CQ81" s="31">
+        <v>18</v>
+      </c>
+      <c r="CR81" s="31">
+        <v>2349</v>
+      </c>
+      <c r="CS81" s="31">
+        <v>118</v>
+      </c>
+      <c r="CT81" s="31">
+        <v>2867</v>
+      </c>
+      <c r="CU81" s="31">
+        <v>66</v>
+      </c>
+      <c r="CV81" s="31">
+        <v>1648</v>
+      </c>
+      <c r="CW81" s="31">
+        <v>6</v>
+      </c>
+      <c r="CX81" s="31">
+        <v>1894</v>
+      </c>
+      <c r="CY81" s="31">
+        <v>79</v>
+      </c>
+      <c r="CZ81" s="31">
+        <v>2223</v>
+      </c>
+      <c r="DA81" s="31">
+        <v>69</v>
+      </c>
+      <c r="DB81" s="31">
+        <v>2990</v>
+      </c>
+      <c r="DC81" s="31">
+        <v>12</v>
+      </c>
+      <c r="DD81" s="31">
+        <v>1910</v>
+      </c>
+      <c r="DE81" s="31">
+        <v>6</v>
+      </c>
+      <c r="DF81" s="31">
+        <v>1892</v>
+      </c>
+      <c r="DG81" s="31">
+        <v>57</v>
+      </c>
+      <c r="DH81" s="31">
+        <v>1407</v>
+      </c>
+      <c r="DI81" s="31">
+        <v>20</v>
+      </c>
+      <c r="DJ81" s="31">
+        <v>2376</v>
+      </c>
+      <c r="DK81" s="31">
+        <v>6</v>
+      </c>
+      <c r="DL81" s="31">
+        <v>1207</v>
+      </c>
+      <c r="DM81" s="31">
+        <v>24</v>
+      </c>
+      <c r="DN81" s="31">
+        <v>1699</v>
+      </c>
+      <c r="DO81" s="31">
+        <v>118</v>
+      </c>
+      <c r="DP81" s="31">
+        <v>1124</v>
+      </c>
+      <c r="DQ81" s="31">
+        <v>43</v>
+      </c>
+      <c r="DR81" s="31">
+        <v>1239</v>
+      </c>
+      <c r="DS81" s="31">
+        <v>1</v>
+      </c>
+      <c r="DT81" s="31">
+        <v>1374</v>
+      </c>
+      <c r="DU81" s="31">
+        <v>97</v>
+      </c>
+      <c r="DV81" s="31">
+        <v>1289</v>
+      </c>
+      <c r="DW81" s="31">
+        <v>29</v>
+      </c>
+      <c r="DX81" s="31">
+        <v>1486</v>
+      </c>
+      <c r="DY81" s="31">
+        <v>16</v>
+      </c>
+      <c r="DZ81" s="31">
+        <v>887</v>
+      </c>
+      <c r="EA81" s="31">
+        <v>5</v>
+      </c>
+      <c r="EB81" s="31">
+        <v>980</v>
+      </c>
+      <c r="EC81" s="31">
+        <v>66</v>
+      </c>
+      <c r="ED81" s="31">
+        <v>330</v>
+      </c>
+      <c r="EE81" s="31">
+        <v>21</v>
+      </c>
+      <c r="EF81" s="31">
+        <v>910</v>
+      </c>
+      <c r="EG81" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH81" s="31">
+        <v>781</v>
+      </c>
+      <c r="EI81" s="31">
+        <v>8</v>
+      </c>
+      <c r="EJ81" s="31">
+        <v>582</v>
+      </c>
+      <c r="EK81" s="31">
+        <v>3</v>
+      </c>
+      <c r="EL81" s="31">
+        <v>926</v>
+      </c>
+      <c r="EM81" s="31">
+        <v>9</v>
+      </c>
+      <c r="EN81" s="31">
+        <v>1124</v>
+      </c>
+      <c r="EO81" s="31">
+        <v>43</v>
+      </c>
+      <c r="EP81" s="31">
+        <v>858</v>
+      </c>
+      <c r="EQ81" s="31">
+        <v>35</v>
+      </c>
+      <c r="ER81" s="31">
+        <v>921</v>
+      </c>
+      <c r="ES81" s="31">
+        <v>10</v>
+      </c>
+      <c r="ET81" s="31">
+        <v>955</v>
+      </c>
+      <c r="EU81" s="31">
+        <v>16</v>
+      </c>
+      <c r="EV81" s="31">
+        <v>457</v>
+      </c>
+      <c r="EW81" s="31">
+        <v>3</v>
+      </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A82" s="28">
         <v>43931</v>
       </c>
-      <c r="AD82" s="24"/>
-      <c r="AF82" s="24"/>
-      <c r="AP82" s="24"/>
-      <c r="AV82" s="24"/>
-      <c r="BF82" s="24"/>
+      <c r="B82" s="23">
+        <v>10450</v>
+      </c>
+      <c r="C82" s="23">
+        <v>208</v>
+      </c>
+      <c r="D82" s="23">
+        <v>6005</v>
+      </c>
+      <c r="E82" s="23">
+        <v>99</v>
+      </c>
+      <c r="F82" s="24">
+        <v>502876</v>
+      </c>
+      <c r="G82" s="24">
+        <v>18747</v>
+      </c>
+      <c r="H82" s="24">
+        <v>147577</v>
+      </c>
+      <c r="I82" s="24">
+        <v>18849</v>
+      </c>
+      <c r="J82">
+        <v>158273</v>
+      </c>
+      <c r="K82">
+        <v>16081</v>
+      </c>
+      <c r="L82">
+        <v>81953</v>
+      </c>
+      <c r="M82">
+        <v>3339</v>
+      </c>
+      <c r="N82" s="24">
+        <v>122171</v>
+      </c>
+      <c r="O82" s="24">
+        <v>2736</v>
+      </c>
+      <c r="P82" s="23">
+        <v>124869</v>
+      </c>
+      <c r="Q82" s="23">
+        <v>13197</v>
+      </c>
+      <c r="R82" s="23">
+        <v>68192</v>
+      </c>
+      <c r="S82" s="23">
+        <v>4232</v>
+      </c>
+      <c r="T82" s="23">
+        <v>73758</v>
+      </c>
+      <c r="U82" s="24">
+        <v>8958</v>
+      </c>
+      <c r="V82" s="24">
+        <v>24551</v>
+      </c>
+      <c r="W82" s="24">
+        <v>1002</v>
+      </c>
+      <c r="X82" s="24">
+        <v>47029</v>
+      </c>
+      <c r="Y82" s="24">
+        <v>1006</v>
+      </c>
+      <c r="Z82" s="24">
+        <v>26667</v>
+      </c>
+      <c r="AA82" s="24">
+        <v>3019</v>
+      </c>
+      <c r="AB82" s="24">
+        <v>23097</v>
+      </c>
+      <c r="AC82" s="24">
+        <v>2511</v>
+      </c>
+      <c r="AD82" s="24">
+        <v>13560</v>
+      </c>
+      <c r="AE82" s="24">
+        <v>319</v>
+      </c>
+      <c r="AF82" s="24">
+        <v>22148</v>
+      </c>
+      <c r="AG82" s="24">
+        <v>569</v>
+      </c>
+      <c r="AH82" s="24">
+        <v>15472</v>
+      </c>
+      <c r="AI82" s="24">
+        <v>435</v>
+      </c>
+      <c r="AJ82" s="24">
+        <v>19789</v>
+      </c>
+      <c r="AK82" s="24">
+        <v>1068</v>
+      </c>
+      <c r="AL82" s="31">
+        <v>10408</v>
+      </c>
+      <c r="AM82" s="31">
+        <v>95</v>
+      </c>
+      <c r="AN82" s="31">
+        <v>6238</v>
+      </c>
+      <c r="AO82" s="31">
+        <v>54</v>
+      </c>
+      <c r="AP82" s="30">
+        <v>6314</v>
+      </c>
+      <c r="AQ82" s="31">
+        <v>113</v>
+      </c>
+      <c r="AR82" s="31">
+        <v>9685</v>
+      </c>
+      <c r="AS82" s="31">
+        <v>870</v>
+      </c>
+      <c r="AT82" s="31">
+        <v>8089</v>
+      </c>
+      <c r="AU82" s="31">
+        <v>287</v>
+      </c>
+      <c r="AV82" s="30">
+        <v>5819</v>
+      </c>
+      <c r="AW82" s="31">
+        <v>247</v>
+      </c>
+      <c r="AX82" s="31">
+        <v>4346</v>
+      </c>
+      <c r="AY82" s="31">
+        <v>70</v>
+      </c>
+      <c r="AZ82" s="31">
+        <v>5955</v>
+      </c>
+      <c r="BA82" s="31">
+        <v>181</v>
+      </c>
+      <c r="BB82" s="31">
+        <v>4195</v>
+      </c>
+      <c r="BC82" s="31">
+        <v>221</v>
+      </c>
+      <c r="BD82" s="31">
+        <v>3512</v>
+      </c>
+      <c r="BE82" s="31">
+        <v>306</v>
+      </c>
+      <c r="BF82" s="30">
+        <v>7600</v>
+      </c>
+      <c r="BG82" s="31">
+        <v>249</v>
+      </c>
+      <c r="BH82" s="31">
+        <v>2011</v>
+      </c>
+      <c r="BI82" s="31">
+        <v>92</v>
+      </c>
+      <c r="BJ82" s="31">
+        <v>1761</v>
+      </c>
+      <c r="BK82" s="31">
+        <v>256</v>
+      </c>
+      <c r="BL82" s="31">
+        <v>990</v>
+      </c>
+      <c r="BM82" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN82" s="31">
+        <v>1279</v>
+      </c>
+      <c r="BO82" s="31">
+        <v>70</v>
+      </c>
+      <c r="BP82" s="31">
+        <v>11917</v>
+      </c>
+      <c r="BQ82" s="31">
+        <v>94</v>
+      </c>
+      <c r="BR82" s="31">
+        <v>5732</v>
+      </c>
+      <c r="BS82" s="31">
+        <v>119</v>
+      </c>
+      <c r="BT82" s="31">
+        <v>6501</v>
+      </c>
+      <c r="BU82" s="31">
+        <v>65</v>
+      </c>
+      <c r="BV82" s="31">
+        <v>5467</v>
+      </c>
+      <c r="BW82" s="31">
+        <v>270</v>
+      </c>
+      <c r="BX82" s="31">
+        <v>7161</v>
+      </c>
+      <c r="BY82" s="31">
+        <v>297</v>
+      </c>
+      <c r="BZ82" s="31">
+        <v>4695</v>
+      </c>
+      <c r="CA82" s="31">
+        <v>66</v>
+      </c>
+      <c r="CB82" s="31">
+        <v>3223</v>
+      </c>
+      <c r="CC82" s="31">
+        <v>54</v>
+      </c>
+      <c r="CD82" s="31">
+        <v>2473</v>
+      </c>
+      <c r="CE82" s="31">
+        <v>33</v>
+      </c>
+      <c r="CF82" s="31">
+        <v>3651</v>
+      </c>
+      <c r="CG82" s="31">
+        <v>47</v>
+      </c>
+      <c r="CH82" s="31">
+        <v>2769</v>
+      </c>
+      <c r="CI82" s="31">
+        <v>48</v>
+      </c>
+      <c r="CJ82" s="31">
+        <v>3441</v>
+      </c>
+      <c r="CK82" s="31">
+        <v>194</v>
+      </c>
+      <c r="CL82" s="31">
+        <v>2974</v>
+      </c>
+      <c r="CM82" s="31">
+        <v>74</v>
+      </c>
+      <c r="CN82" s="31">
+        <v>5897</v>
+      </c>
+      <c r="CO82" s="31">
+        <v>169</v>
+      </c>
+      <c r="CP82" s="31">
+        <v>2003</v>
+      </c>
+      <c r="CQ82" s="31">
+        <v>24</v>
+      </c>
+      <c r="CR82" s="31">
+        <v>2620</v>
+      </c>
+      <c r="CS82" s="31">
+        <v>126</v>
+      </c>
+      <c r="CT82" s="31">
+        <v>3105</v>
+      </c>
+      <c r="CU82" s="31">
+        <v>71</v>
+      </c>
+      <c r="CV82" s="31">
+        <v>1675</v>
+      </c>
+      <c r="CW82" s="31">
+        <v>7</v>
+      </c>
+      <c r="CX82" s="31">
+        <v>1975</v>
+      </c>
+      <c r="CY82" s="31">
+        <v>82</v>
+      </c>
+      <c r="CZ82" s="31">
+        <v>2473</v>
+      </c>
+      <c r="DA82" s="31">
+        <v>80</v>
+      </c>
+      <c r="DB82" s="31">
+        <v>3360</v>
+      </c>
+      <c r="DC82" s="31">
+        <v>14</v>
+      </c>
+      <c r="DD82" s="31">
+        <v>2108</v>
+      </c>
+      <c r="DE82" s="31">
+        <v>7</v>
+      </c>
+      <c r="DF82" s="31">
+        <v>2203</v>
+      </c>
+      <c r="DG82" s="31">
+        <v>69</v>
+      </c>
+      <c r="DH82" s="31">
+        <v>1495</v>
+      </c>
+      <c r="DI82" s="31">
+        <v>21</v>
+      </c>
+      <c r="DJ82" s="31">
+        <v>2512</v>
+      </c>
+      <c r="DK82" s="31">
+        <v>6</v>
+      </c>
+      <c r="DL82" s="31">
+        <v>1258</v>
+      </c>
+      <c r="DM82" s="31">
+        <v>24</v>
+      </c>
+      <c r="DN82" s="31">
+        <v>1794</v>
+      </c>
+      <c r="DO82" s="31">
+        <v>135</v>
+      </c>
+      <c r="DP82" s="31">
+        <v>1160</v>
+      </c>
+      <c r="DQ82" s="31">
+        <v>45</v>
+      </c>
+      <c r="DR82" s="31">
+        <v>1283</v>
+      </c>
+      <c r="DS82" s="31">
+        <v>2</v>
+      </c>
+      <c r="DT82" s="31">
+        <v>1448</v>
+      </c>
+      <c r="DU82" s="31">
+        <v>107</v>
+      </c>
+      <c r="DV82" s="31">
+        <v>1438</v>
+      </c>
+      <c r="DW82" s="31">
+        <v>29</v>
+      </c>
+      <c r="DX82" s="31">
+        <v>1981</v>
+      </c>
+      <c r="DY82" s="31">
+        <v>19</v>
+      </c>
+      <c r="DZ82" s="31">
+        <v>925</v>
+      </c>
+      <c r="EA82" s="31">
+        <v>6</v>
+      </c>
+      <c r="EB82" s="31">
+        <v>1190</v>
+      </c>
+      <c r="EC82" s="31">
+        <v>77</v>
+      </c>
+      <c r="ED82" s="31">
+        <v>424</v>
+      </c>
+      <c r="EE82" s="31">
+        <v>27</v>
+      </c>
+      <c r="EF82" s="31">
+        <v>993</v>
+      </c>
+      <c r="EG82" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH82" s="31">
+        <v>812</v>
+      </c>
+      <c r="EI82" s="31">
+        <v>10</v>
+      </c>
+      <c r="EJ82" s="31">
+        <v>624</v>
+      </c>
+      <c r="EK82" s="31">
+        <v>3</v>
+      </c>
+      <c r="EL82" s="31">
+        <v>991</v>
+      </c>
+      <c r="EM82" s="31">
+        <v>10</v>
+      </c>
+      <c r="EN82" s="31">
+        <v>1160</v>
+      </c>
+      <c r="EO82" s="31">
+        <v>45</v>
+      </c>
+      <c r="EP82" s="31">
+        <v>901</v>
+      </c>
+      <c r="EQ82" s="31">
+        <v>36</v>
+      </c>
+      <c r="ER82" s="31">
+        <v>937</v>
+      </c>
+      <c r="ES82" s="31">
+        <v>12</v>
+      </c>
+      <c r="ET82" s="31">
+        <v>999</v>
+      </c>
+      <c r="EU82" s="31">
+        <v>22</v>
+      </c>
+      <c r="EV82" s="31">
+        <v>484</v>
+      </c>
+      <c r="EW82" s="31">
+        <v>3</v>
+      </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A83" s="28">
         <v>43932</v>
       </c>
-      <c r="AD83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AP83" s="24"/>
-      <c r="BF83" s="24"/>
+      <c r="B83" s="23">
+        <v>10480</v>
+      </c>
+      <c r="C83" s="23">
+        <v>211</v>
+      </c>
+      <c r="D83" s="23">
+        <v>6748</v>
+      </c>
+      <c r="E83" s="23">
+        <v>108</v>
+      </c>
+      <c r="F83" s="24">
+        <v>532879</v>
+      </c>
+      <c r="G83" s="24">
+        <v>20577</v>
+      </c>
+      <c r="H83" s="24">
+        <v>152271</v>
+      </c>
+      <c r="I83" s="24">
+        <v>19468</v>
+      </c>
+      <c r="J83">
+        <v>163027</v>
+      </c>
+      <c r="K83">
+        <v>16606</v>
+      </c>
+      <c r="L83">
+        <v>82052</v>
+      </c>
+      <c r="M83">
+        <v>3339</v>
+      </c>
+      <c r="N83" s="24">
+        <v>125452</v>
+      </c>
+      <c r="O83" s="24">
+        <v>2871</v>
+      </c>
+      <c r="P83" s="23">
+        <v>129654</v>
+      </c>
+      <c r="Q83" s="23">
+        <v>13832</v>
+      </c>
+      <c r="R83" s="23">
+        <v>70029</v>
+      </c>
+      <c r="S83" s="23">
+        <v>4357</v>
+      </c>
+      <c r="T83" s="23">
+        <v>78991</v>
+      </c>
+      <c r="U83" s="24">
+        <v>9875</v>
+      </c>
+      <c r="V83" s="24">
+        <v>25107</v>
+      </c>
+      <c r="W83" s="24">
+        <v>1036</v>
+      </c>
+      <c r="X83" s="24">
+        <v>52167</v>
+      </c>
+      <c r="Y83" s="24">
+        <v>1101</v>
+      </c>
+      <c r="Z83" s="24">
+        <v>28018</v>
+      </c>
+      <c r="AA83" s="24">
+        <v>3346</v>
+      </c>
+      <c r="AB83" s="24">
+        <v>24413</v>
+      </c>
+      <c r="AC83" s="24">
+        <v>2643</v>
+      </c>
+      <c r="AD83" s="24">
+        <v>13806</v>
+      </c>
+      <c r="AE83" s="24">
+        <v>337</v>
+      </c>
+      <c r="AF83" s="24">
+        <v>23318</v>
+      </c>
+      <c r="AG83" s="24">
+        <v>653</v>
+      </c>
+      <c r="AH83" s="24">
+        <v>15987</v>
+      </c>
+      <c r="AI83" s="24">
+        <v>470</v>
+      </c>
+      <c r="AJ83" s="24">
+        <v>20962</v>
+      </c>
+      <c r="AK83" s="24">
+        <v>1140</v>
+      </c>
+      <c r="AL83" s="31">
+        <v>10743</v>
+      </c>
+      <c r="AM83" s="31">
+        <v>101</v>
+      </c>
+      <c r="AN83" s="31">
+        <v>6303</v>
+      </c>
+      <c r="AO83" s="31">
+        <v>56</v>
+      </c>
+      <c r="AP83" s="30">
+        <v>6409</v>
+      </c>
+      <c r="AQ83" s="31">
+        <v>119</v>
+      </c>
+      <c r="AR83" s="31">
+        <v>10151</v>
+      </c>
+      <c r="AS83" s="31">
+        <v>887</v>
+      </c>
+      <c r="AT83" s="31">
+        <v>8928</v>
+      </c>
+      <c r="AU83" s="31">
+        <v>320</v>
+      </c>
+      <c r="AV83" s="30">
+        <v>5996</v>
+      </c>
+      <c r="AW83" s="31">
+        <v>260</v>
+      </c>
+      <c r="AX83" s="31">
+        <v>4530</v>
+      </c>
+      <c r="AY83" s="31">
+        <v>73</v>
+      </c>
+      <c r="AZ83" s="31">
+        <v>6356</v>
+      </c>
+      <c r="BA83" s="31">
+        <v>208</v>
+      </c>
+      <c r="BB83" s="31">
+        <v>4428</v>
+      </c>
+      <c r="BC83" s="31">
+        <v>247</v>
+      </c>
+      <c r="BD83" s="31">
+        <v>3842</v>
+      </c>
+      <c r="BE83" s="31">
+        <v>327</v>
+      </c>
+      <c r="BF83" s="30">
+        <v>8446</v>
+      </c>
+      <c r="BG83" s="31">
+        <v>288</v>
+      </c>
+      <c r="BH83" s="31">
+        <v>2081</v>
+      </c>
+      <c r="BI83" s="31">
+        <v>93</v>
+      </c>
+      <c r="BJ83" s="31">
+        <v>1825</v>
+      </c>
+      <c r="BK83" s="31">
+        <v>275</v>
+      </c>
+      <c r="BL83" s="31">
+        <v>1001</v>
+      </c>
+      <c r="BM83" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN83" s="31">
+        <v>1318</v>
+      </c>
+      <c r="BO83" s="31">
+        <v>72</v>
+      </c>
+      <c r="BP83" s="31">
+        <v>13584</v>
+      </c>
+      <c r="BQ83" s="31">
+        <v>106</v>
+      </c>
+      <c r="BR83" s="31">
+        <v>5902</v>
+      </c>
+      <c r="BS83" s="31">
+        <v>129</v>
+      </c>
+      <c r="BT83" s="31">
+        <v>6927</v>
+      </c>
+      <c r="BU83" s="31">
+        <v>73</v>
+      </c>
+      <c r="BV83" s="31">
+        <v>5990</v>
+      </c>
+      <c r="BW83" s="31">
+        <v>291</v>
+      </c>
+      <c r="BX83" s="31">
+        <v>7257</v>
+      </c>
+      <c r="BY83" s="31">
+        <v>315</v>
+      </c>
+      <c r="BZ83" s="31">
+        <v>5011</v>
+      </c>
+      <c r="CA83" s="31">
+        <v>86</v>
+      </c>
+      <c r="CB83" s="31">
+        <v>3270</v>
+      </c>
+      <c r="CC83" s="31">
+        <v>62</v>
+      </c>
+      <c r="CD83" s="31">
+        <v>2518</v>
+      </c>
+      <c r="CE83" s="31">
+        <v>35</v>
+      </c>
+      <c r="CF83" s="31">
+        <v>4033</v>
+      </c>
+      <c r="CG83" s="31">
+        <v>52</v>
+      </c>
+      <c r="CH83" s="31">
+        <v>2905</v>
+      </c>
+      <c r="CI83" s="31">
+        <v>49</v>
+      </c>
+      <c r="CJ83" s="31">
+        <v>3844</v>
+      </c>
+      <c r="CK83" s="31">
+        <v>233</v>
+      </c>
+      <c r="CL83" s="31">
+        <v>3234</v>
+      </c>
+      <c r="CM83" s="31">
+        <v>79</v>
+      </c>
+      <c r="CN83" s="31">
+        <v>6848</v>
+      </c>
+      <c r="CO83" s="31">
+        <v>181</v>
+      </c>
+      <c r="CP83" s="31">
+        <v>2028</v>
+      </c>
+      <c r="CQ83" s="31">
+        <v>25</v>
+      </c>
+      <c r="CR83" s="31">
+        <v>2759</v>
+      </c>
+      <c r="CS83" s="31">
+        <v>135</v>
+      </c>
+      <c r="CT83" s="31">
+        <v>3380</v>
+      </c>
+      <c r="CU83" s="31">
+        <v>74</v>
+      </c>
+      <c r="CV83" s="31">
+        <v>1689</v>
+      </c>
+      <c r="CW83" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX83" s="31">
+        <v>2142</v>
+      </c>
+      <c r="CY83" s="31">
+        <v>89</v>
+      </c>
+      <c r="CZ83" s="31">
+        <v>2709</v>
+      </c>
+      <c r="DA83" s="31">
+        <v>100</v>
+      </c>
+      <c r="DB83" s="31">
+        <v>3736</v>
+      </c>
+      <c r="DC83" s="31">
+        <v>20</v>
+      </c>
+      <c r="DD83" s="31">
+        <v>2299</v>
+      </c>
+      <c r="DE83" s="31">
+        <v>8</v>
+      </c>
+      <c r="DF83" s="31">
+        <v>2511</v>
+      </c>
+      <c r="DG83" s="31">
+        <v>73</v>
+      </c>
+      <c r="DH83" s="31">
+        <v>1534</v>
+      </c>
+      <c r="DI83" s="31">
+        <v>21</v>
+      </c>
+      <c r="DJ83" s="31">
+        <v>2728</v>
+      </c>
+      <c r="DK83" s="31">
+        <v>6</v>
+      </c>
+      <c r="DL83" s="31">
+        <v>1304</v>
+      </c>
+      <c r="DM83" s="31">
+        <v>24</v>
+      </c>
+      <c r="DN83" s="31">
+        <v>1939</v>
+      </c>
+      <c r="DO83" s="31">
+        <v>146</v>
+      </c>
+      <c r="DP83" s="31">
+        <v>1188</v>
+      </c>
+      <c r="DQ83" s="31">
+        <v>50</v>
+      </c>
+      <c r="DR83" s="31">
+        <v>1312</v>
+      </c>
+      <c r="DS83" s="31">
+        <v>4</v>
+      </c>
+      <c r="DT83" s="31">
+        <v>1545</v>
+      </c>
+      <c r="DU83" s="31">
+        <v>111</v>
+      </c>
+      <c r="DV83" s="31">
+        <v>1560</v>
+      </c>
+      <c r="DW83" s="31">
+        <v>30</v>
+      </c>
+      <c r="DX83" s="31">
+        <v>2226</v>
+      </c>
+      <c r="DY83" s="31">
+        <v>23</v>
+      </c>
+      <c r="DZ83" s="31">
+        <v>1040</v>
+      </c>
+      <c r="EA83" s="31">
+        <v>6</v>
+      </c>
+      <c r="EB83" s="31">
+        <v>1310</v>
+      </c>
+      <c r="EC83" s="31">
+        <v>85</v>
+      </c>
+      <c r="ED83" s="31">
+        <v>482</v>
+      </c>
+      <c r="EE83" s="31">
+        <v>30</v>
+      </c>
+      <c r="EF83" s="31">
+        <v>1154</v>
+      </c>
+      <c r="EG83" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH83" s="31">
+        <v>865</v>
+      </c>
+      <c r="EI83" s="31">
+        <v>10</v>
+      </c>
+      <c r="EJ83" s="31">
+        <v>767</v>
+      </c>
+      <c r="EK83" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL83" s="31">
+        <v>1058</v>
+      </c>
+      <c r="EM83" s="31">
+        <v>11</v>
+      </c>
+      <c r="EN83" s="31">
+        <v>1188</v>
+      </c>
+      <c r="EO83" s="31">
+        <v>50</v>
+      </c>
+      <c r="EP83" s="31">
+        <v>946</v>
+      </c>
+      <c r="EQ83" s="31">
+        <v>37</v>
+      </c>
+      <c r="ER83" s="31">
+        <v>967</v>
+      </c>
+      <c r="ES83" s="31">
+        <v>13</v>
+      </c>
+      <c r="ET83" s="31">
+        <v>1026</v>
+      </c>
+      <c r="EU83" s="31">
+        <v>23</v>
+      </c>
+      <c r="EV83" s="31">
+        <v>546</v>
+      </c>
+      <c r="EW83" s="31">
+        <v>3</v>
+      </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A84" s="28">
         <v>43933</v>
       </c>
-      <c r="AD84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AP84" s="24"/>
-      <c r="BF84" s="24"/>
+      <c r="B84" s="23">
+        <v>10512</v>
+      </c>
+      <c r="C84" s="23">
+        <v>214</v>
+      </c>
+      <c r="D84" s="23">
+        <v>7370</v>
+      </c>
+      <c r="E84" s="23">
+        <v>123</v>
+      </c>
+      <c r="F84" s="24">
+        <v>560300</v>
+      </c>
+      <c r="G84" s="24">
+        <v>22105</v>
+      </c>
+      <c r="H84" s="24">
+        <v>156363</v>
+      </c>
+      <c r="I84" s="24">
+        <v>19899</v>
+      </c>
+      <c r="J84">
+        <v>166831</v>
+      </c>
+      <c r="K84">
+        <v>17209</v>
+      </c>
+      <c r="L84">
+        <v>82160</v>
+      </c>
+      <c r="M84">
+        <v>3341</v>
+      </c>
+      <c r="N84" s="24">
+        <v>127854</v>
+      </c>
+      <c r="O84" s="24">
+        <v>3022</v>
+      </c>
+      <c r="P84" s="23">
+        <v>132591</v>
+      </c>
+      <c r="Q84" s="23">
+        <v>14393</v>
+      </c>
+      <c r="R84" s="23">
+        <v>71686</v>
+      </c>
+      <c r="S84" s="23">
+        <v>4474</v>
+      </c>
+      <c r="T84" s="23">
+        <v>84279</v>
+      </c>
+      <c r="U84" s="24">
+        <v>10612</v>
+      </c>
+      <c r="V84" s="24">
+        <v>25415</v>
+      </c>
+      <c r="W84" s="24">
+        <v>1106</v>
+      </c>
+      <c r="X84" s="24">
+        <v>56956</v>
+      </c>
+      <c r="Y84" s="24">
+        <v>1198</v>
+      </c>
+      <c r="Z84" s="24">
+        <v>29647</v>
+      </c>
+      <c r="AA84" s="24">
+        <v>3600</v>
+      </c>
+      <c r="AB84" s="24">
+        <v>25587</v>
+      </c>
+      <c r="AC84" s="24">
+        <v>2737</v>
+      </c>
+      <c r="AD84" s="24">
+        <v>13945</v>
+      </c>
+      <c r="AE84" s="24">
+        <v>350</v>
+      </c>
+      <c r="AF84" s="24">
+        <v>24383</v>
+      </c>
+      <c r="AG84" s="24">
+        <v>717</v>
+      </c>
+      <c r="AH84" s="24">
+        <v>16585</v>
+      </c>
+      <c r="AI84" s="24">
+        <v>504</v>
+      </c>
+      <c r="AJ84" s="24">
+        <v>22192</v>
+      </c>
+      <c r="AK84" s="24">
+        <v>1223</v>
+      </c>
+      <c r="AL84" s="31">
+        <v>11145</v>
+      </c>
+      <c r="AM84" s="31">
+        <v>103</v>
+      </c>
+      <c r="AN84" s="31">
+        <v>6313</v>
+      </c>
+      <c r="AO84" s="31">
+        <v>59</v>
+      </c>
+      <c r="AP84" s="30">
+        <v>6525</v>
+      </c>
+      <c r="AQ84" s="31">
+        <v>128</v>
+      </c>
+      <c r="AR84" s="31">
+        <v>10483</v>
+      </c>
+      <c r="AS84" s="31">
+        <v>899</v>
+      </c>
+      <c r="AT84" s="31">
+        <v>9655</v>
+      </c>
+      <c r="AU84" s="31">
+        <v>334</v>
+      </c>
+      <c r="AV84" s="30">
+        <v>6174</v>
+      </c>
+      <c r="AW84" s="31">
+        <v>273</v>
+      </c>
+      <c r="AX84" s="31">
+        <v>4683</v>
+      </c>
+      <c r="AY84" s="31">
+        <v>76</v>
+      </c>
+      <c r="AZ84" s="31">
+        <v>6674</v>
+      </c>
+      <c r="BA84" s="31">
+        <v>232</v>
+      </c>
+      <c r="BB84" s="31">
+        <v>4648</v>
+      </c>
+      <c r="BC84" s="31">
+        <v>297</v>
+      </c>
+      <c r="BD84" s="31">
+        <v>4241</v>
+      </c>
+      <c r="BE84" s="31">
+        <v>373</v>
+      </c>
+      <c r="BF84" s="30">
+        <v>9205</v>
+      </c>
+      <c r="BG84" s="31">
+        <v>331</v>
+      </c>
+      <c r="BH84" s="31">
+        <v>2114</v>
+      </c>
+      <c r="BI84" s="31">
+        <v>98</v>
+      </c>
+      <c r="BJ84" s="31">
+        <v>1914</v>
+      </c>
+      <c r="BK84" s="31">
+        <v>293</v>
+      </c>
+      <c r="BL84" s="31">
+        <v>1005</v>
+      </c>
+      <c r="BM84" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN84" s="31">
+        <v>1352</v>
+      </c>
+      <c r="BO84" s="31">
+        <v>76</v>
+      </c>
+      <c r="BP84" s="31">
+        <v>15770</v>
+      </c>
+      <c r="BQ84" s="31">
+        <v>130</v>
+      </c>
+      <c r="BR84" s="31">
+        <v>5991</v>
+      </c>
+      <c r="BS84" s="31">
+        <v>138</v>
+      </c>
+      <c r="BT84" s="31">
+        <v>7213</v>
+      </c>
+      <c r="BU84" s="31">
+        <v>80</v>
+      </c>
+      <c r="BV84" s="31">
+        <v>6300</v>
+      </c>
+      <c r="BW84" s="31">
+        <v>316</v>
+      </c>
+      <c r="BX84" s="31">
+        <v>7466</v>
+      </c>
+      <c r="BY84" s="31">
+        <v>333</v>
+      </c>
+      <c r="BZ84" s="31">
+        <v>5230</v>
+      </c>
+      <c r="CA84" s="31">
+        <v>91</v>
+      </c>
+      <c r="CB84" s="31">
+        <v>3281</v>
+      </c>
+      <c r="CC84" s="31">
+        <v>66</v>
+      </c>
+      <c r="CD84" s="31">
+        <v>2551</v>
+      </c>
+      <c r="CE84" s="31">
+        <v>38</v>
+      </c>
+      <c r="CF84" s="31">
+        <v>4462</v>
+      </c>
+      <c r="CG84" s="31">
+        <v>59</v>
+      </c>
+      <c r="CH84" s="31">
+        <v>2974</v>
+      </c>
+      <c r="CI84" s="31">
+        <v>56</v>
+      </c>
+      <c r="CJ84" s="31">
+        <v>4219</v>
+      </c>
+      <c r="CK84" s="31">
+        <v>273</v>
+      </c>
+      <c r="CL84" s="31">
+        <v>3400</v>
+      </c>
+      <c r="CM84" s="31">
+        <v>87</v>
+      </c>
+      <c r="CN84" s="31">
+        <v>7519</v>
+      </c>
+      <c r="CO84" s="31">
+        <v>193</v>
+      </c>
+      <c r="CP84" s="31">
+        <v>2173</v>
+      </c>
+      <c r="CQ84" s="31">
+        <v>25</v>
+      </c>
+      <c r="CR84" s="31">
+        <v>2967</v>
+      </c>
+      <c r="CS84" s="31">
+        <v>173</v>
+      </c>
+      <c r="CT84" s="31">
+        <v>3630</v>
+      </c>
+      <c r="CU84" s="31">
+        <v>80</v>
+      </c>
+      <c r="CV84" s="31">
+        <v>1701</v>
+      </c>
+      <c r="CW84" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX84" s="31">
+        <v>2142</v>
+      </c>
+      <c r="CY84" s="31">
+        <v>90</v>
+      </c>
+      <c r="CZ84" s="31">
+        <v>2776</v>
+      </c>
+      <c r="DA84" s="31">
+        <v>109</v>
+      </c>
+      <c r="DB84" s="31">
+        <v>4123</v>
+      </c>
+      <c r="DC84" s="31">
+        <v>22</v>
+      </c>
+      <c r="DD84" s="31">
+        <v>2532</v>
+      </c>
+      <c r="DE84" s="31">
+        <v>8</v>
+      </c>
+      <c r="DF84" s="31">
+        <v>2777</v>
+      </c>
+      <c r="DG84" s="31">
+        <v>83</v>
+      </c>
+      <c r="DH84" s="31">
+        <v>1600</v>
+      </c>
+      <c r="DI84" s="31">
+        <v>23</v>
+      </c>
+      <c r="DJ84" s="31">
+        <v>2979</v>
+      </c>
+      <c r="DK84" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL84" s="31">
+        <v>1309</v>
+      </c>
+      <c r="DM84" s="31">
+        <v>25</v>
+      </c>
+      <c r="DN84" s="31">
+        <v>2065</v>
+      </c>
+      <c r="DO84" s="31">
+        <v>159</v>
+      </c>
+      <c r="DP84" s="31">
+        <v>1205</v>
+      </c>
+      <c r="DQ84" s="31">
+        <v>53</v>
+      </c>
+      <c r="DR84" s="31">
+        <v>1330</v>
+      </c>
+      <c r="DS84" s="31">
+        <v>4</v>
+      </c>
+      <c r="DT84" s="31">
+        <v>1661</v>
+      </c>
+      <c r="DU84" s="31">
+        <v>118</v>
+      </c>
+      <c r="DV84" s="31">
+        <v>1662</v>
+      </c>
+      <c r="DW84" s="31">
+        <v>31</v>
+      </c>
+      <c r="DX84" s="31">
+        <v>2578</v>
+      </c>
+      <c r="DY84" s="31">
+        <v>26</v>
+      </c>
+      <c r="DZ84" s="31">
+        <v>1136</v>
+      </c>
+      <c r="EA84" s="31">
+        <v>6</v>
+      </c>
+      <c r="EB84" s="31">
+        <v>1410</v>
+      </c>
+      <c r="EC84" s="31">
+        <v>99</v>
+      </c>
+      <c r="ED84" s="31">
+        <v>621</v>
+      </c>
+      <c r="EE84" s="31">
+        <v>34</v>
+      </c>
+      <c r="EF84" s="31">
+        <v>1234</v>
+      </c>
+      <c r="EG84" s="31">
+        <v>1</v>
+      </c>
+      <c r="EH84" s="31">
+        <v>951</v>
+      </c>
+      <c r="EI84" s="31">
+        <v>10</v>
+      </c>
+      <c r="EJ84" s="31">
+        <v>865</v>
+      </c>
+      <c r="EK84" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL84" s="31">
+        <v>1098</v>
+      </c>
+      <c r="EM84" s="31">
+        <v>11</v>
+      </c>
+      <c r="EN84" s="31">
+        <v>1205</v>
+      </c>
+      <c r="EO84" s="31">
+        <v>53</v>
+      </c>
+      <c r="EP84" s="31">
+        <v>1009</v>
+      </c>
+      <c r="EQ84" s="31">
+        <v>39</v>
+      </c>
+      <c r="ER84" s="31">
+        <v>1013</v>
+      </c>
+      <c r="ES84" s="31">
+        <v>13</v>
+      </c>
+      <c r="ET84" s="31">
+        <v>1053</v>
+      </c>
+      <c r="EU84" s="31">
+        <v>23</v>
+      </c>
+      <c r="EV84" s="31">
+        <v>599</v>
+      </c>
+      <c r="EW84" s="31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>43934</v>
       </c>
-      <c r="AD85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AP85" s="24"/>
-      <c r="BF85" s="24"/>
+      <c r="B85" s="23">
+        <v>10537</v>
+      </c>
+      <c r="C85" s="23">
+        <v>217</v>
+      </c>
+      <c r="D85" s="23">
+        <v>7618</v>
+      </c>
+      <c r="E85" s="23">
+        <v>143</v>
+      </c>
+      <c r="F85" s="24">
+        <v>586941</v>
+      </c>
+      <c r="G85" s="24">
+        <v>23640</v>
+      </c>
+      <c r="H85" s="24">
+        <v>159516</v>
+      </c>
+      <c r="I85" s="24">
+        <v>20465</v>
+      </c>
+      <c r="J85">
+        <v>170099</v>
+      </c>
+      <c r="K85">
+        <v>17756</v>
+      </c>
+      <c r="L85">
+        <v>82249</v>
+      </c>
+      <c r="M85">
+        <v>3341</v>
+      </c>
+      <c r="N85" s="24">
+        <v>130072</v>
+      </c>
+      <c r="O85" s="24">
+        <v>3194</v>
+      </c>
+      <c r="P85" s="23">
+        <v>136779</v>
+      </c>
+      <c r="Q85" s="23">
+        <v>14967</v>
+      </c>
+      <c r="R85" s="23">
+        <v>73303</v>
+      </c>
+      <c r="S85" s="23">
+        <v>4585</v>
+      </c>
+      <c r="T85" s="23">
+        <v>88621</v>
+      </c>
+      <c r="U85" s="24">
+        <v>11329</v>
+      </c>
+      <c r="V85" s="24">
+        <v>25688</v>
+      </c>
+      <c r="W85" s="24">
+        <v>1138</v>
+      </c>
+      <c r="X85" s="24">
+        <v>61049</v>
+      </c>
+      <c r="Y85" s="24">
+        <v>1296</v>
+      </c>
+      <c r="Z85" s="24">
+        <v>30589</v>
+      </c>
+      <c r="AA85" s="24">
+        <v>3903</v>
+      </c>
+      <c r="AB85" s="24">
+        <v>26551</v>
+      </c>
+      <c r="AC85" s="24">
+        <v>2823</v>
+      </c>
+      <c r="AD85" s="24">
+        <v>14041</v>
+      </c>
+      <c r="AE85" s="24">
+        <v>368</v>
+      </c>
+      <c r="AF85" s="24">
+        <v>25680</v>
+      </c>
+      <c r="AG85" s="24">
+        <v>780</v>
+      </c>
+      <c r="AH85" s="24">
+        <v>16934</v>
+      </c>
+      <c r="AI85" s="24">
+        <v>535</v>
+      </c>
+      <c r="AJ85" s="24">
+        <v>23430</v>
+      </c>
+      <c r="AK85" s="24">
+        <v>1328</v>
+      </c>
+      <c r="AL85" s="31">
+        <v>11586</v>
+      </c>
+      <c r="AM85" s="31">
+        <v>116</v>
+      </c>
+      <c r="AN85" s="31">
+        <v>6359</v>
+      </c>
+      <c r="AO85" s="31">
+        <v>61</v>
+      </c>
+      <c r="AP85" s="30">
+        <v>6603</v>
+      </c>
+      <c r="AQ85" s="31">
+        <v>134</v>
+      </c>
+      <c r="AR85" s="31">
+        <v>10948</v>
+      </c>
+      <c r="AS85" s="31">
+        <v>919</v>
+      </c>
+      <c r="AT85" s="31">
+        <v>10647</v>
+      </c>
+      <c r="AU85" s="31">
+        <v>365</v>
+      </c>
+      <c r="AV85" s="30">
+        <v>6318</v>
+      </c>
+      <c r="AW85" s="31">
+        <v>285</v>
+      </c>
+      <c r="AX85" s="31">
+        <v>4817</v>
+      </c>
+      <c r="AY85" s="31">
+        <v>77</v>
+      </c>
+      <c r="AZ85" s="31">
+        <v>6934</v>
+      </c>
+      <c r="BA85" s="31">
+        <v>245</v>
+      </c>
+      <c r="BB85" s="31">
+        <v>4932</v>
+      </c>
+      <c r="BC85" s="31">
+        <v>315</v>
+      </c>
+      <c r="BD85" s="31">
+        <v>4557</v>
+      </c>
+      <c r="BE85" s="31">
+        <v>399</v>
+      </c>
+      <c r="BF85" s="30">
+        <v>10453</v>
+      </c>
+      <c r="BG85" s="31">
+        <v>358</v>
+      </c>
+      <c r="BH85" s="31">
+        <v>2145</v>
+      </c>
+      <c r="BI85" s="31">
+        <v>99</v>
+      </c>
+      <c r="BJ85" s="31">
+        <v>1983</v>
+      </c>
+      <c r="BK85" s="31">
+        <v>313</v>
+      </c>
+      <c r="BL85" s="31">
+        <v>1010</v>
+      </c>
+      <c r="BM85" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN85" s="31">
+        <v>1378</v>
+      </c>
+      <c r="BO85" s="31">
+        <v>78</v>
+      </c>
+      <c r="BP85" s="31">
+        <v>18328</v>
+      </c>
+      <c r="BQ85" s="31">
+        <v>148</v>
+      </c>
+      <c r="BR85" s="31">
+        <v>6059</v>
+      </c>
+      <c r="BS85" s="31">
+        <v>143</v>
+      </c>
+      <c r="BT85" s="31">
+        <v>7525</v>
+      </c>
+      <c r="BU85" s="31">
+        <v>82</v>
+      </c>
+      <c r="BV85" s="31">
+        <v>6633</v>
+      </c>
+      <c r="BW85" s="31">
+        <v>331</v>
+      </c>
+      <c r="BX85" s="31">
+        <v>7529</v>
+      </c>
+      <c r="BY85" s="31">
+        <v>355</v>
+      </c>
+      <c r="BZ85" s="31">
+        <v>5496</v>
+      </c>
+      <c r="CA85" s="31">
+        <v>93</v>
+      </c>
+      <c r="CB85" s="31">
+        <v>3292</v>
+      </c>
+      <c r="CC85" s="31">
+        <v>69</v>
+      </c>
+      <c r="CD85" s="31">
+        <v>2579</v>
+      </c>
+      <c r="CE85" s="31">
+        <v>40</v>
+      </c>
+      <c r="CF85" s="31">
+        <v>4934</v>
+      </c>
+      <c r="CG85" s="31">
+        <v>65</v>
+      </c>
+      <c r="CH85" s="31">
+        <v>3064</v>
+      </c>
+      <c r="CI85" s="31">
+        <v>59</v>
+      </c>
+      <c r="CJ85" s="31">
+        <v>4661</v>
+      </c>
+      <c r="CK85" s="31">
+        <v>296</v>
+      </c>
+      <c r="CL85" s="31">
+        <v>3472</v>
+      </c>
+      <c r="CM85" s="31">
+        <v>94</v>
+      </c>
+      <c r="CN85" s="31">
+        <v>9784</v>
+      </c>
+      <c r="CO85" s="31">
+        <v>216</v>
+      </c>
+      <c r="CP85" s="31">
+        <v>2272</v>
+      </c>
+      <c r="CQ85" s="31">
+        <v>27</v>
+      </c>
+      <c r="CR85" s="31">
+        <v>3167</v>
+      </c>
+      <c r="CS85" s="31">
+        <v>177</v>
+      </c>
+      <c r="CT85" s="31">
+        <v>4054</v>
+      </c>
+      <c r="CU85" s="31">
+        <v>85</v>
+      </c>
+      <c r="CV85" s="31">
+        <v>1711</v>
+      </c>
+      <c r="CW85" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX85" s="31">
+        <v>2277</v>
+      </c>
+      <c r="CY85" s="31">
+        <v>98</v>
+      </c>
+      <c r="CZ85" s="31">
+        <v>2852</v>
+      </c>
+      <c r="DA85" s="31">
+        <v>112</v>
+      </c>
+      <c r="DB85" s="31">
+        <v>4521</v>
+      </c>
+      <c r="DC85" s="31">
+        <v>25</v>
+      </c>
+      <c r="DD85" s="31">
+        <v>2918</v>
+      </c>
+      <c r="DE85" s="31">
+        <v>9</v>
+      </c>
+      <c r="DF85" s="31">
+        <v>3102</v>
+      </c>
+      <c r="DG85" s="31">
+        <v>93</v>
+      </c>
+      <c r="DH85" s="31">
+        <v>1650</v>
+      </c>
+      <c r="DI85" s="31">
+        <v>25</v>
+      </c>
+      <c r="DJ85" s="31">
+        <v>3231</v>
+      </c>
+      <c r="DK85" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL85" s="31">
+        <v>1332</v>
+      </c>
+      <c r="DM85" s="31">
+        <v>28</v>
+      </c>
+      <c r="DN85" s="31">
+        <v>2190</v>
+      </c>
+      <c r="DO85" s="31">
+        <v>164</v>
+      </c>
+      <c r="DP85" s="31">
+        <v>1212</v>
+      </c>
+      <c r="DQ85" s="31">
+        <v>55</v>
+      </c>
+      <c r="DR85" s="31">
+        <v>1349</v>
+      </c>
+      <c r="DS85" s="31">
+        <v>5</v>
+      </c>
+      <c r="DT85" s="31">
+        <v>1763</v>
+      </c>
+      <c r="DU85" s="31">
+        <v>126</v>
+      </c>
+      <c r="DV85" s="31">
+        <v>1712</v>
+      </c>
+      <c r="DW85" s="31">
+        <v>35</v>
+      </c>
+      <c r="DX85" s="31">
+        <v>2919</v>
+      </c>
+      <c r="DY85" s="31">
+        <v>29</v>
+      </c>
+      <c r="DZ85" s="31">
+        <v>1361</v>
+      </c>
+      <c r="EA85" s="31">
+        <v>6</v>
+      </c>
+      <c r="EB85" s="31">
+        <v>1458</v>
+      </c>
+      <c r="EC85" s="31">
+        <v>109</v>
+      </c>
+      <c r="ED85" s="31">
+        <v>803</v>
+      </c>
+      <c r="EE85" s="31">
+        <v>39</v>
+      </c>
+      <c r="EF85" s="31">
+        <v>1300</v>
+      </c>
+      <c r="EG85" s="31">
+        <v>2</v>
+      </c>
+      <c r="EH85" s="31">
+        <v>1091</v>
+      </c>
+      <c r="EI85" s="31">
+        <v>12</v>
+      </c>
+      <c r="EJ85" s="31">
+        <v>998</v>
+      </c>
+      <c r="EK85" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL85" s="31">
+        <v>1148</v>
+      </c>
+      <c r="EM85" s="31">
+        <v>12</v>
+      </c>
+      <c r="EN85" s="31">
+        <v>1212</v>
+      </c>
+      <c r="EO85" s="31">
+        <v>55</v>
+      </c>
+      <c r="EP85" s="31">
+        <v>1037</v>
+      </c>
+      <c r="EQ85" s="31">
+        <v>39</v>
+      </c>
+      <c r="ER85" s="31">
+        <v>1039</v>
+      </c>
+      <c r="ES85" s="31">
+        <v>14</v>
+      </c>
+      <c r="ET85" s="31">
+        <v>1062</v>
+      </c>
+      <c r="EU85" s="31">
+        <v>24</v>
+      </c>
+      <c r="EV85" s="31">
+        <v>727</v>
+      </c>
+      <c r="EW85" s="31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
         <v>43935</v>
       </c>
-      <c r="AD86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AP86" s="24"/>
-      <c r="BF86" s="24"/>
+      <c r="B86" s="23">
+        <v>10564</v>
+      </c>
+      <c r="C86" s="23">
+        <v>222</v>
+      </c>
+      <c r="D86" s="23">
+        <v>7885</v>
+      </c>
+      <c r="E86" s="23">
+        <v>146</v>
+      </c>
+      <c r="F86">
+        <v>613883</v>
+      </c>
+      <c r="G86" s="24">
+        <v>26047</v>
+      </c>
+      <c r="H86" s="24">
+        <v>162488</v>
+      </c>
+      <c r="I86" s="24">
+        <v>21067</v>
+      </c>
+      <c r="J86">
+        <v>174060</v>
+      </c>
+      <c r="K86">
+        <v>18255</v>
+      </c>
+      <c r="L86">
+        <v>82295</v>
+      </c>
+      <c r="M86">
+        <v>3342</v>
+      </c>
+      <c r="N86" s="24">
+        <v>132210</v>
+      </c>
+      <c r="O86" s="24">
+        <v>3495</v>
+      </c>
+      <c r="P86" s="23">
+        <v>143303</v>
+      </c>
+      <c r="Q86" s="23">
+        <v>15729</v>
+      </c>
+      <c r="R86" s="23">
+        <v>74877</v>
+      </c>
+      <c r="S86" s="23">
+        <v>4683</v>
+      </c>
+      <c r="T86" s="23">
+        <v>93873</v>
+      </c>
+      <c r="U86" s="24">
+        <v>12107</v>
+      </c>
+      <c r="V86" s="24">
+        <v>25936</v>
+      </c>
+      <c r="W86" s="24">
+        <v>1174</v>
+      </c>
+      <c r="X86" s="24">
+        <v>65111</v>
+      </c>
+      <c r="Y86" s="24">
+        <v>1403</v>
+      </c>
+      <c r="Z86" s="24">
+        <v>31119</v>
+      </c>
+      <c r="AA86" s="24">
+        <v>4157</v>
+      </c>
+      <c r="AB86" s="24">
+        <v>27419</v>
+      </c>
+      <c r="AC86" s="24">
+        <v>2945</v>
+      </c>
+      <c r="AD86" s="24">
+        <v>14226</v>
+      </c>
+      <c r="AE86" s="24">
+        <v>384</v>
+      </c>
+      <c r="AF86" s="24">
+        <v>27063</v>
+      </c>
+      <c r="AG86" s="24">
+        <v>903</v>
+      </c>
+      <c r="AH86" s="24">
+        <v>17448</v>
+      </c>
+      <c r="AI86" s="24">
+        <v>567</v>
+      </c>
+      <c r="AJ86" s="24">
+        <v>25262</v>
+      </c>
+      <c r="AK86" s="24">
+        <v>1532</v>
+      </c>
+      <c r="AL86" s="31">
+        <v>12046</v>
+      </c>
+      <c r="AM86" s="31">
+        <v>123</v>
+      </c>
+      <c r="AN86" s="31">
+        <v>6400</v>
+      </c>
+      <c r="AO86" s="31">
+        <v>61</v>
+      </c>
+      <c r="AP86" s="30">
+        <v>6623</v>
+      </c>
+      <c r="AQ86" s="31">
+        <v>139</v>
+      </c>
+      <c r="AR86" s="31">
+        <v>11445</v>
+      </c>
+      <c r="AS86" s="31">
+        <v>1033</v>
+      </c>
+      <c r="AT86" s="31">
+        <v>11479</v>
+      </c>
+      <c r="AU86" s="31">
+        <v>406</v>
+      </c>
+      <c r="AV86" s="30">
+        <v>6511</v>
+      </c>
+      <c r="AW86" s="31">
+        <v>299</v>
+      </c>
+      <c r="AX86" s="31">
+        <v>4987</v>
+      </c>
+      <c r="AY86" s="31">
+        <v>82</v>
+      </c>
+      <c r="AZ86" s="31">
+        <v>7202</v>
+      </c>
+      <c r="BA86" s="31">
+        <v>263</v>
+      </c>
+      <c r="BB86" s="31">
+        <v>5223</v>
+      </c>
+      <c r="BC86" s="31">
+        <v>335</v>
+      </c>
+      <c r="BD86" s="31">
+        <v>4839</v>
+      </c>
+      <c r="BE86" s="31">
+        <v>459</v>
+      </c>
+      <c r="BF86" s="30">
+        <v>11487</v>
+      </c>
+      <c r="BG86" s="31">
+        <v>393</v>
+      </c>
+      <c r="BH86" s="31">
+        <v>2170</v>
+      </c>
+      <c r="BI86" s="31">
+        <v>101</v>
+      </c>
+      <c r="BJ86" s="31">
+        <v>2070</v>
+      </c>
+      <c r="BK86" s="31">
+        <v>326</v>
+      </c>
+      <c r="BL86" s="31">
+        <v>1013</v>
+      </c>
+      <c r="BM86" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN86" s="31">
+        <v>1400</v>
+      </c>
+      <c r="BO86" s="31">
+        <v>78</v>
+      </c>
+      <c r="BP86" s="31">
+        <v>21102</v>
+      </c>
+      <c r="BQ86" s="31">
+        <v>170</v>
+      </c>
+      <c r="BR86" s="31">
+        <v>6111</v>
+      </c>
+      <c r="BS86" s="31">
+        <v>161</v>
+      </c>
+      <c r="BT86" s="31">
+        <v>7917</v>
+      </c>
+      <c r="BU86" s="31">
+        <v>92</v>
+      </c>
+      <c r="BV86" s="31">
+        <v>6879</v>
+      </c>
+      <c r="BW86" s="31">
+        <v>351</v>
+      </c>
+      <c r="BX86" s="31">
+        <v>7603</v>
+      </c>
+      <c r="BY86" s="31">
+        <v>369</v>
+      </c>
+      <c r="BZ86" s="31">
+        <v>5837</v>
+      </c>
+      <c r="CA86" s="31">
+        <v>96</v>
+      </c>
+      <c r="CB86" s="31">
+        <v>3307</v>
+      </c>
+      <c r="CC86" s="31">
+        <v>69</v>
+      </c>
+      <c r="CD86" s="31">
+        <v>2613</v>
+      </c>
+      <c r="CE86" s="31">
+        <v>41</v>
+      </c>
+      <c r="CF86" s="31">
+        <v>5369</v>
+      </c>
+      <c r="CG86" s="31">
+        <v>73</v>
+      </c>
+      <c r="CH86" s="31">
+        <v>3161</v>
+      </c>
+      <c r="CI86" s="31">
+        <v>64</v>
+      </c>
+      <c r="CJ86" s="31">
+        <v>5014</v>
+      </c>
+      <c r="CK86" s="31">
+        <v>332</v>
+      </c>
+      <c r="CL86" s="31">
+        <v>3574</v>
+      </c>
+      <c r="CM86" s="31">
+        <v>95</v>
+      </c>
+      <c r="CN86" s="31">
+        <v>10303</v>
+      </c>
+      <c r="CO86" s="31">
+        <v>230</v>
+      </c>
+      <c r="CP86" s="31">
+        <v>2415</v>
+      </c>
+      <c r="CQ86" s="31">
+        <v>27</v>
+      </c>
+      <c r="CR86" s="31">
+        <v>3286</v>
+      </c>
+      <c r="CS86" s="31">
+        <v>183</v>
+      </c>
+      <c r="CT86" s="31">
+        <v>4465</v>
+      </c>
+      <c r="CU86" s="31">
+        <v>94</v>
+      </c>
+      <c r="CV86" s="31">
+        <v>1720</v>
+      </c>
+      <c r="CW86" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX86" s="31">
+        <v>2277</v>
+      </c>
+      <c r="CY86" s="31">
+        <v>102</v>
+      </c>
+      <c r="CZ86" s="31">
+        <v>2979</v>
+      </c>
+      <c r="DA86" s="31">
+        <v>127</v>
+      </c>
+      <c r="DB86" s="31">
+        <v>4933</v>
+      </c>
+      <c r="DC86" s="31">
+        <v>28</v>
+      </c>
+      <c r="DD86" s="31">
+        <v>3252</v>
+      </c>
+      <c r="DE86" s="31">
+        <v>10</v>
+      </c>
+      <c r="DF86" s="31">
+        <v>3372</v>
+      </c>
+      <c r="DG86" s="31">
+        <v>98</v>
+      </c>
+      <c r="DH86" s="31">
+        <v>1704</v>
+      </c>
+      <c r="DI86" s="31">
+        <v>31</v>
+      </c>
+      <c r="DJ86" s="31">
+        <v>3428</v>
+      </c>
+      <c r="DK86" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL86" s="31">
+        <v>1373</v>
+      </c>
+      <c r="DM86" s="31">
+        <v>31</v>
+      </c>
+      <c r="DN86" s="31">
+        <v>2350</v>
+      </c>
+      <c r="DO86" s="31">
+        <v>178</v>
+      </c>
+      <c r="DP86" s="31">
+        <v>1220</v>
+      </c>
+      <c r="DQ86" s="31">
+        <v>56</v>
+      </c>
+      <c r="DR86" s="31">
+        <v>1366</v>
+      </c>
+      <c r="DS86" s="31">
+        <v>9</v>
+      </c>
+      <c r="DT86" s="31">
+        <v>1888</v>
+      </c>
+      <c r="DU86" s="31">
+        <v>126</v>
+      </c>
+      <c r="DV86" s="31">
+        <v>1934</v>
+      </c>
+      <c r="DW86" s="31">
+        <v>41</v>
+      </c>
+      <c r="DX86" s="31">
+        <v>3281</v>
+      </c>
+      <c r="DY86" s="31">
+        <v>33</v>
+      </c>
+      <c r="DZ86" s="31">
+        <v>1528</v>
+      </c>
+      <c r="EA86" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB86" s="31">
+        <v>1512</v>
+      </c>
+      <c r="EC86" s="31">
+        <v>122</v>
+      </c>
+      <c r="ED86" s="31">
+        <v>1012</v>
+      </c>
+      <c r="EE86" s="31">
+        <v>46</v>
+      </c>
+      <c r="EF86" s="31">
+        <v>1355</v>
+      </c>
+      <c r="EG86" s="31">
+        <v>3</v>
+      </c>
+      <c r="EH86" s="31">
+        <v>1232</v>
+      </c>
+      <c r="EI86" s="31">
+        <v>14</v>
+      </c>
+      <c r="EJ86" s="31">
+        <v>1165</v>
+      </c>
+      <c r="EK86" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL86" s="31">
+        <v>1197</v>
+      </c>
+      <c r="EM86" s="31">
+        <v>13</v>
+      </c>
+      <c r="EN86" s="31">
+        <v>1220</v>
+      </c>
+      <c r="EO86" s="31">
+        <v>56</v>
+      </c>
+      <c r="EP86" s="31">
+        <v>1083</v>
+      </c>
+      <c r="EQ86" s="31">
+        <v>40</v>
+      </c>
+      <c r="ER86" s="31">
+        <v>1067</v>
+      </c>
+      <c r="ES86" s="31">
+        <v>16</v>
+      </c>
+      <c r="ET86" s="31">
+        <v>1070</v>
+      </c>
+      <c r="EU86" s="31">
+        <v>29</v>
+      </c>
+      <c r="EV86" s="31">
+        <v>813</v>
+      </c>
+      <c r="EW86" s="31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>43936</v>
       </c>
-      <c r="AD87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AP87" s="24"/>
-      <c r="BF87" s="24"/>
+      <c r="B87" s="23">
+        <v>10591</v>
+      </c>
+      <c r="C87" s="23">
+        <v>225</v>
+      </c>
+      <c r="D87" s="23">
+        <v>8626</v>
+      </c>
+      <c r="E87" s="23">
+        <v>178</v>
+      </c>
+      <c r="F87">
+        <v>644089</v>
+      </c>
+      <c r="G87" s="24">
+        <v>28529</v>
+      </c>
+      <c r="H87" s="24">
+        <v>165155</v>
+      </c>
+      <c r="I87" s="24">
+        <v>21645</v>
+      </c>
+      <c r="J87">
+        <v>180659</v>
+      </c>
+      <c r="K87">
+        <v>18812</v>
+      </c>
+      <c r="L87">
+        <v>82341</v>
+      </c>
+      <c r="M87">
+        <v>3342</v>
+      </c>
+      <c r="N87" s="24">
+        <v>134753</v>
+      </c>
+      <c r="O87" s="24">
+        <v>3804</v>
+      </c>
+      <c r="P87" s="23">
+        <v>147863</v>
+      </c>
+      <c r="Q87" s="23">
+        <v>17167</v>
+      </c>
+      <c r="R87" s="23">
+        <v>76389</v>
+      </c>
+      <c r="S87" s="23">
+        <v>4777</v>
+      </c>
+      <c r="T87" s="23">
+        <v>98476</v>
+      </c>
+      <c r="U87" s="24">
+        <v>12868</v>
+      </c>
+      <c r="V87" s="24">
+        <v>26336</v>
+      </c>
+      <c r="W87" s="24">
+        <v>1239</v>
+      </c>
+      <c r="X87" s="24">
+        <v>69392</v>
+      </c>
+      <c r="Y87" s="24">
+        <v>1518</v>
+      </c>
+      <c r="Z87" s="24">
+        <v>33573</v>
+      </c>
+      <c r="AA87" s="24">
+        <v>4440</v>
+      </c>
+      <c r="AB87" s="24">
+        <v>28153</v>
+      </c>
+      <c r="AC87" s="24">
+        <v>3134</v>
+      </c>
+      <c r="AD87" s="24">
+        <v>14350</v>
+      </c>
+      <c r="AE87" s="24">
+        <v>393</v>
+      </c>
+      <c r="AF87" s="24">
+        <v>28379</v>
+      </c>
+      <c r="AG87" s="24">
+        <v>1010</v>
+      </c>
+      <c r="AH87" s="24">
+        <v>18091</v>
+      </c>
+      <c r="AI87" s="24">
+        <v>599</v>
+      </c>
+      <c r="AJ87" s="24">
+        <v>28610</v>
+      </c>
+      <c r="AK87" s="24">
+        <v>1757</v>
+      </c>
+      <c r="AL87" s="31">
+        <v>12501</v>
+      </c>
+      <c r="AM87" s="31">
+        <v>130</v>
+      </c>
+      <c r="AN87" s="31">
+        <v>6447</v>
+      </c>
+      <c r="AO87" s="31">
+        <v>63</v>
+      </c>
+      <c r="AP87" s="30">
+        <v>6797</v>
+      </c>
+      <c r="AQ87" s="31">
+        <v>150</v>
+      </c>
+      <c r="AR87" s="31">
+        <v>11927</v>
+      </c>
+      <c r="AS87" s="31">
+        <v>1203</v>
+      </c>
+      <c r="AT87" s="31">
+        <v>12547</v>
+      </c>
+      <c r="AU87" s="31">
+        <v>444</v>
+      </c>
+      <c r="AV87" s="30">
+        <v>6681</v>
+      </c>
+      <c r="AW87" s="31">
+        <v>309</v>
+      </c>
+      <c r="AX87" s="31">
+        <v>5072</v>
+      </c>
+      <c r="AY87" s="31">
+        <v>83</v>
+      </c>
+      <c r="AZ87" s="31">
+        <v>7582</v>
+      </c>
+      <c r="BA87" s="31">
+        <v>286</v>
+      </c>
+      <c r="BB87" s="31">
+        <v>5453</v>
+      </c>
+      <c r="BC87" s="31">
+        <v>349</v>
+      </c>
+      <c r="BD87" s="31">
+        <v>5136</v>
+      </c>
+      <c r="BE87" s="31">
+        <v>469</v>
+      </c>
+      <c r="BF87" s="30">
+        <v>12370</v>
+      </c>
+      <c r="BG87" s="31">
+        <v>422</v>
+      </c>
+      <c r="BH87" s="31">
+        <v>2192</v>
+      </c>
+      <c r="BI87" s="31">
+        <v>102</v>
+      </c>
+      <c r="BJ87" s="31">
+        <v>2160</v>
+      </c>
+      <c r="BK87" s="31">
+        <v>336</v>
+      </c>
+      <c r="BL87" s="31">
+        <v>1017</v>
+      </c>
+      <c r="BM87" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN87" s="31">
+        <v>1415</v>
+      </c>
+      <c r="BO87" s="31">
+        <v>79</v>
+      </c>
+      <c r="BP87" s="31">
+        <v>24490</v>
+      </c>
+      <c r="BQ87" s="31">
+        <v>198</v>
+      </c>
+      <c r="BR87" s="31">
+        <v>6301</v>
+      </c>
+      <c r="BS87" s="31">
+        <v>166</v>
+      </c>
+      <c r="BT87" s="31">
+        <v>8273</v>
+      </c>
+      <c r="BU87" s="31">
+        <v>94</v>
+      </c>
+      <c r="BV87" s="31">
+        <v>7216</v>
+      </c>
+      <c r="BW87" s="31">
+        <v>372</v>
+      </c>
+      <c r="BX87" s="31">
+        <v>7858</v>
+      </c>
+      <c r="BY87" s="31">
+        <v>388</v>
+      </c>
+      <c r="BZ87" s="31">
+        <v>6383</v>
+      </c>
+      <c r="CA87" s="31">
+        <v>111</v>
+      </c>
+      <c r="CB87" s="31">
+        <v>3373</v>
+      </c>
+      <c r="CC87" s="31">
+        <v>69</v>
+      </c>
+      <c r="CD87" s="31">
+        <v>2643</v>
+      </c>
+      <c r="CE87" s="31">
+        <v>43</v>
+      </c>
+      <c r="CF87" s="31">
+        <v>5862</v>
+      </c>
+      <c r="CG87" s="31">
+        <v>79</v>
+      </c>
+      <c r="CH87" s="31">
+        <v>3237</v>
+      </c>
+      <c r="CI87" s="31">
+        <v>72</v>
+      </c>
+      <c r="CJ87" s="31">
+        <v>5399</v>
+      </c>
+      <c r="CK87" s="31">
+        <v>406</v>
+      </c>
+      <c r="CL87" s="31">
+        <v>3751</v>
+      </c>
+      <c r="CM87" s="31">
+        <v>103</v>
+      </c>
+      <c r="CN87" s="31">
+        <v>11475</v>
+      </c>
+      <c r="CO87" s="31">
+        <v>254</v>
+      </c>
+      <c r="CP87" s="31">
+        <v>2506</v>
+      </c>
+      <c r="CQ87" s="31">
+        <v>34</v>
+      </c>
+      <c r="CR87" s="31">
+        <v>3614</v>
+      </c>
+      <c r="CS87" s="31">
+        <v>189</v>
+      </c>
+      <c r="CT87" s="31">
+        <v>4873</v>
+      </c>
+      <c r="CU87" s="31">
+        <v>99</v>
+      </c>
+      <c r="CV87" s="31">
+        <v>1727</v>
+      </c>
+      <c r="CW87" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX87" s="31">
+        <v>2571</v>
+      </c>
+      <c r="CY87" s="31">
+        <v>112</v>
+      </c>
+      <c r="CZ87" s="31">
+        <v>3105</v>
+      </c>
+      <c r="DA87" s="31">
+        <v>131</v>
+      </c>
+      <c r="DB87" s="31">
+        <v>5365</v>
+      </c>
+      <c r="DC87" s="31">
+        <v>33</v>
+      </c>
+      <c r="DD87" s="31">
+        <v>3699</v>
+      </c>
+      <c r="DE87" s="31">
+        <v>10</v>
+      </c>
+      <c r="DF87" s="31">
+        <v>3764</v>
+      </c>
+      <c r="DG87" s="31">
+        <v>108</v>
+      </c>
+      <c r="DH87" s="31">
+        <v>1741</v>
+      </c>
+      <c r="DI87" s="31">
+        <v>33</v>
+      </c>
+      <c r="DJ87" s="31">
+        <v>3711</v>
+      </c>
+      <c r="DK87" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL87" s="31">
+        <v>1400</v>
+      </c>
+      <c r="DM87" s="31">
+        <v>35</v>
+      </c>
+      <c r="DN87" s="31">
+        <v>2505</v>
+      </c>
+      <c r="DO87" s="31">
+        <v>183</v>
+      </c>
+      <c r="DP87" s="31">
+        <v>1248</v>
+      </c>
+      <c r="DQ87" s="31">
+        <v>61</v>
+      </c>
+      <c r="DR87" s="31">
+        <v>1386</v>
+      </c>
+      <c r="DS87" s="31">
+        <v>9</v>
+      </c>
+      <c r="DT87" s="31">
+        <v>2024</v>
+      </c>
+      <c r="DU87" s="31">
+        <v>127</v>
+      </c>
+      <c r="DV87" s="31">
+        <v>2049</v>
+      </c>
+      <c r="DW87" s="31">
+        <v>46</v>
+      </c>
+      <c r="DX87" s="31">
+        <v>3728</v>
+      </c>
+      <c r="DY87" s="31">
+        <v>36</v>
+      </c>
+      <c r="DZ87" s="31">
+        <v>1671</v>
+      </c>
+      <c r="EA87" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB87" s="31">
+        <v>1579</v>
+      </c>
+      <c r="EC87" s="31">
+        <v>134</v>
+      </c>
+      <c r="ED87" s="31">
+        <v>1231</v>
+      </c>
+      <c r="EE87" s="31">
+        <v>50</v>
+      </c>
+      <c r="EF87" s="31">
+        <v>1405</v>
+      </c>
+      <c r="EG87" s="31">
+        <v>3</v>
+      </c>
+      <c r="EH87" s="31">
+        <v>1295</v>
+      </c>
+      <c r="EI87" s="31">
+        <v>16</v>
+      </c>
+      <c r="EJ87" s="31">
+        <v>1302</v>
+      </c>
+      <c r="EK87" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL87" s="31">
+        <v>1253</v>
+      </c>
+      <c r="EM87" s="31">
+        <v>13</v>
+      </c>
+      <c r="EN87" s="31">
+        <v>1248</v>
+      </c>
+      <c r="EO87" s="31">
+        <v>61</v>
+      </c>
+      <c r="EP87" s="31">
+        <v>1110</v>
+      </c>
+      <c r="EQ87" s="31">
+        <v>41</v>
+      </c>
+      <c r="ER87" s="31">
+        <v>1111</v>
+      </c>
+      <c r="ES87" s="31">
+        <v>17</v>
+      </c>
+      <c r="ET87" s="31">
+        <v>1091</v>
+      </c>
+      <c r="EU87" s="31">
+        <v>30</v>
+      </c>
+      <c r="EV87" s="31">
+        <v>910</v>
+      </c>
+      <c r="EW87" s="31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A88" s="28">
         <v>43937</v>
       </c>
       <c r="AD88" s="24"/>
       <c r="AF88" s="24"/>
       <c r="AP88" s="24"/>
+      <c r="AX88" s="31"/>
+      <c r="BP88" s="31"/>
+      <c r="BR88" s="31"/>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A89" s="28">
         <v>43938</v>
       </c>
@@ -24239,7 +32018,7 @@
       <c r="AF89" s="24"/>
       <c r="AP89" s="24"/>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A90" s="28">
         <v>43939</v>
       </c>
@@ -24247,7 +32026,7 @@
       <c r="AF90" s="24"/>
       <c r="AP90" s="24"/>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A91" s="28">
         <v>43940</v>
       </c>
@@ -24255,7 +32034,7 @@
       <c r="AF91" s="24"/>
       <c r="AP91" s="24"/>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
         <v>43941</v>
       </c>
@@ -24263,7 +32042,7 @@
       <c r="AF92" s="24"/>
       <c r="AP92" s="24"/>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A93" s="28">
         <v>43942</v>
       </c>
@@ -24271,7 +32050,7 @@
       <c r="AF93" s="24"/>
       <c r="AP93" s="24"/>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A94" s="28">
         <v>43943</v>
       </c>
@@ -24279,7 +32058,7 @@
       <c r="AF94" s="24"/>
       <c r="AP94" s="24"/>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A95" s="28">
         <v>43944</v>
       </c>
@@ -24287,7 +32066,7 @@
       <c r="AF95" s="24"/>
       <c r="AP95" s="24"/>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A96" s="28">
         <v>43945</v>
       </c>

--- a/covidDataset/코로나 자료조사 통합.xlsx
+++ b/covidDataset/코로나 자료조사 통합.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="84">
   <si>
     <t>Portugal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -811,9 +811,6 @@
     <t>Egypt</t>
   </si>
   <si>
-    <t>Slobenia</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -1042,6 +1039,108 @@
         <scheme val="minor"/>
       </rPr>
       <t>man</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Slo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vakia</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orth Macedonia</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uba</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fghanistan</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ameroon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hana</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1560,7 +1659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1571,8 +1670,8 @@
   <dimension ref="A1:GQ103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DW1" sqref="DW1"/>
+      <pane xSplit="1" topLeftCell="ER1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1800,56 +1899,71 @@
       <c r="DN1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DP1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="DR1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DT1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="DT1" s="15" t="s">
+      <c r="DV1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="DV1" s="15" t="s">
+      <c r="DX1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="DX1" s="15" t="s">
+      <c r="DZ1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="DZ1" s="15" t="s">
+      <c r="EB1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="EB1" s="15" t="s">
+      <c r="ED1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="ED1" s="15" t="s">
+      <c r="EF1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="EF1" s="15" t="s">
+      <c r="EH1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="EH1" s="15" t="s">
+      <c r="EJ1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="EJ1" s="15" t="s">
+      <c r="EL1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="EL1" s="15" t="s">
+      <c r="EN1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="EN1" s="15" t="s">
+      <c r="EP1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="EP1" s="15" t="s">
+      <c r="ER1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="ER1" s="15" t="s">
+      <c r="ET1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="ET1" s="15" t="s">
+      <c r="EV1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="EV1" s="15" t="s">
-        <v>78</v>
+      <c r="EX1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="EZ1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="FB1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="FD1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="FF1" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:199" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3280,7 +3394,7 @@
       <c r="AX16" s="9"/>
       <c r="AY16" s="27"/>
     </row>
-    <row r="17" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43866</v>
       </c>
@@ -3339,7 +3453,7 @@
       <c r="AX17" s="9"/>
       <c r="AY17" s="27"/>
     </row>
-    <row r="18" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>43867</v>
       </c>
@@ -3400,7 +3514,7 @@
       <c r="AX18" s="9"/>
       <c r="AY18" s="27"/>
     </row>
-    <row r="19" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43868</v>
       </c>
@@ -3459,7 +3573,7 @@
       <c r="AX19" s="9"/>
       <c r="AY19" s="27"/>
     </row>
-    <row r="20" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>43869</v>
       </c>
@@ -3518,7 +3632,7 @@
       <c r="AX20" s="9"/>
       <c r="AY20" s="27"/>
     </row>
-    <row r="21" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>43870</v>
       </c>
@@ -3577,7 +3691,7 @@
       <c r="AX21" s="9"/>
       <c r="AY21" s="27"/>
     </row>
-    <row r="22" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43871</v>
       </c>
@@ -3636,7 +3750,7 @@
       <c r="AX22" s="9"/>
       <c r="AY22" s="27"/>
     </row>
-    <row r="23" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43872</v>
       </c>
@@ -3695,7 +3809,7 @@
       <c r="AX23" s="9"/>
       <c r="AY23" s="27"/>
     </row>
-    <row r="24" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43873</v>
       </c>
@@ -3756,7 +3870,7 @@
       <c r="AX24" s="9"/>
       <c r="AY24" s="27"/>
     </row>
-    <row r="25" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43874</v>
       </c>
@@ -3819,7 +3933,7 @@
       <c r="AX25" s="9"/>
       <c r="AY25" s="27"/>
     </row>
-    <row r="26" spans="1:153" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:163" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43875</v>
       </c>
@@ -3878,7 +3992,7 @@
       <c r="AX26" s="9"/>
       <c r="AY26" s="27"/>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43876</v>
       </c>
@@ -4338,8 +4452,38 @@
       <c r="EW27">
         <v>0</v>
       </c>
+      <c r="EX27">
+        <v>0</v>
+      </c>
+      <c r="EY27">
+        <v>0</v>
+      </c>
+      <c r="EZ27">
+        <v>0</v>
+      </c>
+      <c r="FA27">
+        <v>0</v>
+      </c>
+      <c r="FB27">
+        <v>0</v>
+      </c>
+      <c r="FC27">
+        <v>0</v>
+      </c>
+      <c r="FD27">
+        <v>0</v>
+      </c>
+      <c r="FE27">
+        <v>0</v>
+      </c>
+      <c r="FF27">
+        <v>0</v>
+      </c>
+      <c r="FG27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43877</v>
       </c>
@@ -4799,8 +4943,38 @@
       <c r="EW28" s="27">
         <v>0</v>
       </c>
+      <c r="EX28">
+        <v>0</v>
+      </c>
+      <c r="EY28" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ28">
+        <v>0</v>
+      </c>
+      <c r="FA28">
+        <v>0</v>
+      </c>
+      <c r="FB28">
+        <v>0</v>
+      </c>
+      <c r="FC28" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD28" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE28" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF28" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG28" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43878</v>
       </c>
@@ -5260,8 +5434,38 @@
       <c r="EW29" s="27">
         <v>0</v>
       </c>
+      <c r="EX29">
+        <v>0</v>
+      </c>
+      <c r="EY29" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ29">
+        <v>0</v>
+      </c>
+      <c r="FA29">
+        <v>0</v>
+      </c>
+      <c r="FB29">
+        <v>0</v>
+      </c>
+      <c r="FC29" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD29" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE29" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF29" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG29" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43879</v>
       </c>
@@ -5721,8 +5925,38 @@
       <c r="EW30" s="27">
         <v>0</v>
       </c>
+      <c r="EX30">
+        <v>0</v>
+      </c>
+      <c r="EY30" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ30">
+        <v>0</v>
+      </c>
+      <c r="FA30">
+        <v>0</v>
+      </c>
+      <c r="FB30">
+        <v>0</v>
+      </c>
+      <c r="FC30" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD30" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE30" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF30" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG30" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43880</v>
       </c>
@@ -6182,8 +6416,38 @@
       <c r="EW31" s="27">
         <v>0</v>
       </c>
+      <c r="EX31">
+        <v>0</v>
+      </c>
+      <c r="EY31" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ31">
+        <v>0</v>
+      </c>
+      <c r="FA31">
+        <v>0</v>
+      </c>
+      <c r="FB31">
+        <v>0</v>
+      </c>
+      <c r="FC31" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD31" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE31" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF31" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG31" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43881</v>
       </c>
@@ -6643,8 +6907,38 @@
       <c r="EW32" s="27">
         <v>0</v>
       </c>
+      <c r="EX32">
+        <v>0</v>
+      </c>
+      <c r="EY32" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ32">
+        <v>0</v>
+      </c>
+      <c r="FA32">
+        <v>0</v>
+      </c>
+      <c r="FB32">
+        <v>0</v>
+      </c>
+      <c r="FC32" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD32" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE32" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF32" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG32" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43882</v>
       </c>
@@ -7104,8 +7398,38 @@
       <c r="EW33" s="27">
         <v>0</v>
       </c>
+      <c r="EX33">
+        <v>0</v>
+      </c>
+      <c r="EY33" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ33">
+        <v>0</v>
+      </c>
+      <c r="FA33">
+        <v>0</v>
+      </c>
+      <c r="FB33">
+        <v>0</v>
+      </c>
+      <c r="FC33" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD33" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE33" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF33" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG33" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43883</v>
       </c>
@@ -7565,8 +7889,38 @@
       <c r="EW34" s="27">
         <v>0</v>
       </c>
+      <c r="EX34">
+        <v>0</v>
+      </c>
+      <c r="EY34" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ34">
+        <v>0</v>
+      </c>
+      <c r="FA34">
+        <v>0</v>
+      </c>
+      <c r="FB34">
+        <v>0</v>
+      </c>
+      <c r="FC34" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD34" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE34" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF34" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG34" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43884</v>
       </c>
@@ -8026,8 +8380,38 @@
       <c r="EW35" s="27">
         <v>0</v>
       </c>
+      <c r="EX35">
+        <v>0</v>
+      </c>
+      <c r="EY35" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ35">
+        <v>0</v>
+      </c>
+      <c r="FA35">
+        <v>0</v>
+      </c>
+      <c r="FB35">
+        <v>0</v>
+      </c>
+      <c r="FC35" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD35" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE35" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF35" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG35" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43885</v>
       </c>
@@ -8487,8 +8871,38 @@
       <c r="EW36" s="27">
         <v>0</v>
       </c>
+      <c r="EX36">
+        <v>0</v>
+      </c>
+      <c r="EY36" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ36">
+        <v>0</v>
+      </c>
+      <c r="FA36">
+        <v>0</v>
+      </c>
+      <c r="FB36">
+        <v>1</v>
+      </c>
+      <c r="FC36" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD36" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE36" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF36" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG36" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43886</v>
       </c>
@@ -8948,8 +9362,38 @@
       <c r="EW37" s="27">
         <v>0</v>
       </c>
+      <c r="EX37">
+        <v>0</v>
+      </c>
+      <c r="EY37" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ37">
+        <v>0</v>
+      </c>
+      <c r="FA37">
+        <v>0</v>
+      </c>
+      <c r="FB37">
+        <v>1</v>
+      </c>
+      <c r="FC37" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD37" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE37" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF37" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG37" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43887</v>
       </c>
@@ -9409,8 +9853,38 @@
       <c r="EW38" s="27">
         <v>0</v>
       </c>
+      <c r="EX38">
+        <v>1</v>
+      </c>
+      <c r="EY38" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ38">
+        <v>0</v>
+      </c>
+      <c r="FA38">
+        <v>0</v>
+      </c>
+      <c r="FB38">
+        <v>1</v>
+      </c>
+      <c r="FC38" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD38" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE38" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF38" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG38" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43888</v>
       </c>
@@ -9870,8 +10344,38 @@
       <c r="EW39" s="27">
         <v>0</v>
       </c>
+      <c r="EX39">
+        <v>1</v>
+      </c>
+      <c r="EY39" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ39">
+        <v>0</v>
+      </c>
+      <c r="FA39">
+        <v>0</v>
+      </c>
+      <c r="FB39">
+        <v>1</v>
+      </c>
+      <c r="FC39" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD39" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE39" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF39" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG39" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43889</v>
       </c>
@@ -10331,8 +10835,38 @@
       <c r="EW40" s="27">
         <v>0</v>
       </c>
+      <c r="EX40">
+        <v>1</v>
+      </c>
+      <c r="EY40" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ40">
+        <v>0</v>
+      </c>
+      <c r="FA40">
+        <v>0</v>
+      </c>
+      <c r="FB40">
+        <v>1</v>
+      </c>
+      <c r="FC40" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD40" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE40" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF40" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG40" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43890</v>
       </c>
@@ -10792,8 +11326,38 @@
       <c r="EW41" s="27">
         <v>0</v>
       </c>
+      <c r="EX41">
+        <v>1</v>
+      </c>
+      <c r="EY41" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ41">
+        <v>0</v>
+      </c>
+      <c r="FA41">
+        <v>0</v>
+      </c>
+      <c r="FB41">
+        <v>1</v>
+      </c>
+      <c r="FC41" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD41" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE41" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF41" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG41" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43891</v>
       </c>
@@ -11253,8 +11817,38 @@
       <c r="EW42" s="27">
         <v>0</v>
       </c>
+      <c r="EX42">
+        <v>1</v>
+      </c>
+      <c r="EY42" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ42">
+        <v>0</v>
+      </c>
+      <c r="FA42">
+        <v>0</v>
+      </c>
+      <c r="FB42">
+        <v>1</v>
+      </c>
+      <c r="FC42" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD42" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE42" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF42" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG42" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43892</v>
       </c>
@@ -11714,8 +12308,38 @@
       <c r="EW43" s="27">
         <v>0</v>
       </c>
+      <c r="EX43">
+        <v>1</v>
+      </c>
+      <c r="EY43" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ43">
+        <v>0</v>
+      </c>
+      <c r="FA43">
+        <v>0</v>
+      </c>
+      <c r="FB43">
+        <v>1</v>
+      </c>
+      <c r="FC43" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD43" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE43" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF43" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG43" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43893</v>
       </c>
@@ -12175,8 +12799,38 @@
       <c r="EW44" s="27">
         <v>0</v>
       </c>
+      <c r="EX44">
+        <v>1</v>
+      </c>
+      <c r="EY44" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ44">
+        <v>0</v>
+      </c>
+      <c r="FA44">
+        <v>0</v>
+      </c>
+      <c r="FB44">
+        <v>1</v>
+      </c>
+      <c r="FC44" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD44" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE44" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF44" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG44" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43894</v>
       </c>
@@ -12535,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="DP45" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ45" s="27">
         <v>0</v>
@@ -12636,8 +13290,38 @@
       <c r="EW45" s="27">
         <v>0</v>
       </c>
+      <c r="EX45">
+        <v>1</v>
+      </c>
+      <c r="EY45" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ45">
+        <v>0</v>
+      </c>
+      <c r="FA45">
+        <v>0</v>
+      </c>
+      <c r="FB45">
+        <v>1</v>
+      </c>
+      <c r="FC45" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD45" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE45" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF45" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG45" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43895</v>
       </c>
@@ -12996,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="DP46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DQ46" s="27">
         <v>0</v>
@@ -13097,8 +13781,38 @@
       <c r="EW46" s="27">
         <v>0</v>
       </c>
+      <c r="EX46">
+        <v>1</v>
+      </c>
+      <c r="EY46" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ46">
+        <v>0</v>
+      </c>
+      <c r="FA46">
+        <v>0</v>
+      </c>
+      <c r="FB46">
+        <v>1</v>
+      </c>
+      <c r="FC46" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD46" s="27">
+        <v>0</v>
+      </c>
+      <c r="FE46" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF46" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG46" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43896</v>
       </c>
@@ -13457,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="DP47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="DQ47" s="27">
         <v>0</v>
@@ -13558,8 +14272,38 @@
       <c r="EW47" s="27">
         <v>0</v>
       </c>
+      <c r="EX47">
+        <v>3</v>
+      </c>
+      <c r="EY47" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ47">
+        <v>0</v>
+      </c>
+      <c r="FA47">
+        <v>0</v>
+      </c>
+      <c r="FB47">
+        <v>1</v>
+      </c>
+      <c r="FC47" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD47" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE47" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF47" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG47" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -13918,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="DP48">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DQ48" s="27">
         <v>0</v>
@@ -14019,8 +14763,38 @@
       <c r="EW48" s="27">
         <v>0</v>
       </c>
+      <c r="EX48">
+        <v>3</v>
+      </c>
+      <c r="EY48" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ48">
+        <v>0</v>
+      </c>
+      <c r="FA48">
+        <v>0</v>
+      </c>
+      <c r="FB48">
+        <v>4</v>
+      </c>
+      <c r="FC48" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD48" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE48" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF48" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG48" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>43898</v>
       </c>
@@ -14379,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="DP49">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="DQ49" s="27">
         <v>0</v>
@@ -14480,8 +15254,38 @@
       <c r="EW49" s="27">
         <v>0</v>
       </c>
+      <c r="EX49">
+        <v>3</v>
+      </c>
+      <c r="EY49" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ49">
+        <v>0</v>
+      </c>
+      <c r="FA49">
+        <v>0</v>
+      </c>
+      <c r="FB49">
+        <v>4</v>
+      </c>
+      <c r="FC49" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD49" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE49" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF49" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG49" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43899</v>
       </c>
@@ -14840,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="DP50">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="DQ50" s="27">
         <v>0</v>
@@ -14941,8 +15745,38 @@
       <c r="EW50" s="27">
         <v>0</v>
       </c>
+      <c r="EX50">
+        <v>5</v>
+      </c>
+      <c r="EY50" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ50">
+        <v>0</v>
+      </c>
+      <c r="FA50">
+        <v>0</v>
+      </c>
+      <c r="FB50">
+        <v>4</v>
+      </c>
+      <c r="FC50" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD50" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE50" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF50" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG50" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>43900</v>
       </c>
@@ -15301,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="DP51">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="DQ51" s="27">
         <v>0</v>
@@ -15402,8 +16236,38 @@
       <c r="EW51" s="27">
         <v>0</v>
       </c>
+      <c r="EX51">
+        <v>7</v>
+      </c>
+      <c r="EY51" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ51">
+        <v>0</v>
+      </c>
+      <c r="FA51">
+        <v>0</v>
+      </c>
+      <c r="FB51">
+        <v>5</v>
+      </c>
+      <c r="FC51" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD51" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE51" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF51" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG51" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>43901</v>
       </c>
@@ -15762,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="DP52">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="DQ52" s="27">
         <v>0</v>
@@ -15863,8 +16727,38 @@
       <c r="EW52" s="27">
         <v>0</v>
       </c>
+      <c r="EX52">
+        <v>9</v>
+      </c>
+      <c r="EY52" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ52">
+        <v>3</v>
+      </c>
+      <c r="FA52">
+        <v>0</v>
+      </c>
+      <c r="FB52">
+        <v>7</v>
+      </c>
+      <c r="FC52" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD52" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE52" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF52" s="27">
+        <v>0</v>
+      </c>
+      <c r="FG52" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>43902</v>
       </c>
@@ -16223,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="DP53">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="DQ53" s="27">
         <v>0</v>
@@ -16324,8 +17218,38 @@
       <c r="EW53" s="27">
         <v>0</v>
       </c>
+      <c r="EX53">
+        <v>9</v>
+      </c>
+      <c r="EY53" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ53">
+        <v>3</v>
+      </c>
+      <c r="FA53">
+        <v>0</v>
+      </c>
+      <c r="FB53">
+        <v>7</v>
+      </c>
+      <c r="FC53" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD53" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE53" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF53">
+        <v>2</v>
+      </c>
+      <c r="FG53" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43903</v>
       </c>
@@ -16684,7 +17608,7 @@
         <v>2</v>
       </c>
       <c r="DP54">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="DQ54" s="27">
         <v>0</v>
@@ -16785,8 +17709,38 @@
       <c r="EW54" s="27">
         <v>0</v>
       </c>
+      <c r="EX54">
+        <v>14</v>
+      </c>
+      <c r="EY54" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ54">
+        <v>4</v>
+      </c>
+      <c r="FA54">
+        <v>0</v>
+      </c>
+      <c r="FB54">
+        <v>7</v>
+      </c>
+      <c r="FC54" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD54" s="27">
+        <v>2</v>
+      </c>
+      <c r="FE54" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF54">
+        <v>2</v>
+      </c>
+      <c r="FG54" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>43904</v>
       </c>
@@ -16803,10 +17757,10 @@
         <v>22</v>
       </c>
       <c r="F55" s="13">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="G55" s="14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H55" s="16">
         <v>21157</v>
@@ -17145,10 +18099,10 @@
         <v>2</v>
       </c>
       <c r="DP55">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="DQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR55">
         <v>8</v>
@@ -17246,8 +18200,38 @@
       <c r="EW55" s="27">
         <v>0</v>
       </c>
+      <c r="EX55">
+        <v>19</v>
+      </c>
+      <c r="EY55" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ55">
+        <v>4</v>
+      </c>
+      <c r="FA55">
+        <v>0</v>
+      </c>
+      <c r="FB55">
+        <v>11</v>
+      </c>
+      <c r="FC55" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD55">
+        <v>3</v>
+      </c>
+      <c r="FE55" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF55">
+        <v>2</v>
+      </c>
+      <c r="FG55" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>43905</v>
       </c>
@@ -17264,10 +18248,10 @@
         <v>24</v>
       </c>
       <c r="F56" s="13">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="G56" s="14">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H56" s="16">
         <v>24747</v>
@@ -17606,10 +18590,10 @@
         <v>2</v>
       </c>
       <c r="DP56">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="DQ56" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR56">
         <v>8</v>
@@ -17707,8 +18691,38 @@
       <c r="EW56" s="27">
         <v>0</v>
       </c>
+      <c r="EX56">
+        <v>19</v>
+      </c>
+      <c r="EY56" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ56">
+        <v>4</v>
+      </c>
+      <c r="FA56">
+        <v>0</v>
+      </c>
+      <c r="FB56">
+        <v>16</v>
+      </c>
+      <c r="FC56" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD56">
+        <v>4</v>
+      </c>
+      <c r="FE56" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF56">
+        <v>6</v>
+      </c>
+      <c r="FG56" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>43906</v>
       </c>
@@ -17725,10 +18739,10 @@
         <v>28</v>
       </c>
       <c r="F57" s="13">
-        <v>4596</v>
+        <v>4604</v>
       </c>
       <c r="G57" s="14">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H57" s="16">
         <v>27980</v>
@@ -18067,10 +19081,10 @@
         <v>4</v>
       </c>
       <c r="DP57">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="DQ57" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR57">
         <v>8</v>
@@ -18168,8 +19182,38 @@
       <c r="EW57" s="27">
         <v>0</v>
       </c>
+      <c r="EX57">
+        <v>24</v>
+      </c>
+      <c r="EY57" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ57">
+        <v>4</v>
+      </c>
+      <c r="FA57">
+        <v>0</v>
+      </c>
+      <c r="FB57">
+        <v>21</v>
+      </c>
+      <c r="FC57" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD57">
+        <v>5</v>
+      </c>
+      <c r="FE57" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF57">
+        <v>6</v>
+      </c>
+      <c r="FG57" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>43907</v>
       </c>
@@ -18186,10 +19230,10 @@
         <v>29</v>
       </c>
       <c r="F58" s="13">
-        <v>6346</v>
+        <v>6357</v>
       </c>
       <c r="G58" s="14">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H58" s="16">
         <v>31506</v>
@@ -18528,10 +19572,10 @@
         <v>6</v>
       </c>
       <c r="DP58">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="DQ58" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR58">
         <v>20</v>
@@ -18629,8 +19673,38 @@
       <c r="EW58" s="27">
         <v>0</v>
       </c>
+      <c r="EX58">
+        <v>31</v>
+      </c>
+      <c r="EY58" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ58">
+        <v>7</v>
+      </c>
+      <c r="FA58">
+        <v>0</v>
+      </c>
+      <c r="FB58">
+        <v>22</v>
+      </c>
+      <c r="FC58" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD58">
+        <v>10</v>
+      </c>
+      <c r="FE58" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF58">
+        <v>7</v>
+      </c>
+      <c r="FG58" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>43908</v>
       </c>
@@ -18647,10 +19721,10 @@
         <v>29</v>
       </c>
       <c r="F59" s="13">
-        <v>9296</v>
+        <v>9317</v>
       </c>
       <c r="G59" s="14">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H59" s="16">
         <v>35713</v>
@@ -18989,10 +20063,10 @@
         <v>6</v>
       </c>
       <c r="DP59">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="DQ59" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR59">
         <v>20</v>
@@ -19090,8 +20164,38 @@
       <c r="EW59" s="27">
         <v>0</v>
       </c>
+      <c r="EX59">
+        <v>43</v>
+      </c>
+      <c r="EY59" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ59">
+        <v>10</v>
+      </c>
+      <c r="FA59">
+        <v>1</v>
+      </c>
+      <c r="FB59">
+        <v>22</v>
+      </c>
+      <c r="FC59" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD59">
+        <v>13</v>
+      </c>
+      <c r="FE59" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF59">
+        <v>7</v>
+      </c>
+      <c r="FG59" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>43909</v>
       </c>
@@ -19108,10 +20212,10 @@
         <v>33</v>
       </c>
       <c r="F60" s="13">
-        <v>13865</v>
+        <v>13898</v>
       </c>
       <c r="G60" s="14">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="H60" s="16">
         <v>41035</v>
@@ -19450,10 +20554,10 @@
         <v>7</v>
       </c>
       <c r="DP60">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="DQ60" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR60">
         <v>28</v>
@@ -19551,8 +20655,38 @@
       <c r="EW60" s="27">
         <v>0</v>
       </c>
+      <c r="EX60">
+        <v>50</v>
+      </c>
+      <c r="EY60" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ60">
+        <v>11</v>
+      </c>
+      <c r="FA60">
+        <v>1</v>
+      </c>
+      <c r="FB60">
+        <v>22</v>
+      </c>
+      <c r="FC60" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD60">
+        <v>13</v>
+      </c>
+      <c r="FE60" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF60">
+        <v>11</v>
+      </c>
+      <c r="FG60" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>43910</v>
       </c>
@@ -19569,10 +20703,10 @@
         <v>35</v>
       </c>
       <c r="F61" s="13">
-        <v>19497</v>
+        <v>19551</v>
       </c>
       <c r="G61" s="14">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="H61" s="16">
         <v>47021</v>
@@ -19911,10 +21045,10 @@
         <v>8</v>
       </c>
       <c r="DP61">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="DQ61" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR61">
         <v>28</v>
@@ -20012,8 +21146,38 @@
       <c r="EW61" s="27">
         <v>0</v>
       </c>
+      <c r="EX61">
+        <v>76</v>
+      </c>
+      <c r="EY61" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ61">
+        <v>21</v>
+      </c>
+      <c r="FA61">
+        <v>1</v>
+      </c>
+      <c r="FB61">
+        <v>24</v>
+      </c>
+      <c r="FC61" s="27">
+        <v>0</v>
+      </c>
+      <c r="FD61">
+        <v>27</v>
+      </c>
+      <c r="FE61" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF61">
+        <v>16</v>
+      </c>
+      <c r="FG61" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>43911</v>
       </c>
@@ -20030,10 +21194,10 @@
         <v>36</v>
       </c>
       <c r="F62" s="13">
-        <v>24345</v>
+        <v>24418</v>
       </c>
       <c r="G62" s="14">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="H62" s="16">
         <v>53578</v>
@@ -20372,10 +21536,10 @@
         <v>10</v>
       </c>
       <c r="DP62">
-        <v>383</v>
+        <v>178</v>
       </c>
       <c r="DQ62" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR62">
         <v>52</v>
@@ -20473,8 +21637,38 @@
       <c r="EW62" s="27">
         <v>0</v>
       </c>
+      <c r="EX62">
+        <v>85</v>
+      </c>
+      <c r="EY62" s="27">
+        <v>0</v>
+      </c>
+      <c r="EZ62">
+        <v>21</v>
+      </c>
+      <c r="FA62">
+        <v>1</v>
+      </c>
+      <c r="FB62">
+        <v>24</v>
+      </c>
+      <c r="FC62">
+        <v>1</v>
+      </c>
+      <c r="FD62">
+        <v>40</v>
+      </c>
+      <c r="FE62" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF62">
+        <v>21</v>
+      </c>
+      <c r="FG62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>43912</v>
       </c>
@@ -20491,10 +21685,10 @@
         <v>41</v>
       </c>
       <c r="F63" s="13">
-        <v>33745</v>
+        <v>33840</v>
       </c>
       <c r="G63" s="14">
-        <v>414</v>
+        <v>509</v>
       </c>
       <c r="H63" s="16">
         <v>59138</v>
@@ -20833,10 +22027,10 @@
         <v>14</v>
       </c>
       <c r="DP63">
-        <v>414</v>
-      </c>
-      <c r="DQ63">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="DQ63" s="27">
+        <v>0</v>
       </c>
       <c r="DR63">
         <v>102</v>
@@ -20934,8 +22128,38 @@
       <c r="EW63" s="27">
         <v>0</v>
       </c>
+      <c r="EX63">
+        <v>115</v>
+      </c>
+      <c r="EY63">
+        <v>1</v>
+      </c>
+      <c r="EZ63">
+        <v>35</v>
+      </c>
+      <c r="FA63">
+        <v>1</v>
+      </c>
+      <c r="FB63">
+        <v>40</v>
+      </c>
+      <c r="FC63">
+        <v>1</v>
+      </c>
+      <c r="FD63">
+        <v>40</v>
+      </c>
+      <c r="FE63" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF63">
+        <v>23</v>
+      </c>
+      <c r="FG63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>43913</v>
       </c>
@@ -20952,10 +22176,10 @@
         <v>42</v>
       </c>
       <c r="F64" s="13">
-        <v>44056</v>
+        <v>44189</v>
       </c>
       <c r="G64" s="14">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="H64" s="16">
         <v>63927</v>
@@ -21294,10 +22518,10 @@
         <v>19</v>
       </c>
       <c r="DP64">
-        <v>442</v>
-      </c>
-      <c r="DQ64">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="DQ64" s="27">
+        <v>0</v>
       </c>
       <c r="DR64">
         <v>102</v>
@@ -21395,8 +22619,38 @@
       <c r="EW64" s="27">
         <v>0</v>
       </c>
+      <c r="EX64">
+        <v>136</v>
+      </c>
+      <c r="EY64">
+        <v>2</v>
+      </c>
+      <c r="EZ64">
+        <v>40</v>
+      </c>
+      <c r="FA64">
+        <v>1</v>
+      </c>
+      <c r="FB64">
+        <v>40</v>
+      </c>
+      <c r="FC64">
+        <v>1</v>
+      </c>
+      <c r="FD64">
+        <v>56</v>
+      </c>
+      <c r="FE64" s="27">
+        <v>0</v>
+      </c>
+      <c r="FF64">
+        <v>27</v>
+      </c>
+      <c r="FG64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>43914</v>
       </c>
@@ -21413,10 +22667,10 @@
         <v>43</v>
       </c>
       <c r="F65" s="24">
-        <v>55222</v>
+        <v>55398</v>
       </c>
       <c r="G65" s="24">
-        <v>781</v>
+        <v>957</v>
       </c>
       <c r="H65" s="24">
         <v>69176</v>
@@ -21755,10 +23009,10 @@
         <v>20</v>
       </c>
       <c r="DP65">
-        <v>480</v>
-      </c>
-      <c r="DQ65">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="DQ65" s="27">
+        <v>0</v>
       </c>
       <c r="DR65">
         <v>205</v>
@@ -21856,8 +23110,38 @@
       <c r="EW65" s="27">
         <v>0</v>
       </c>
+      <c r="EX65">
+        <v>148</v>
+      </c>
+      <c r="EY65">
+        <v>2</v>
+      </c>
+      <c r="EZ65">
+        <v>48</v>
+      </c>
+      <c r="FA65">
+        <v>1</v>
+      </c>
+      <c r="FB65">
+        <v>74</v>
+      </c>
+      <c r="FC65">
+        <v>1</v>
+      </c>
+      <c r="FD65">
+        <v>66</v>
+      </c>
+      <c r="FE65">
+        <v>1</v>
+      </c>
+      <c r="FF65">
+        <v>53</v>
+      </c>
+      <c r="FG65">
+        <v>2</v>
+      </c>
     </row>
-    <row r="66" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>43915</v>
       </c>
@@ -21874,10 +23158,10 @@
         <v>45</v>
       </c>
       <c r="F66" s="24">
-        <v>68673</v>
+        <v>68905</v>
       </c>
       <c r="G66" s="24">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="H66" s="24">
         <v>74386</v>
@@ -22216,10 +23500,10 @@
         <v>21</v>
       </c>
       <c r="DP66">
-        <v>528</v>
-      </c>
-      <c r="DQ66">
-        <v>5</v>
+        <v>216</v>
+      </c>
+      <c r="DQ66" s="27">
+        <v>0</v>
       </c>
       <c r="DR66">
         <v>283</v>
@@ -22317,8 +23601,38 @@
       <c r="EW66" s="27">
         <v>0</v>
       </c>
+      <c r="EX66">
+        <v>177</v>
+      </c>
+      <c r="EY66">
+        <v>3</v>
+      </c>
+      <c r="EZ66">
+        <v>57</v>
+      </c>
+      <c r="FA66">
+        <v>1</v>
+      </c>
+      <c r="FB66">
+        <v>84</v>
+      </c>
+      <c r="FC66">
+        <v>2</v>
+      </c>
+      <c r="FD66">
+        <v>75</v>
+      </c>
+      <c r="FE66">
+        <v>1</v>
+      </c>
+      <c r="FF66">
+        <v>68</v>
+      </c>
+      <c r="FG66">
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>43916</v>
       </c>
@@ -22335,10 +23649,10 @@
         <v>47</v>
       </c>
       <c r="F67" s="24">
-        <v>86061</v>
+        <v>86379</v>
       </c>
       <c r="G67" s="24">
-        <v>1296</v>
+        <v>1614</v>
       </c>
       <c r="H67" s="24">
         <v>80589</v>
@@ -22677,10 +23991,10 @@
         <v>24</v>
       </c>
       <c r="DP67">
-        <v>562</v>
-      </c>
-      <c r="DQ67">
-        <v>6</v>
+        <v>226</v>
+      </c>
+      <c r="DQ67" s="27">
+        <v>0</v>
       </c>
       <c r="DR67">
         <v>368</v>
@@ -22778,8 +24092,38 @@
       <c r="EW67" s="27">
         <v>0</v>
       </c>
+      <c r="EX67">
+        <v>201</v>
+      </c>
+      <c r="EY67">
+        <v>3</v>
+      </c>
+      <c r="EZ67">
+        <v>67</v>
+      </c>
+      <c r="FA67">
+        <v>2</v>
+      </c>
+      <c r="FB67">
+        <v>94</v>
+      </c>
+      <c r="FC67">
+        <v>4</v>
+      </c>
+      <c r="FD67">
+        <v>75</v>
+      </c>
+      <c r="FE67">
+        <v>1</v>
+      </c>
+      <c r="FF67">
+        <v>132</v>
+      </c>
+      <c r="FG67">
+        <v>4</v>
+      </c>
     </row>
-    <row r="68" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>43917</v>
       </c>
@@ -22796,10 +24140,10 @@
         <v>49</v>
       </c>
       <c r="F68" s="24">
-        <v>104804</v>
+        <v>105217</v>
       </c>
       <c r="G68" s="24">
-        <v>1697</v>
+        <v>2110</v>
       </c>
       <c r="H68" s="24">
         <v>86498</v>
@@ -23138,10 +24482,10 @@
         <v>30</v>
       </c>
       <c r="DP68">
-        <v>632</v>
-      </c>
-      <c r="DQ68">
-        <v>9</v>
+        <v>269</v>
+      </c>
+      <c r="DQ68" s="27">
+        <v>0</v>
       </c>
       <c r="DR68">
         <v>368</v>
@@ -23239,8 +24583,38 @@
       <c r="EW68" s="27">
         <v>0</v>
       </c>
+      <c r="EX68">
+        <v>219</v>
+      </c>
+      <c r="EY68">
+        <v>3</v>
+      </c>
+      <c r="EZ68">
+        <v>80</v>
+      </c>
+      <c r="FA68">
+        <v>2</v>
+      </c>
+      <c r="FB68">
+        <v>110</v>
+      </c>
+      <c r="FC68">
+        <v>4</v>
+      </c>
+      <c r="FD68">
+        <v>91</v>
+      </c>
+      <c r="FE68">
+        <v>2</v>
+      </c>
+      <c r="FF68">
+        <v>137</v>
+      </c>
+      <c r="FG68">
+        <v>4</v>
+      </c>
     </row>
-    <row r="69" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>43918</v>
       </c>
@@ -23257,10 +24631,10 @@
         <v>52</v>
       </c>
       <c r="F69" s="24">
-        <v>124256</v>
+        <v>124788</v>
       </c>
       <c r="G69" s="24">
-        <v>2222</v>
+        <v>2754</v>
       </c>
       <c r="H69" s="24">
         <v>92472</v>
@@ -23599,10 +24973,10 @@
         <v>36</v>
       </c>
       <c r="DP69">
-        <v>684</v>
-      </c>
-      <c r="DQ69">
-        <v>9</v>
+        <v>292</v>
+      </c>
+      <c r="DQ69" s="27">
+        <v>0</v>
       </c>
       <c r="DR69">
         <v>514</v>
@@ -23700,8 +25074,38 @@
       <c r="EW69" s="27">
         <v>0</v>
       </c>
+      <c r="EX69">
+        <v>241</v>
+      </c>
+      <c r="EY69">
+        <v>4</v>
+      </c>
+      <c r="EZ69">
+        <v>119</v>
+      </c>
+      <c r="FA69">
+        <v>3</v>
+      </c>
+      <c r="FB69">
+        <v>110</v>
+      </c>
+      <c r="FC69">
+        <v>4</v>
+      </c>
+      <c r="FD69">
+        <v>91</v>
+      </c>
+      <c r="FE69">
+        <v>2</v>
+      </c>
+      <c r="FF69">
+        <v>141</v>
+      </c>
+      <c r="FG69">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>43919</v>
       </c>
@@ -23718,10 +25122,10 @@
         <v>54</v>
       </c>
       <c r="F70" s="24">
-        <v>144321</v>
+        <v>144980</v>
       </c>
       <c r="G70" s="24">
-        <v>2592</v>
+        <v>3251</v>
       </c>
       <c r="H70" s="24">
         <v>97689</v>
@@ -24060,10 +25464,10 @@
         <v>40</v>
       </c>
       <c r="DP70">
-        <v>730</v>
-      </c>
-      <c r="DQ70">
-        <v>11</v>
+        <v>314</v>
+      </c>
+      <c r="DQ70" s="27">
+        <v>0</v>
       </c>
       <c r="DR70">
         <v>514</v>
@@ -24161,8 +25565,38 @@
       <c r="EW70" s="27">
         <v>0</v>
       </c>
+      <c r="EX70">
+        <v>259</v>
+      </c>
+      <c r="EY70">
+        <v>6</v>
+      </c>
+      <c r="EZ70">
+        <v>139</v>
+      </c>
+      <c r="FA70">
+        <v>3</v>
+      </c>
+      <c r="FB70">
+        <v>120</v>
+      </c>
+      <c r="FC70">
+        <v>4</v>
+      </c>
+      <c r="FD70">
+        <v>139</v>
+      </c>
+      <c r="FE70">
+        <v>6</v>
+      </c>
+      <c r="FF70">
+        <v>152</v>
+      </c>
+      <c r="FG70">
+        <v>5</v>
+      </c>
     </row>
-    <row r="71" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>43920</v>
       </c>
@@ -24179,10 +25613,10 @@
         <v>56</v>
       </c>
       <c r="F71" s="24">
-        <v>165053</v>
+        <v>165851</v>
       </c>
       <c r="G71" s="24">
-        <v>3150</v>
+        <v>3948</v>
       </c>
       <c r="H71" s="24">
         <v>101739</v>
@@ -24521,10 +25955,10 @@
         <v>41</v>
       </c>
       <c r="DP71">
-        <v>756</v>
-      </c>
-      <c r="DQ71">
-        <v>11</v>
+        <v>336</v>
+      </c>
+      <c r="DQ71" s="27">
+        <v>0</v>
       </c>
       <c r="DR71">
         <v>589</v>
@@ -24622,8 +26056,38 @@
       <c r="EW71" s="27">
         <v>0</v>
       </c>
+      <c r="EX71">
+        <v>285</v>
+      </c>
+      <c r="EY71">
+        <v>7</v>
+      </c>
+      <c r="EZ71">
+        <v>170</v>
+      </c>
+      <c r="FA71">
+        <v>4</v>
+      </c>
+      <c r="FB71">
+        <v>170</v>
+      </c>
+      <c r="FC71">
+        <v>4</v>
+      </c>
+      <c r="FD71">
+        <v>139</v>
+      </c>
+      <c r="FE71">
+        <v>6</v>
+      </c>
+      <c r="FF71">
+        <v>152</v>
+      </c>
+      <c r="FG71">
+        <v>5</v>
+      </c>
     </row>
-    <row r="72" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>43921</v>
       </c>
@@ -24640,10 +26104,10 @@
         <v>57</v>
       </c>
       <c r="F72" s="24">
-        <v>189967</v>
+        <v>190930</v>
       </c>
       <c r="G72" s="24">
-        <v>4064</v>
+        <v>5027</v>
       </c>
       <c r="H72" s="24">
         <v>105792</v>
@@ -24982,10 +26446,10 @@
         <v>46</v>
       </c>
       <c r="DP72">
-        <v>802</v>
-      </c>
-      <c r="DQ72">
-        <v>15</v>
+        <v>363</v>
+      </c>
+      <c r="DQ72" s="27">
+        <v>0</v>
       </c>
       <c r="DR72">
         <v>647</v>
@@ -25083,8 +26547,38 @@
       <c r="EW72" s="27">
         <v>1</v>
       </c>
+      <c r="EX72">
+        <v>329</v>
+      </c>
+      <c r="EY72">
+        <v>9</v>
+      </c>
+      <c r="EZ72">
+        <v>186</v>
+      </c>
+      <c r="FA72">
+        <v>6</v>
+      </c>
+      <c r="FB72">
+        <v>174</v>
+      </c>
+      <c r="FC72">
+        <v>4</v>
+      </c>
+      <c r="FD72">
+        <v>193</v>
+      </c>
+      <c r="FE72">
+        <v>6</v>
+      </c>
+      <c r="FF72">
+        <v>161</v>
+      </c>
+      <c r="FG72">
+        <v>5</v>
+      </c>
     </row>
-    <row r="73" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>43922</v>
       </c>
@@ -25101,10 +26595,10 @@
         <v>57</v>
       </c>
       <c r="F73" s="24">
-        <v>216622</v>
+        <v>217771</v>
       </c>
       <c r="G73" s="24">
-        <v>5114</v>
+        <v>6263</v>
       </c>
       <c r="H73" s="24">
         <v>110574</v>
@@ -25443,10 +26937,10 @@
         <v>52</v>
       </c>
       <c r="DP73">
-        <v>841</v>
+        <v>400</v>
       </c>
       <c r="DQ73">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DR73" s="29">
         <v>708</v>
@@ -25544,8 +27038,38 @@
       <c r="EW73" s="31">
         <v>1</v>
       </c>
+      <c r="EX73" s="31">
+        <v>354</v>
+      </c>
+      <c r="EY73" s="31">
+        <v>11</v>
+      </c>
+      <c r="EZ73" s="31">
+        <v>212</v>
+      </c>
+      <c r="FA73" s="31">
+        <v>6</v>
+      </c>
+      <c r="FB73" s="31">
+        <v>237</v>
+      </c>
+      <c r="FC73" s="31">
+        <v>4</v>
+      </c>
+      <c r="FD73" s="31">
+        <v>233</v>
+      </c>
+      <c r="FE73" s="31">
+        <v>6</v>
+      </c>
+      <c r="FF73" s="31">
+        <v>195</v>
+      </c>
+      <c r="FG73" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="74" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A74" s="28">
         <v>43923</v>
       </c>
@@ -25562,10 +27086,10 @@
         <v>63</v>
       </c>
       <c r="F74" s="24">
-        <v>246729</v>
+        <v>248079</v>
       </c>
       <c r="G74" s="24">
-        <v>6088</v>
+        <v>7438</v>
       </c>
       <c r="H74" s="24">
         <v>115242</v>
@@ -25904,10 +27428,10 @@
         <v>58</v>
       </c>
       <c r="DP74">
-        <v>897</v>
+        <v>426</v>
       </c>
       <c r="DQ74">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="DR74" s="29">
         <v>797</v>
@@ -26005,8 +27529,38 @@
       <c r="EW74" s="31">
         <v>1</v>
       </c>
+      <c r="EX74" s="31">
+        <v>384</v>
+      </c>
+      <c r="EY74" s="31">
+        <v>11</v>
+      </c>
+      <c r="EZ74" s="31">
+        <v>233</v>
+      </c>
+      <c r="FA74" s="31">
+        <v>6</v>
+      </c>
+      <c r="FB74" s="31">
+        <v>273</v>
+      </c>
+      <c r="FC74" s="31">
+        <v>6</v>
+      </c>
+      <c r="FD74" s="31">
+        <v>306</v>
+      </c>
+      <c r="FE74" s="31">
+        <v>7</v>
+      </c>
+      <c r="FF74" s="31">
+        <v>204</v>
+      </c>
+      <c r="FG74" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="75" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A75" s="28">
         <v>43924</v>
       </c>
@@ -26023,10 +27577,10 @@
         <v>69</v>
       </c>
       <c r="F75" s="24">
-        <v>279183</v>
+        <v>280738</v>
       </c>
       <c r="G75" s="24">
-        <v>7139</v>
+        <v>8694</v>
       </c>
       <c r="H75">
         <v>119827</v>
@@ -26053,7 +27607,7 @@
         <v>1275</v>
       </c>
       <c r="P75" s="23">
-        <v>82165</v>
+        <v>76460</v>
       </c>
       <c r="Q75" s="23">
         <v>6507</v>
@@ -26365,10 +27919,10 @@
         <v>66</v>
       </c>
       <c r="DP75">
-        <v>934</v>
+        <v>450</v>
       </c>
       <c r="DQ75">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="DR75" s="29">
         <v>868</v>
@@ -26466,8 +28020,38 @@
       <c r="EW75" s="31">
         <v>1</v>
       </c>
+      <c r="EX75" s="31">
+        <v>430</v>
+      </c>
+      <c r="EY75" s="31">
+        <v>12</v>
+      </c>
+      <c r="EZ75" s="31">
+        <v>269</v>
+      </c>
+      <c r="FA75" s="31">
+        <v>6</v>
+      </c>
+      <c r="FB75" s="31">
+        <v>281</v>
+      </c>
+      <c r="FC75" s="31">
+        <v>6</v>
+      </c>
+      <c r="FD75" s="31">
+        <v>509</v>
+      </c>
+      <c r="FE75" s="31">
+        <v>8</v>
+      </c>
+      <c r="FF75" s="31">
+        <v>205</v>
+      </c>
+      <c r="FG75" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="76" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A76" s="28">
         <v>43925</v>
       </c>
@@ -26484,10 +28068,10 @@
         <v>77</v>
       </c>
       <c r="F76" s="24">
-        <v>313379</v>
+        <v>315141</v>
       </c>
       <c r="G76">
-        <v>8469</v>
+        <v>10231</v>
       </c>
       <c r="H76">
         <v>124632</v>
@@ -26514,7 +28098,7 @@
         <v>1444</v>
       </c>
       <c r="P76" s="23">
-        <v>89953</v>
+        <v>83019</v>
       </c>
       <c r="Q76" s="23">
         <v>7560</v>
@@ -26826,10 +28410,10 @@
         <v>71</v>
       </c>
       <c r="DP76" s="31">
-        <v>977</v>
+        <v>471</v>
       </c>
       <c r="DQ76" s="31">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="DR76" s="29">
         <v>950</v>
@@ -26927,8 +28511,38 @@
       <c r="EW76" s="31">
         <v>2</v>
       </c>
+      <c r="EX76" s="31">
+        <v>483</v>
+      </c>
+      <c r="EY76" s="31">
+        <v>17</v>
+      </c>
+      <c r="EZ76" s="31">
+        <v>288</v>
+      </c>
+      <c r="FA76" s="31">
+        <v>6</v>
+      </c>
+      <c r="FB76" s="31">
+        <v>309</v>
+      </c>
+      <c r="FC76" s="31">
+        <v>7</v>
+      </c>
+      <c r="FD76" s="31">
+        <v>555</v>
+      </c>
+      <c r="FE76" s="31">
+        <v>9</v>
+      </c>
+      <c r="FF76" s="31">
+        <v>205</v>
+      </c>
+      <c r="FG76" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A77" s="28">
         <v>43926</v>
       </c>
@@ -26945,10 +28559,10 @@
         <v>85</v>
       </c>
       <c r="F77" s="24">
-        <v>338779</v>
+        <v>340775</v>
       </c>
       <c r="G77">
-        <v>9636</v>
+        <v>11632</v>
       </c>
       <c r="H77">
         <v>128948</v>
@@ -26975,7 +28589,7 @@
         <v>1584</v>
       </c>
       <c r="P77" s="23">
-        <v>92839</v>
+        <v>87719</v>
       </c>
       <c r="Q77" s="23">
         <v>8078</v>
@@ -27287,10 +28901,10 @@
         <v>78</v>
       </c>
       <c r="DP77" s="31">
-        <v>997</v>
+        <v>485</v>
       </c>
       <c r="DQ77" s="31">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="DR77" s="29">
         <v>1039</v>
@@ -27388,8 +29002,38 @@
       <c r="EW77" s="31">
         <v>2</v>
       </c>
+      <c r="EX77" s="31">
+        <v>555</v>
+      </c>
+      <c r="EY77" s="31">
+        <v>18</v>
+      </c>
+      <c r="EZ77" s="31">
+        <v>320</v>
+      </c>
+      <c r="FA77" s="31">
+        <v>8</v>
+      </c>
+      <c r="FB77" s="31">
+        <v>349</v>
+      </c>
+      <c r="FC77" s="31">
+        <v>7</v>
+      </c>
+      <c r="FD77" s="31">
+        <v>650</v>
+      </c>
+      <c r="FE77" s="31">
+        <v>9</v>
+      </c>
+      <c r="FF77" s="31">
+        <v>214</v>
+      </c>
+      <c r="FG77" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="78" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A78" s="28">
         <v>43927</v>
       </c>
@@ -27406,10 +29050,10 @@
         <v>92</v>
       </c>
       <c r="F78" s="24">
-        <v>370019</v>
+        <v>372252</v>
       </c>
       <c r="G78">
-        <v>10895</v>
+        <v>13128</v>
       </c>
       <c r="H78">
         <v>132547</v>
@@ -27436,7 +29080,7 @@
         <v>1810</v>
       </c>
       <c r="P78" s="23">
-        <v>98010</v>
+        <v>90452</v>
       </c>
       <c r="Q78" s="23">
         <v>8911</v>
@@ -27748,10 +29392,10 @@
         <v>85</v>
       </c>
       <c r="DP78" s="31">
-        <v>1021</v>
+        <v>534</v>
       </c>
       <c r="DQ78" s="31">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="DR78" s="29">
         <v>1106</v>
@@ -27849,8 +29493,38 @@
       <c r="EW78" s="31">
         <v>2</v>
       </c>
+      <c r="EX78" s="31">
+        <v>570</v>
+      </c>
+      <c r="EY78" s="31">
+        <v>23</v>
+      </c>
+      <c r="EZ78" s="31">
+        <v>350</v>
+      </c>
+      <c r="FA78" s="31">
+        <v>9</v>
+      </c>
+      <c r="FB78" s="31">
+        <v>367</v>
+      </c>
+      <c r="FC78" s="31">
+        <v>11</v>
+      </c>
+      <c r="FD78" s="31">
+        <v>658</v>
+      </c>
+      <c r="FE78" s="31">
+        <v>9</v>
+      </c>
+      <c r="FF78" s="31">
+        <v>214</v>
+      </c>
+      <c r="FG78" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="79" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A79" s="28">
         <v>43928</v>
       </c>
@@ -27867,10 +29541,10 @@
         <v>93</v>
       </c>
       <c r="F79" s="24">
-        <v>403521</v>
+        <v>406000</v>
       </c>
       <c r="G79">
-        <v>12868</v>
+        <v>15347</v>
       </c>
       <c r="H79">
         <v>135586</v>
@@ -27897,7 +29571,7 @@
         <v>2016</v>
       </c>
       <c r="P79" s="23">
-        <v>109069</v>
+        <v>99180</v>
       </c>
       <c r="Q79" s="23">
         <v>10328</v>
@@ -28209,10 +29883,10 @@
         <v>94</v>
       </c>
       <c r="DP79" s="31">
-        <v>1059</v>
+        <v>581</v>
       </c>
       <c r="DQ79" s="31">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="DR79" s="29">
         <v>1160</v>
@@ -28310,8 +29984,38 @@
       <c r="EW79" s="31">
         <v>2</v>
       </c>
+      <c r="EX79" s="31">
+        <v>599</v>
+      </c>
+      <c r="EY79" s="31">
+        <v>26</v>
+      </c>
+      <c r="EZ79" s="31">
+        <v>396</v>
+      </c>
+      <c r="FA79" s="31">
+        <v>11</v>
+      </c>
+      <c r="FB79" s="31">
+        <v>423</v>
+      </c>
+      <c r="FC79" s="31">
+        <v>14</v>
+      </c>
+      <c r="FD79" s="31">
+        <v>685</v>
+      </c>
+      <c r="FE79" s="31">
+        <v>9</v>
+      </c>
+      <c r="FF79" s="31">
+        <v>287</v>
+      </c>
+      <c r="FG79" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="80" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A80" s="28">
         <v>43929</v>
       </c>
@@ -28328,10 +30032,10 @@
         <v>94</v>
       </c>
       <c r="F80" s="24">
-        <v>435518</v>
+        <v>438210</v>
       </c>
       <c r="G80" s="24">
-        <v>14811</v>
+        <v>17503</v>
       </c>
       <c r="H80" s="24">
         <v>139422</v>
@@ -28358,7 +30062,7 @@
         <v>2349</v>
       </c>
       <c r="P80" s="23">
-        <v>112950</v>
+        <v>103061</v>
       </c>
       <c r="Q80" s="23">
         <v>10869</v>
@@ -28670,10 +30374,10 @@
         <v>103</v>
       </c>
       <c r="DP80" s="31">
-        <v>1091</v>
+        <v>682</v>
       </c>
       <c r="DQ80" s="31">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="DR80" s="31">
         <v>1210</v>
@@ -28771,8 +30475,38 @@
       <c r="EW80" s="31">
         <v>2</v>
       </c>
+      <c r="EX80" s="31">
+        <v>617</v>
+      </c>
+      <c r="EY80" s="31">
+        <v>29</v>
+      </c>
+      <c r="EZ80" s="31">
+        <v>457</v>
+      </c>
+      <c r="FA80" s="31">
+        <v>12</v>
+      </c>
+      <c r="FB80" s="31">
+        <v>444</v>
+      </c>
+      <c r="FC80" s="31">
+        <v>14</v>
+      </c>
+      <c r="FD80" s="31">
+        <v>730</v>
+      </c>
+      <c r="FE80" s="31">
+        <v>10</v>
+      </c>
+      <c r="FF80" s="31">
+        <v>313</v>
+      </c>
+      <c r="FG80" s="31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A81" s="28">
         <v>43930</v>
       </c>
@@ -28789,10 +30523,10 @@
         <v>99</v>
       </c>
       <c r="F81" s="24">
-        <v>469124</v>
+        <v>472016</v>
       </c>
       <c r="G81" s="24">
-        <v>16712</v>
+        <v>19604</v>
       </c>
       <c r="H81" s="24">
         <v>143626</v>
@@ -28819,7 +30553,7 @@
         <v>2607</v>
       </c>
       <c r="P81" s="23">
-        <v>117749</v>
+        <v>107696</v>
       </c>
       <c r="Q81" s="23">
         <v>12210</v>
@@ -29131,10 +30865,10 @@
         <v>118</v>
       </c>
       <c r="DP81" s="31">
-        <v>1124</v>
+        <v>701</v>
       </c>
       <c r="DQ81" s="31">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="DR81" s="31">
         <v>1239</v>
@@ -29232,8 +30966,38 @@
       <c r="EW81" s="31">
         <v>3</v>
       </c>
+      <c r="EX81" s="31">
+        <v>663</v>
+      </c>
+      <c r="EY81" s="31">
+        <v>30</v>
+      </c>
+      <c r="EZ81" s="31">
+        <v>515</v>
+      </c>
+      <c r="FA81" s="31">
+        <v>15</v>
+      </c>
+      <c r="FB81" s="31">
+        <v>484</v>
+      </c>
+      <c r="FC81" s="31">
+        <v>15</v>
+      </c>
+      <c r="FD81" s="31">
+        <v>803</v>
+      </c>
+      <c r="FE81" s="31">
+        <v>12</v>
+      </c>
+      <c r="FF81" s="31">
+        <v>378</v>
+      </c>
+      <c r="FG81" s="31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="82" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A82" s="28">
         <v>43931</v>
       </c>
@@ -29250,10 +31014,10 @@
         <v>99</v>
       </c>
       <c r="F82" s="24">
-        <v>502876</v>
+        <v>505959</v>
       </c>
       <c r="G82" s="24">
-        <v>18747</v>
+        <v>21830</v>
       </c>
       <c r="H82" s="24">
         <v>147577</v>
@@ -29280,7 +31044,7 @@
         <v>2736</v>
       </c>
       <c r="P82" s="23">
-        <v>124869</v>
+        <v>113927</v>
       </c>
       <c r="Q82" s="23">
         <v>13197</v>
@@ -29592,10 +31356,10 @@
         <v>135</v>
       </c>
       <c r="DP82" s="31">
-        <v>1160</v>
+        <v>715</v>
       </c>
       <c r="DQ82" s="31">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="DR82" s="31">
         <v>1283</v>
@@ -29693,8 +31457,38 @@
       <c r="EW82" s="31">
         <v>3</v>
       </c>
+      <c r="EX82" s="31">
+        <v>711</v>
+      </c>
+      <c r="EY82" s="31">
+        <v>32</v>
+      </c>
+      <c r="EZ82" s="31">
+        <v>564</v>
+      </c>
+      <c r="FA82" s="31">
+        <v>15</v>
+      </c>
+      <c r="FB82" s="31">
+        <v>521</v>
+      </c>
+      <c r="FC82" s="31">
+        <v>15</v>
+      </c>
+      <c r="FD82" s="31">
+        <v>820</v>
+      </c>
+      <c r="FE82" s="31">
+        <v>12</v>
+      </c>
+      <c r="FF82" s="31">
+        <v>378</v>
+      </c>
+      <c r="FG82" s="31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="83" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A83" s="28">
         <v>43932</v>
       </c>
@@ -29711,10 +31505,10 @@
         <v>108</v>
       </c>
       <c r="F83" s="24">
-        <v>532879</v>
+        <v>536145</v>
       </c>
       <c r="G83" s="24">
-        <v>20577</v>
+        <v>23843</v>
       </c>
       <c r="H83" s="24">
         <v>152271</v>
@@ -29741,7 +31535,7 @@
         <v>2871</v>
       </c>
       <c r="P83" s="23">
-        <v>129654</v>
+        <v>118178</v>
       </c>
       <c r="Q83" s="23">
         <v>13832</v>
@@ -30053,10 +31847,10 @@
         <v>146</v>
       </c>
       <c r="DP83" s="31">
-        <v>1188</v>
+        <v>728</v>
       </c>
       <c r="DQ83" s="31">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="DR83" s="31">
         <v>1312</v>
@@ -30154,8 +31948,38 @@
       <c r="EW83" s="31">
         <v>3</v>
       </c>
+      <c r="EX83" s="31">
+        <v>760</v>
+      </c>
+      <c r="EY83" s="31">
+        <v>34</v>
+      </c>
+      <c r="EZ83" s="31">
+        <v>620</v>
+      </c>
+      <c r="FA83" s="31">
+        <v>16</v>
+      </c>
+      <c r="FB83" s="31">
+        <v>555</v>
+      </c>
+      <c r="FC83" s="31">
+        <v>18</v>
+      </c>
+      <c r="FD83" s="31">
+        <v>820</v>
+      </c>
+      <c r="FE83" s="31">
+        <v>12</v>
+      </c>
+      <c r="FF83" s="31">
+        <v>408</v>
+      </c>
+      <c r="FG83" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="84" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A84" s="28">
         <v>43933</v>
       </c>
@@ -30172,10 +31996,10 @@
         <v>123</v>
       </c>
       <c r="F84" s="24">
-        <v>560300</v>
+        <v>563753</v>
       </c>
       <c r="G84" s="24">
-        <v>22105</v>
+        <v>25558</v>
       </c>
       <c r="H84" s="24">
         <v>156363</v>
@@ -30202,7 +32026,7 @@
         <v>3022</v>
       </c>
       <c r="P84" s="23">
-        <v>132591</v>
+        <v>120633</v>
       </c>
       <c r="Q84" s="23">
         <v>14393</v>
@@ -30514,10 +32338,10 @@
         <v>159</v>
       </c>
       <c r="DP84" s="31">
-        <v>1205</v>
+        <v>742</v>
       </c>
       <c r="DQ84" s="31">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="DR84" s="31">
         <v>1330</v>
@@ -30615,8 +32439,38 @@
       <c r="EW84" s="31">
         <v>4</v>
       </c>
+      <c r="EX84" s="31">
+        <v>828</v>
+      </c>
+      <c r="EY84" s="31">
+        <v>34</v>
+      </c>
+      <c r="EZ84" s="31">
+        <v>669</v>
+      </c>
+      <c r="FA84" s="31">
+        <v>18</v>
+      </c>
+      <c r="FB84" s="31">
+        <v>607</v>
+      </c>
+      <c r="FC84" s="31">
+        <v>18</v>
+      </c>
+      <c r="FD84" s="31">
+        <v>820</v>
+      </c>
+      <c r="FE84" s="31">
+        <v>12</v>
+      </c>
+      <c r="FF84" s="31">
+        <v>566</v>
+      </c>
+      <c r="FG84" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="85" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
         <v>43934</v>
       </c>
@@ -30633,10 +32487,10 @@
         <v>143</v>
       </c>
       <c r="F85" s="24">
-        <v>586941</v>
+        <v>590573</v>
       </c>
       <c r="G85" s="24">
-        <v>23640</v>
+        <v>27272</v>
       </c>
       <c r="H85" s="24">
         <v>159516</v>
@@ -30663,7 +32517,7 @@
         <v>3194</v>
       </c>
       <c r="P85" s="23">
-        <v>136779</v>
+        <v>124298</v>
       </c>
       <c r="Q85" s="23">
         <v>14967</v>
@@ -30975,10 +32829,10 @@
         <v>164</v>
       </c>
       <c r="DP85" s="31">
-        <v>1212</v>
+        <v>769</v>
       </c>
       <c r="DQ85" s="31">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="DR85" s="31">
         <v>1349</v>
@@ -31076,8 +32930,38 @@
       <c r="EW85" s="31">
         <v>4</v>
       </c>
+      <c r="EX85" s="31">
+        <v>854</v>
+      </c>
+      <c r="EY85" s="31">
+        <v>38</v>
+      </c>
+      <c r="EZ85" s="31">
+        <v>726</v>
+      </c>
+      <c r="FA85" s="31">
+        <v>21</v>
+      </c>
+      <c r="FB85" s="31">
+        <v>665</v>
+      </c>
+      <c r="FC85" s="31">
+        <v>21</v>
+      </c>
+      <c r="FD85" s="31">
+        <v>848</v>
+      </c>
+      <c r="FE85" s="31">
+        <v>12</v>
+      </c>
+      <c r="FF85" s="31">
+        <v>566</v>
+      </c>
+      <c r="FG85" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
         <v>43935</v>
       </c>
@@ -31094,10 +32978,10 @@
         <v>146</v>
       </c>
       <c r="F86">
-        <v>613883</v>
+        <v>617661</v>
       </c>
       <c r="G86" s="24">
-        <v>26047</v>
+        <v>29825</v>
       </c>
       <c r="H86" s="24">
         <v>162488</v>
@@ -31124,7 +33008,7 @@
         <v>3495</v>
       </c>
       <c r="P86" s="23">
-        <v>143303</v>
+        <v>130253</v>
       </c>
       <c r="Q86" s="23">
         <v>15729</v>
@@ -31436,10 +33320,10 @@
         <v>178</v>
       </c>
       <c r="DP86" s="31">
-        <v>1220</v>
+        <v>835</v>
       </c>
       <c r="DQ86" s="31">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="DR86" s="31">
         <v>1366</v>
@@ -31537,8 +33421,38 @@
       <c r="EW86" s="31">
         <v>4</v>
       </c>
+      <c r="EX86" s="31">
+        <v>908</v>
+      </c>
+      <c r="EY86" s="31">
+        <v>44</v>
+      </c>
+      <c r="EZ86" s="31">
+        <v>766</v>
+      </c>
+      <c r="FA86" s="31">
+        <v>21</v>
+      </c>
+      <c r="FB86" s="31">
+        <v>714</v>
+      </c>
+      <c r="FC86" s="31">
+        <v>23</v>
+      </c>
+      <c r="FD86" s="31">
+        <v>848</v>
+      </c>
+      <c r="FE86" s="31">
+        <v>14</v>
+      </c>
+      <c r="FF86" s="31">
+        <v>636</v>
+      </c>
+      <c r="FG86" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="87" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>43936</v>
       </c>
@@ -31555,10 +33469,10 @@
         <v>178</v>
       </c>
       <c r="F87">
-        <v>644089</v>
+        <v>648003</v>
       </c>
       <c r="G87" s="24">
-        <v>28529</v>
+        <v>32443</v>
       </c>
       <c r="H87" s="24">
         <v>165155</v>
@@ -31585,7 +33499,7 @@
         <v>3804</v>
       </c>
       <c r="P87" s="23">
-        <v>147863</v>
+        <v>133644</v>
       </c>
       <c r="Q87" s="23">
         <v>17167</v>
@@ -31897,10 +33811,10 @@
         <v>183</v>
       </c>
       <c r="DP87" s="31">
-        <v>1248</v>
+        <v>863</v>
       </c>
       <c r="DQ87" s="31">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="DR87" s="31">
         <v>1386</v>
@@ -31998,67 +33912,3475 @@
       <c r="EW87" s="31">
         <v>4</v>
       </c>
+      <c r="EX87" s="31">
+        <v>974</v>
+      </c>
+      <c r="EY87" s="31">
+        <v>45</v>
+      </c>
+      <c r="EZ87" s="31">
+        <v>814</v>
+      </c>
+      <c r="FA87" s="31">
+        <v>24</v>
+      </c>
+      <c r="FB87" s="31">
+        <v>784</v>
+      </c>
+      <c r="FC87" s="31">
+        <v>25</v>
+      </c>
+      <c r="FD87" s="31">
+        <v>848</v>
+      </c>
+      <c r="FE87" s="31">
+        <v>17</v>
+      </c>
+      <c r="FF87" s="31">
+        <v>641</v>
+      </c>
+      <c r="FG87" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="88" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A88" s="28">
         <v>43937</v>
       </c>
-      <c r="AD88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AP88" s="24"/>
-      <c r="AX88" s="31"/>
-      <c r="BP88" s="31"/>
-      <c r="BR88" s="31"/>
+      <c r="B88" s="23">
+        <v>10613</v>
+      </c>
+      <c r="C88" s="23">
+        <v>229</v>
+      </c>
+      <c r="D88" s="23">
+        <v>9231</v>
+      </c>
+      <c r="E88" s="23">
+        <v>190</v>
+      </c>
+      <c r="F88">
+        <v>677570</v>
+      </c>
+      <c r="G88" s="24">
+        <v>34619</v>
+      </c>
+      <c r="H88" s="24">
+        <v>168941</v>
+      </c>
+      <c r="I88" s="24">
+        <v>22170</v>
+      </c>
+      <c r="J88" s="24">
+        <v>184948</v>
+      </c>
+      <c r="K88" s="24">
+        <v>19130</v>
+      </c>
+      <c r="L88">
+        <v>82367</v>
+      </c>
+      <c r="M88">
+        <v>3342</v>
+      </c>
+      <c r="N88" s="24">
+        <v>137698</v>
+      </c>
+      <c r="O88" s="24">
+        <v>4052</v>
+      </c>
+      <c r="P88" s="24">
+        <v>146060</v>
+      </c>
+      <c r="Q88" s="24">
+        <v>17920</v>
+      </c>
+      <c r="R88" s="23">
+        <v>77995</v>
+      </c>
+      <c r="S88" s="23">
+        <v>4869</v>
+      </c>
+      <c r="T88" s="23">
+        <v>103093</v>
+      </c>
+      <c r="U88" s="24">
+        <v>13729</v>
+      </c>
+      <c r="V88" s="24">
+        <v>26732</v>
+      </c>
+      <c r="W88" s="24">
+        <v>1281</v>
+      </c>
+      <c r="X88" s="24">
+        <v>74193</v>
+      </c>
+      <c r="Y88" s="24">
+        <v>1643</v>
+      </c>
+      <c r="Z88" s="24">
+        <v>34809</v>
+      </c>
+      <c r="AA88" s="24">
+        <v>4857</v>
+      </c>
+      <c r="AB88" s="24">
+        <v>29214</v>
+      </c>
+      <c r="AC88" s="24">
+        <v>3315</v>
+      </c>
+      <c r="AD88" s="24">
+        <v>14476</v>
+      </c>
+      <c r="AE88" s="24">
+        <v>410</v>
+      </c>
+      <c r="AF88" s="24">
+        <v>30106</v>
+      </c>
+      <c r="AG88" s="24">
+        <v>1195</v>
+      </c>
+      <c r="AH88" s="24">
+        <v>18841</v>
+      </c>
+      <c r="AI88" s="24">
+        <v>629</v>
+      </c>
+      <c r="AJ88" s="24">
+        <v>30683</v>
+      </c>
+      <c r="AK88" s="24">
+        <v>1947</v>
+      </c>
+      <c r="AL88" s="31">
+        <v>12758</v>
+      </c>
+      <c r="AM88" s="31">
+        <v>142</v>
+      </c>
+      <c r="AN88" s="31">
+        <v>6468</v>
+      </c>
+      <c r="AO88" s="31">
+        <v>63</v>
+      </c>
+      <c r="AP88" s="30">
+        <v>6905</v>
+      </c>
+      <c r="AQ88" s="31">
+        <v>152</v>
+      </c>
+      <c r="AR88" s="31">
+        <v>12540</v>
+      </c>
+      <c r="AS88" s="31">
+        <v>1333</v>
+      </c>
+      <c r="AT88" s="31">
+        <v>13271</v>
+      </c>
+      <c r="AU88" s="31">
+        <v>486</v>
+      </c>
+      <c r="AV88" s="30">
+        <v>6879</v>
+      </c>
+      <c r="AW88" s="31">
+        <v>321</v>
+      </c>
+      <c r="AX88" s="31">
+        <v>5182</v>
+      </c>
+      <c r="AY88" s="31">
+        <v>84</v>
+      </c>
+      <c r="AZ88" s="31">
+        <v>7918</v>
+      </c>
+      <c r="BA88" s="31">
+        <v>314</v>
+      </c>
+      <c r="BB88" s="31">
+        <v>5660</v>
+      </c>
+      <c r="BC88" s="31">
+        <v>362</v>
+      </c>
+      <c r="BD88" s="31">
+        <v>5516</v>
+      </c>
+      <c r="BE88" s="31">
+        <v>496</v>
+      </c>
+      <c r="BF88" s="30">
+        <v>13430</v>
+      </c>
+      <c r="BG88" s="31">
+        <v>448</v>
+      </c>
+      <c r="BH88" s="31">
+        <v>2207</v>
+      </c>
+      <c r="BI88" s="31">
+        <v>105</v>
+      </c>
+      <c r="BJ88" s="31">
+        <v>2268</v>
+      </c>
+      <c r="BK88" s="31">
+        <v>348</v>
+      </c>
+      <c r="BL88" s="31">
+        <v>1018</v>
+      </c>
+      <c r="BM88" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN88" s="31">
+        <v>1434</v>
+      </c>
+      <c r="BO88" s="31">
+        <v>80</v>
+      </c>
+      <c r="BP88" s="31">
+        <v>27938</v>
+      </c>
+      <c r="BQ88" s="31">
+        <v>232</v>
+      </c>
+      <c r="BR88" s="31">
+        <v>6433</v>
+      </c>
+      <c r="BS88" s="31">
+        <v>169</v>
+      </c>
+      <c r="BT88" s="31">
+        <v>8807</v>
+      </c>
+      <c r="BU88" s="31">
+        <v>105</v>
+      </c>
+      <c r="BV88" s="31">
+        <v>7707</v>
+      </c>
+      <c r="BW88" s="31">
+        <v>392</v>
+      </c>
+      <c r="BX88" s="31">
+        <v>8225</v>
+      </c>
+      <c r="BY88" s="31">
+        <v>403</v>
+      </c>
+      <c r="BZ88" s="31">
+        <v>6919</v>
+      </c>
+      <c r="CA88" s="31">
+        <v>128</v>
+      </c>
+      <c r="CB88" s="31">
+        <v>3444</v>
+      </c>
+      <c r="CC88" s="31">
+        <v>69</v>
+      </c>
+      <c r="CD88" s="31">
+        <v>2672</v>
+      </c>
+      <c r="CE88" s="31">
+        <v>43</v>
+      </c>
+      <c r="CF88" s="31">
+        <v>6380</v>
+      </c>
+      <c r="CG88" s="31">
+        <v>83</v>
+      </c>
+      <c r="CH88" s="31">
+        <v>3369</v>
+      </c>
+      <c r="CI88" s="31">
+        <v>75</v>
+      </c>
+      <c r="CJ88" s="31">
+        <v>5847</v>
+      </c>
+      <c r="CK88" s="31">
+        <v>449</v>
+      </c>
+      <c r="CL88" s="31">
+        <v>3751</v>
+      </c>
+      <c r="CM88" s="31">
+        <v>103</v>
+      </c>
+      <c r="CN88" s="31">
+        <v>12491</v>
+      </c>
+      <c r="CO88" s="31">
+        <v>274</v>
+      </c>
+      <c r="CP88" s="31">
+        <v>2605</v>
+      </c>
+      <c r="CQ88" s="31">
+        <v>48</v>
+      </c>
+      <c r="CR88" s="31">
+        <v>3755</v>
+      </c>
+      <c r="CS88" s="31">
+        <v>196</v>
+      </c>
+      <c r="CT88" s="31">
+        <v>5318</v>
+      </c>
+      <c r="CU88" s="31">
+        <v>103</v>
+      </c>
+      <c r="CV88" s="31">
+        <v>1739</v>
+      </c>
+      <c r="CW88" s="31">
+        <v>8</v>
+      </c>
+      <c r="CX88" s="31">
+        <v>2669</v>
+      </c>
+      <c r="CY88" s="31">
+        <v>122</v>
+      </c>
+      <c r="CZ88" s="31">
+        <v>3233</v>
+      </c>
+      <c r="DA88" s="31">
+        <v>144</v>
+      </c>
+      <c r="DB88" s="31">
+        <v>5825</v>
+      </c>
+      <c r="DC88" s="31">
+        <v>35</v>
+      </c>
+      <c r="DD88" s="31">
+        <v>4427</v>
+      </c>
+      <c r="DE88" s="31">
+        <v>10</v>
+      </c>
+      <c r="DF88" s="31">
+        <v>4161</v>
+      </c>
+      <c r="DG88" s="31">
+        <v>116</v>
+      </c>
+      <c r="DH88" s="31">
+        <v>1791</v>
+      </c>
+      <c r="DI88" s="31">
+        <v>35</v>
+      </c>
+      <c r="DJ88" s="31">
+        <v>4103</v>
+      </c>
+      <c r="DK88" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL88" s="31">
+        <v>1434</v>
+      </c>
+      <c r="DM88" s="31">
+        <v>36</v>
+      </c>
+      <c r="DN88" s="31">
+        <v>2673</v>
+      </c>
+      <c r="DO88" s="31">
+        <v>196</v>
+      </c>
+      <c r="DP88" s="31">
+        <v>977</v>
+      </c>
+      <c r="DQ88" s="31">
+        <v>8</v>
+      </c>
+      <c r="DR88" s="31">
+        <v>1401</v>
+      </c>
+      <c r="DS88" s="31">
+        <v>9</v>
+      </c>
+      <c r="DT88" s="31">
+        <v>2283</v>
+      </c>
+      <c r="DU88" s="31">
+        <v>130</v>
+      </c>
+      <c r="DV88" s="31">
+        <v>2154</v>
+      </c>
+      <c r="DW88" s="31">
+        <v>54</v>
+      </c>
+      <c r="DX88" s="31">
+        <v>4204</v>
+      </c>
+      <c r="DY88" s="31">
+        <v>40</v>
+      </c>
+      <c r="DZ88" s="31">
+        <v>1700</v>
+      </c>
+      <c r="EA88" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB88" s="31">
+        <v>1652</v>
+      </c>
+      <c r="EC88" s="31">
+        <v>142</v>
+      </c>
+      <c r="ED88" s="31">
+        <v>1572</v>
+      </c>
+      <c r="EE88" s="31">
+        <v>60</v>
+      </c>
+      <c r="EF88" s="31">
+        <v>1524</v>
+      </c>
+      <c r="EG88" s="31">
+        <v>3</v>
+      </c>
+      <c r="EH88" s="31">
+        <v>1402</v>
+      </c>
+      <c r="EI88" s="31">
+        <v>17</v>
+      </c>
+      <c r="EJ88" s="31">
+        <v>1349</v>
+      </c>
+      <c r="EK88" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL88" s="31">
+        <v>1283</v>
+      </c>
+      <c r="EM88" s="31">
+        <v>15</v>
+      </c>
+      <c r="EN88" s="31">
+        <v>1268</v>
+      </c>
+      <c r="EO88" s="31">
+        <v>61</v>
+      </c>
+      <c r="EP88" s="31">
+        <v>1167</v>
+      </c>
+      <c r="EQ88" s="31">
+        <v>43</v>
+      </c>
+      <c r="ER88" s="31">
+        <v>1159</v>
+      </c>
+      <c r="ES88" s="31">
+        <v>18</v>
+      </c>
+      <c r="ET88" s="31">
+        <v>1128</v>
+      </c>
+      <c r="EU88" s="31">
+        <v>32</v>
+      </c>
+      <c r="EV88" s="31">
+        <v>1019</v>
+      </c>
+      <c r="EW88" s="31">
+        <v>4</v>
+      </c>
+      <c r="EX88" s="31">
+        <v>1081</v>
+      </c>
+      <c r="EY88" s="31">
+        <v>46</v>
+      </c>
+      <c r="EZ88" s="31">
+        <v>862</v>
+      </c>
+      <c r="FA88" s="31">
+        <v>27</v>
+      </c>
+      <c r="FB88" s="31">
+        <v>840</v>
+      </c>
+      <c r="FC88" s="31">
+        <v>30</v>
+      </c>
+      <c r="FD88" s="31">
+        <v>996</v>
+      </c>
+      <c r="FE88" s="31">
+        <v>22</v>
+      </c>
+      <c r="FF88" s="31">
+        <v>641</v>
+      </c>
+      <c r="FG88" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="89" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A89" s="28">
         <v>43938</v>
       </c>
-      <c r="AD89" s="24"/>
-      <c r="AF89" s="24"/>
-      <c r="AP89" s="24"/>
+      <c r="B89" s="23">
+        <v>10635</v>
+      </c>
+      <c r="C89" s="23">
+        <v>230</v>
+      </c>
+      <c r="D89" s="23">
+        <v>9787</v>
+      </c>
+      <c r="E89" s="23">
+        <v>190</v>
+      </c>
+      <c r="F89">
+        <v>709735</v>
+      </c>
+      <c r="G89" s="24">
+        <v>37147</v>
+      </c>
+      <c r="H89" s="24">
+        <v>172434</v>
+      </c>
+      <c r="I89" s="24">
+        <v>22745</v>
+      </c>
+      <c r="J89" s="24">
+        <v>190839</v>
+      </c>
+      <c r="K89" s="24">
+        <v>19478</v>
+      </c>
+      <c r="L89">
+        <v>82692</v>
+      </c>
+      <c r="M89">
+        <v>4632</v>
+      </c>
+      <c r="N89" s="24">
+        <v>141397</v>
+      </c>
+      <c r="O89" s="24">
+        <v>4352</v>
+      </c>
+      <c r="P89" s="24">
+        <v>147969</v>
+      </c>
+      <c r="Q89" s="24">
+        <v>18681</v>
+      </c>
+      <c r="R89" s="23">
+        <v>79494</v>
+      </c>
+      <c r="S89" s="23">
+        <v>4958</v>
+      </c>
+      <c r="T89" s="23">
+        <v>108692</v>
+      </c>
+      <c r="U89" s="24">
+        <v>14576</v>
+      </c>
+      <c r="V89" s="24">
+        <v>27078</v>
+      </c>
+      <c r="W89" s="24">
+        <v>1327</v>
+      </c>
+      <c r="X89" s="24">
+        <v>78546</v>
+      </c>
+      <c r="Y89" s="24">
+        <v>1769</v>
+      </c>
+      <c r="Z89" s="24">
+        <v>36138</v>
+      </c>
+      <c r="AA89" s="24">
+        <v>5163</v>
+      </c>
+      <c r="AB89" s="24">
+        <v>30449</v>
+      </c>
+      <c r="AC89" s="24">
+        <v>3459</v>
+      </c>
+      <c r="AD89" s="24">
+        <v>14595</v>
+      </c>
+      <c r="AE89" s="24">
+        <v>431</v>
+      </c>
+      <c r="AF89" s="24">
+        <v>31927</v>
+      </c>
+      <c r="AG89" s="24">
+        <v>1310</v>
+      </c>
+      <c r="AH89" s="24">
+        <v>19022</v>
+      </c>
+      <c r="AI89" s="24">
+        <v>657</v>
+      </c>
+      <c r="AJ89" s="24">
+        <v>33682</v>
+      </c>
+      <c r="AK89" s="24">
+        <v>2141</v>
+      </c>
+      <c r="AL89" s="31">
+        <v>12982</v>
+      </c>
+      <c r="AM89" s="31">
+        <v>151</v>
+      </c>
+      <c r="AN89" s="31">
+        <v>6533</v>
+      </c>
+      <c r="AO89" s="31">
+        <v>65</v>
+      </c>
+      <c r="AP89" s="30">
+        <v>6937</v>
+      </c>
+      <c r="AQ89" s="31">
+        <v>161</v>
+      </c>
+      <c r="AR89" s="31">
+        <v>13216</v>
+      </c>
+      <c r="AS89" s="31">
+        <v>1400</v>
+      </c>
+      <c r="AT89" s="31">
+        <v>13980</v>
+      </c>
+      <c r="AU89" s="31">
+        <v>530</v>
+      </c>
+      <c r="AV89" s="30">
+        <v>7073</v>
+      </c>
+      <c r="AW89" s="31">
+        <v>336</v>
+      </c>
+      <c r="AX89" s="31">
+        <v>5251</v>
+      </c>
+      <c r="AY89" s="31">
+        <v>86</v>
+      </c>
+      <c r="AZ89" s="31">
+        <v>8379</v>
+      </c>
+      <c r="BA89" s="31">
+        <v>332</v>
+      </c>
+      <c r="BB89" s="31">
+        <v>5878</v>
+      </c>
+      <c r="BC89" s="31">
+        <v>387</v>
+      </c>
+      <c r="BD89" s="31">
+        <v>5923</v>
+      </c>
+      <c r="BE89" s="31">
+        <v>520</v>
+      </c>
+      <c r="BF89" s="30">
+        <v>14352</v>
+      </c>
+      <c r="BG89" s="31">
+        <v>486</v>
+      </c>
+      <c r="BH89" s="31">
+        <v>2224</v>
+      </c>
+      <c r="BI89" s="31">
+        <v>108</v>
+      </c>
+      <c r="BJ89" s="31">
+        <v>2418</v>
+      </c>
+      <c r="BK89" s="31">
+        <v>364</v>
+      </c>
+      <c r="BL89" s="31">
+        <v>1022</v>
+      </c>
+      <c r="BM89" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN89" s="31">
+        <v>1482</v>
+      </c>
+      <c r="BO89" s="31">
+        <v>81</v>
+      </c>
+      <c r="BP89" s="31">
+        <v>32008</v>
+      </c>
+      <c r="BQ89" s="31">
+        <v>273</v>
+      </c>
+      <c r="BR89" s="31">
+        <v>6549</v>
+      </c>
+      <c r="BS89" s="31">
+        <v>173</v>
+      </c>
+      <c r="BT89" s="31">
+        <v>9252</v>
+      </c>
+      <c r="BU89" s="31">
+        <v>116</v>
+      </c>
+      <c r="BV89" s="31">
+        <v>8067</v>
+      </c>
+      <c r="BW89" s="31">
+        <v>411</v>
+      </c>
+      <c r="BX89" s="31">
+        <v>8450</v>
+      </c>
+      <c r="BY89" s="31">
+        <v>421</v>
+      </c>
+      <c r="BZ89" s="31">
+        <v>7025</v>
+      </c>
+      <c r="CA89" s="31">
+        <v>135</v>
+      </c>
+      <c r="CB89" s="31">
+        <v>3480</v>
+      </c>
+      <c r="CC89" s="31">
+        <v>72</v>
+      </c>
+      <c r="CD89" s="31">
+        <v>2700</v>
+      </c>
+      <c r="CE89" s="31">
+        <v>47</v>
+      </c>
+      <c r="CF89" s="31">
+        <v>7142</v>
+      </c>
+      <c r="CG89" s="31">
+        <v>87</v>
+      </c>
+      <c r="CH89" s="31">
+        <v>3489</v>
+      </c>
+      <c r="CI89" s="31">
+        <v>82</v>
+      </c>
+      <c r="CJ89" s="31">
+        <v>6297</v>
+      </c>
+      <c r="CK89" s="31">
+        <v>486</v>
+      </c>
+      <c r="CL89" s="31">
+        <v>4016</v>
+      </c>
+      <c r="CM89" s="31">
+        <v>109</v>
+      </c>
+      <c r="CN89" s="31">
+        <v>13489</v>
+      </c>
+      <c r="CO89" s="31">
+        <v>300</v>
+      </c>
+      <c r="CP89" s="31">
+        <v>2783</v>
+      </c>
+      <c r="CQ89" s="31">
+        <v>50</v>
+      </c>
+      <c r="CR89" s="31">
+        <v>4126</v>
+      </c>
+      <c r="CS89" s="31">
+        <v>200</v>
+      </c>
+      <c r="CT89" s="31">
+        <v>5690</v>
+      </c>
+      <c r="CU89" s="31">
+        <v>110</v>
+      </c>
+      <c r="CV89" s="31">
+        <v>1754</v>
+      </c>
+      <c r="CW89" s="31">
+        <v>9</v>
+      </c>
+      <c r="CX89" s="31">
+        <v>2669</v>
+      </c>
+      <c r="CY89" s="31">
+        <v>123</v>
+      </c>
+      <c r="CZ89" s="31">
+        <v>3439</v>
+      </c>
+      <c r="DA89" s="31">
+        <v>153</v>
+      </c>
+      <c r="DB89" s="31">
+        <v>6302</v>
+      </c>
+      <c r="DC89" s="31">
+        <v>37</v>
+      </c>
+      <c r="DD89" s="31">
+        <v>5050</v>
+      </c>
+      <c r="DE89" s="31">
+        <v>11</v>
+      </c>
+      <c r="DF89" s="31">
+        <v>4662</v>
+      </c>
+      <c r="DG89" s="31">
+        <v>125</v>
+      </c>
+      <c r="DH89" s="31">
+        <v>1814</v>
+      </c>
+      <c r="DI89" s="31">
+        <v>36</v>
+      </c>
+      <c r="DJ89" s="31">
+        <v>4663</v>
+      </c>
+      <c r="DK89" s="31">
+        <v>7</v>
+      </c>
+      <c r="DL89" s="31">
+        <v>1459</v>
+      </c>
+      <c r="DM89" s="31">
+        <v>38</v>
+      </c>
+      <c r="DN89" s="31">
+        <v>2844</v>
+      </c>
+      <c r="DO89" s="31">
+        <v>205</v>
+      </c>
+      <c r="DP89" s="31">
+        <v>1049</v>
+      </c>
+      <c r="DQ89" s="31">
+        <v>9</v>
+      </c>
+      <c r="DR89" s="31">
+        <v>1409</v>
+      </c>
+      <c r="DS89" s="31">
+        <v>11</v>
+      </c>
+      <c r="DT89" s="31">
+        <v>2564</v>
+      </c>
+      <c r="DU89" s="31">
+        <v>135</v>
+      </c>
+      <c r="DV89" s="31">
+        <v>2264</v>
+      </c>
+      <c r="DW89" s="31">
+        <v>56</v>
+      </c>
+      <c r="DX89" s="31">
+        <v>4779</v>
+      </c>
+      <c r="DY89" s="31">
+        <v>42</v>
+      </c>
+      <c r="DZ89" s="31">
+        <v>1740</v>
+      </c>
+      <c r="EA89" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB89" s="31">
+        <v>1763</v>
+      </c>
+      <c r="EC89" s="31">
+        <v>156</v>
+      </c>
+      <c r="ED89" s="31">
+        <v>1838</v>
+      </c>
+      <c r="EE89" s="31">
+        <v>75</v>
+      </c>
+      <c r="EF89" s="31">
+        <v>1658</v>
+      </c>
+      <c r="EG89" s="31">
+        <v>5</v>
+      </c>
+      <c r="EH89" s="31">
+        <v>1546</v>
+      </c>
+      <c r="EI89" s="31">
+        <v>17</v>
+      </c>
+      <c r="EJ89" s="31">
+        <v>1405</v>
+      </c>
+      <c r="EK89" s="31">
+        <v>4</v>
+      </c>
+      <c r="EL89" s="31">
+        <v>1340</v>
+      </c>
+      <c r="EM89" s="31">
+        <v>15</v>
+      </c>
+      <c r="EN89" s="31">
+        <v>1304</v>
+      </c>
+      <c r="EO89" s="31">
+        <v>66</v>
+      </c>
+      <c r="EP89" s="31">
+        <v>1214</v>
+      </c>
+      <c r="EQ89" s="31">
+        <v>46</v>
+      </c>
+      <c r="ER89" s="31">
+        <v>1201</v>
+      </c>
+      <c r="ES89" s="31">
+        <v>19</v>
+      </c>
+      <c r="ET89" s="31">
+        <v>1149</v>
+      </c>
+      <c r="EU89" s="31">
+        <v>33</v>
+      </c>
+      <c r="EV89" s="31">
+        <v>1069</v>
+      </c>
+      <c r="EW89" s="31">
+        <v>6</v>
+      </c>
+      <c r="EX89" s="31">
+        <v>1117</v>
+      </c>
+      <c r="EY89" s="31">
+        <v>49</v>
+      </c>
+      <c r="EZ89" s="31">
+        <v>923</v>
+      </c>
+      <c r="FA89" s="31">
+        <v>31</v>
+      </c>
+      <c r="FB89" s="31">
+        <v>906</v>
+      </c>
+      <c r="FC89" s="31">
+        <v>30</v>
+      </c>
+      <c r="FD89" s="31">
+        <v>996</v>
+      </c>
+      <c r="FE89" s="31">
+        <v>22</v>
+      </c>
+      <c r="FF89" s="31">
+        <v>641</v>
+      </c>
+      <c r="FG89" s="31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A90" s="28">
         <v>43939</v>
       </c>
-      <c r="AD90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AP90" s="24"/>
+      <c r="B90" s="23">
+        <v>10653</v>
+      </c>
+      <c r="C90" s="23">
+        <v>232</v>
+      </c>
+      <c r="D90" s="23">
+        <v>10296</v>
+      </c>
+      <c r="E90" s="23">
+        <v>222</v>
+      </c>
+      <c r="F90">
+        <v>738601</v>
+      </c>
+      <c r="G90" s="24">
+        <v>39014</v>
+      </c>
+      <c r="H90" s="24">
+        <v>175925</v>
+      </c>
+      <c r="I90" s="24">
+        <v>23227</v>
+      </c>
+      <c r="J90" s="24">
+        <v>194416</v>
+      </c>
+      <c r="K90" s="24">
+        <v>20043</v>
+      </c>
+      <c r="L90">
+        <v>82719</v>
+      </c>
+      <c r="M90" s="27">
+        <v>4632</v>
+      </c>
+      <c r="N90" s="24">
+        <v>143724</v>
+      </c>
+      <c r="O90" s="24">
+        <v>4538</v>
+      </c>
+      <c r="P90" s="24">
+        <v>151793</v>
+      </c>
+      <c r="Q90" s="24">
+        <v>19323</v>
+      </c>
+      <c r="R90" s="23">
+        <v>80868</v>
+      </c>
+      <c r="S90" s="23">
+        <v>5031</v>
+      </c>
+      <c r="T90" s="23">
+        <v>114217</v>
+      </c>
+      <c r="U90" s="24">
+        <v>15464</v>
+      </c>
+      <c r="V90" s="24">
+        <v>27404</v>
+      </c>
+      <c r="W90" s="24">
+        <v>1368</v>
+      </c>
+      <c r="X90" s="24">
+        <v>82329</v>
+      </c>
+      <c r="Y90" s="24">
+        <v>1890</v>
+      </c>
+      <c r="Z90" s="24">
+        <v>37183</v>
+      </c>
+      <c r="AA90" s="24">
+        <v>5453</v>
+      </c>
+      <c r="AB90" s="24">
+        <v>31589</v>
+      </c>
+      <c r="AC90" s="24">
+        <v>3601</v>
+      </c>
+      <c r="AD90" s="24">
+        <v>14671</v>
+      </c>
+      <c r="AE90" s="24">
+        <v>443</v>
+      </c>
+      <c r="AF90" s="24">
+        <v>33383</v>
+      </c>
+      <c r="AG90" s="24">
+        <v>1470</v>
+      </c>
+      <c r="AH90" s="24">
+        <v>19685</v>
+      </c>
+      <c r="AI90" s="24">
+        <v>687</v>
+      </c>
+      <c r="AJ90" s="24">
+        <v>36722</v>
+      </c>
+      <c r="AK90" s="24">
+        <v>2361</v>
+      </c>
+      <c r="AL90" s="31">
+        <v>13265</v>
+      </c>
+      <c r="AM90" s="31">
+        <v>164</v>
+      </c>
+      <c r="AN90" s="31">
+        <v>6586</v>
+      </c>
+      <c r="AO90" s="31">
+        <v>70</v>
+      </c>
+      <c r="AP90" s="30">
+        <v>7036</v>
+      </c>
+      <c r="AQ90" s="31">
+        <v>164</v>
+      </c>
+      <c r="AR90" s="31">
+        <v>13822</v>
+      </c>
+      <c r="AS90" s="31">
+        <v>1511</v>
+      </c>
+      <c r="AT90" s="31">
+        <v>14758</v>
+      </c>
+      <c r="AU90" s="31">
+        <v>571</v>
+      </c>
+      <c r="AV90" s="30">
+        <v>7242</v>
+      </c>
+      <c r="AW90" s="31">
+        <v>346</v>
+      </c>
+      <c r="AX90" s="31">
+        <v>5305</v>
+      </c>
+      <c r="AY90" s="31">
+        <v>88</v>
+      </c>
+      <c r="AZ90" s="31">
+        <v>8742</v>
+      </c>
+      <c r="BA90" s="31">
+        <v>347</v>
+      </c>
+      <c r="BB90" s="31">
+        <v>6087</v>
+      </c>
+      <c r="BC90" s="31">
+        <v>397</v>
+      </c>
+      <c r="BD90" s="31">
+        <v>6248</v>
+      </c>
+      <c r="BE90" s="31">
+        <v>535</v>
+      </c>
+      <c r="BF90" s="30">
+        <v>16365</v>
+      </c>
+      <c r="BG90" s="31">
+        <v>521</v>
+      </c>
+      <c r="BH90" s="31">
+        <v>2235</v>
+      </c>
+      <c r="BI90" s="31">
+        <v>110</v>
+      </c>
+      <c r="BJ90" s="31">
+        <v>2534</v>
+      </c>
+      <c r="BK90" s="31">
+        <v>367</v>
+      </c>
+      <c r="BL90" s="31">
+        <v>1024</v>
+      </c>
+      <c r="BM90" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN90" s="31">
+        <v>1513</v>
+      </c>
+      <c r="BO90" s="31">
+        <v>82</v>
+      </c>
+      <c r="BP90" s="31">
+        <v>36793</v>
+      </c>
+      <c r="BQ90" s="31">
+        <v>313</v>
+      </c>
+      <c r="BR90" s="31">
+        <v>6606</v>
+      </c>
+      <c r="BS90" s="31">
+        <v>181</v>
+      </c>
+      <c r="BT90" s="31">
+        <v>9730</v>
+      </c>
+      <c r="BU90" s="31">
+        <v>126</v>
+      </c>
+      <c r="BV90" s="31">
+        <v>8418</v>
+      </c>
+      <c r="BW90" s="31">
+        <v>421</v>
+      </c>
+      <c r="BX90" s="31">
+        <v>9022</v>
+      </c>
+      <c r="BY90" s="31">
+        <v>456</v>
+      </c>
+      <c r="BZ90" s="31">
+        <v>7638</v>
+      </c>
+      <c r="CA90" s="31">
+        <v>143</v>
+      </c>
+      <c r="CB90" s="31">
+        <v>3537</v>
+      </c>
+      <c r="CC90" s="31">
+        <v>72</v>
+      </c>
+      <c r="CD90" s="31">
+        <v>2733</v>
+      </c>
+      <c r="CE90" s="31">
+        <v>47</v>
+      </c>
+      <c r="CF90" s="31">
+        <v>8274</v>
+      </c>
+      <c r="CG90" s="31">
+        <v>92</v>
+      </c>
+      <c r="CH90" s="31">
+        <v>3681</v>
+      </c>
+      <c r="CI90" s="31">
+        <v>90</v>
+      </c>
+      <c r="CJ90" s="31">
+        <v>6875</v>
+      </c>
+      <c r="CK90" s="31">
+        <v>546</v>
+      </c>
+      <c r="CL90" s="31">
+        <v>4210</v>
+      </c>
+      <c r="CM90" s="31">
+        <v>116</v>
+      </c>
+      <c r="CN90" s="31">
+        <v>14420</v>
+      </c>
+      <c r="CO90" s="31">
+        <v>348</v>
+      </c>
+      <c r="CP90" s="31">
+        <v>3034</v>
+      </c>
+      <c r="CQ90" s="31">
+        <v>52</v>
+      </c>
+      <c r="CR90" s="31">
+        <v>4335</v>
+      </c>
+      <c r="CS90" s="31">
+        <v>217</v>
+      </c>
+      <c r="CT90" s="31">
+        <v>5994</v>
+      </c>
+      <c r="CU90" s="31">
+        <v>117</v>
+      </c>
+      <c r="CV90" s="31">
+        <v>1760</v>
+      </c>
+      <c r="CW90" s="31">
+        <v>9</v>
+      </c>
+      <c r="CX90" s="31">
+        <v>2839</v>
+      </c>
+      <c r="CY90" s="31">
+        <v>132</v>
+      </c>
+      <c r="CZ90" s="31">
+        <v>3621</v>
+      </c>
+      <c r="DA90" s="31">
+        <v>166</v>
+      </c>
+      <c r="DB90" s="31">
+        <v>6302</v>
+      </c>
+      <c r="DC90" s="31">
+        <v>37</v>
+      </c>
+      <c r="DD90" s="31">
+        <v>5992</v>
+      </c>
+      <c r="DE90" s="31">
+        <v>11</v>
+      </c>
+      <c r="DF90" s="31">
+        <v>5106</v>
+      </c>
+      <c r="DG90" s="31">
+        <v>133</v>
+      </c>
+      <c r="DH90" s="31">
+        <v>1832</v>
+      </c>
+      <c r="DI90" s="31">
+        <v>39</v>
+      </c>
+      <c r="DJ90" s="31">
+        <v>5008</v>
+      </c>
+      <c r="DK90" s="31">
+        <v>8</v>
+      </c>
+      <c r="DL90" s="31">
+        <v>1512</v>
+      </c>
+      <c r="DM90" s="31">
+        <v>38</v>
+      </c>
+      <c r="DN90" s="31">
+        <v>3032</v>
+      </c>
+      <c r="DO90" s="31">
+        <v>224</v>
+      </c>
+      <c r="DP90" s="31">
+        <v>1089</v>
+      </c>
+      <c r="DQ90" s="31">
+        <v>11</v>
+      </c>
+      <c r="DR90" s="31">
+        <v>1422</v>
+      </c>
+      <c r="DS90" s="31">
+        <v>11</v>
+      </c>
+      <c r="DT90" s="31">
+        <v>2685</v>
+      </c>
+      <c r="DU90" s="31">
+        <v>137</v>
+      </c>
+      <c r="DV90" s="31">
+        <v>2351</v>
+      </c>
+      <c r="DW90" s="31">
+        <v>57</v>
+      </c>
+      <c r="DX90" s="31">
+        <v>4779</v>
+      </c>
+      <c r="DY90" s="31">
+        <v>45</v>
+      </c>
+      <c r="DZ90" s="31">
+        <v>1773</v>
+      </c>
+      <c r="EA90" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB90" s="31">
+        <v>1834</v>
+      </c>
+      <c r="EC90" s="31">
+        <v>172</v>
+      </c>
+      <c r="ED90" s="31">
+        <v>2144</v>
+      </c>
+      <c r="EE90" s="31">
+        <v>84</v>
+      </c>
+      <c r="EF90" s="31">
+        <v>1751</v>
+      </c>
+      <c r="EG90" s="31">
+        <v>6</v>
+      </c>
+      <c r="EH90" s="31">
+        <v>1615</v>
+      </c>
+      <c r="EI90" s="31">
+        <v>17</v>
+      </c>
+      <c r="EJ90" s="31">
+        <v>1490</v>
+      </c>
+      <c r="EK90" s="31">
+        <v>5</v>
+      </c>
+      <c r="EL90" s="31">
+        <v>1373</v>
+      </c>
+      <c r="EM90" s="31">
+        <v>18</v>
+      </c>
+      <c r="EN90" s="31">
+        <v>1317</v>
+      </c>
+      <c r="EO90" s="31">
+        <v>70</v>
+      </c>
+      <c r="EP90" s="31">
+        <v>1268</v>
+      </c>
+      <c r="EQ90" s="31">
+        <v>47</v>
+      </c>
+      <c r="ER90" s="31">
+        <v>1248</v>
+      </c>
+      <c r="ES90" s="31">
+        <v>20</v>
+      </c>
+      <c r="ET90" s="31">
+        <v>1239</v>
+      </c>
+      <c r="EU90" s="31">
+        <v>33</v>
+      </c>
+      <c r="EV90" s="31">
+        <v>1180</v>
+      </c>
+      <c r="EW90" s="31">
+        <v>6</v>
+      </c>
+      <c r="EX90" s="31">
+        <v>1170</v>
+      </c>
+      <c r="EY90" s="31">
+        <v>49</v>
+      </c>
+      <c r="EZ90" s="31">
+        <v>986</v>
+      </c>
+      <c r="FA90" s="31">
+        <v>32</v>
+      </c>
+      <c r="FB90" s="31">
+        <v>933</v>
+      </c>
+      <c r="FC90" s="31">
+        <v>30</v>
+      </c>
+      <c r="FD90" s="31">
+        <v>1017</v>
+      </c>
+      <c r="FE90" s="31">
+        <v>42</v>
+      </c>
+      <c r="FF90" s="31">
+        <v>834</v>
+      </c>
+      <c r="FG90" s="31">
+        <v>9</v>
+      </c>
     </row>
-    <row r="91" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A91" s="28">
         <v>43940</v>
       </c>
-      <c r="AD91" s="24"/>
-      <c r="AF91" s="24"/>
-      <c r="AP91" s="24"/>
+      <c r="B91" s="23">
+        <v>10661</v>
+      </c>
+      <c r="C91" s="23">
+        <v>234</v>
+      </c>
+      <c r="D91" s="23">
+        <v>10797</v>
+      </c>
+      <c r="E91" s="23">
+        <v>236</v>
+      </c>
+      <c r="F91">
+        <v>764671</v>
+      </c>
+      <c r="G91" s="24">
+        <v>40575</v>
+      </c>
+      <c r="H91" s="24">
+        <v>178972</v>
+      </c>
+      <c r="I91" s="24">
+        <v>23660</v>
+      </c>
+      <c r="J91" s="24">
+        <v>198674</v>
+      </c>
+      <c r="K91" s="24">
+        <v>20453</v>
+      </c>
+      <c r="L91">
+        <v>82735</v>
+      </c>
+      <c r="M91" s="27">
+        <v>4632</v>
+      </c>
+      <c r="N91" s="24">
+        <v>145742</v>
+      </c>
+      <c r="O91" s="24">
+        <v>4642</v>
+      </c>
+      <c r="P91" s="24">
+        <v>152894</v>
+      </c>
+      <c r="Q91" s="24">
+        <v>19718</v>
+      </c>
+      <c r="R91" s="23">
+        <v>82211</v>
+      </c>
+      <c r="S91" s="23">
+        <v>5118</v>
+      </c>
+      <c r="T91" s="23">
+        <v>120067</v>
+      </c>
+      <c r="U91" s="24">
+        <v>16060</v>
+      </c>
+      <c r="V91" s="24">
+        <v>27740</v>
+      </c>
+      <c r="W91" s="24">
+        <v>1393</v>
+      </c>
+      <c r="X91" s="24">
+        <v>86306</v>
+      </c>
+      <c r="Y91" s="24">
+        <v>2017</v>
+      </c>
+      <c r="Z91" s="24">
+        <v>38496</v>
+      </c>
+      <c r="AA91" s="24">
+        <v>5683</v>
+      </c>
+      <c r="AB91" s="24">
+        <v>32655</v>
+      </c>
+      <c r="AC91" s="24">
+        <v>3684</v>
+      </c>
+      <c r="AD91" s="24">
+        <v>14749</v>
+      </c>
+      <c r="AE91" s="24">
+        <v>452</v>
+      </c>
+      <c r="AF91" s="24">
+        <v>35056</v>
+      </c>
+      <c r="AG91" s="24">
+        <v>1587</v>
+      </c>
+      <c r="AH91" s="24">
+        <v>20206</v>
+      </c>
+      <c r="AI91" s="24">
+        <v>714</v>
+      </c>
+      <c r="AJ91" s="24">
+        <v>38654</v>
+      </c>
+      <c r="AK91" s="24">
+        <v>2462</v>
+      </c>
+      <c r="AL91" s="31">
+        <v>13491</v>
+      </c>
+      <c r="AM91" s="31">
+        <v>172</v>
+      </c>
+      <c r="AN91" s="31">
+        <v>6612</v>
+      </c>
+      <c r="AO91" s="31">
+        <v>71</v>
+      </c>
+      <c r="AP91" s="30">
+        <v>7078</v>
+      </c>
+      <c r="AQ91" s="31">
+        <v>165</v>
+      </c>
+      <c r="AR91" s="31">
+        <v>14385</v>
+      </c>
+      <c r="AS91" s="31">
+        <v>1540</v>
+      </c>
+      <c r="AT91" s="31">
+        <v>15251</v>
+      </c>
+      <c r="AU91" s="31">
+        <v>610</v>
+      </c>
+      <c r="AV91" s="30">
+        <v>7384</v>
+      </c>
+      <c r="AW91" s="31">
+        <v>355</v>
+      </c>
+      <c r="AX91" s="31">
+        <v>5389</v>
+      </c>
+      <c r="AY91" s="31">
+        <v>89</v>
+      </c>
+      <c r="AZ91" s="31">
+        <v>9287</v>
+      </c>
+      <c r="BA91" s="31">
+        <v>360</v>
+      </c>
+      <c r="BB91" s="31">
+        <v>6259</v>
+      </c>
+      <c r="BC91" s="31">
+        <v>409</v>
+      </c>
+      <c r="BD91" s="31">
+        <v>6575</v>
+      </c>
+      <c r="BE91" s="31">
+        <v>582</v>
+      </c>
+      <c r="BF91" s="30">
+        <v>17615</v>
+      </c>
+      <c r="BG91" s="31">
+        <v>559</v>
+      </c>
+      <c r="BH91" s="31">
+        <v>2235</v>
+      </c>
+      <c r="BI91" s="31">
+        <v>113</v>
+      </c>
+      <c r="BJ91" s="31">
+        <v>2629</v>
+      </c>
+      <c r="BK91" s="31">
+        <v>375</v>
+      </c>
+      <c r="BL91" s="31">
+        <v>1026</v>
+      </c>
+      <c r="BM91" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN91" s="31">
+        <v>1539</v>
+      </c>
+      <c r="BO91" s="31">
+        <v>82</v>
+      </c>
+      <c r="BP91" s="31">
+        <v>42853</v>
+      </c>
+      <c r="BQ91" s="31">
+        <v>361</v>
+      </c>
+      <c r="BR91" s="31">
+        <v>6746</v>
+      </c>
+      <c r="BS91" s="31">
+        <v>186</v>
+      </c>
+      <c r="BT91" s="31">
+        <v>10088</v>
+      </c>
+      <c r="BU91" s="31">
+        <v>133</v>
+      </c>
+      <c r="BV91" s="31">
+        <v>8746</v>
+      </c>
+      <c r="BW91" s="31">
+        <v>451</v>
+      </c>
+      <c r="BX91" s="31">
+        <v>9468</v>
+      </c>
+      <c r="BY91" s="31">
+        <v>474</v>
+      </c>
+      <c r="BZ91" s="31">
+        <v>8348</v>
+      </c>
+      <c r="CA91" s="31">
+        <v>168</v>
+      </c>
+      <c r="CB91" s="31">
+        <v>3550</v>
+      </c>
+      <c r="CC91" s="31">
+        <v>73</v>
+      </c>
+      <c r="CD91" s="31">
+        <v>2765</v>
+      </c>
+      <c r="CE91" s="31">
+        <v>47</v>
+      </c>
+      <c r="CF91" s="31">
+        <v>9362</v>
+      </c>
+      <c r="CG91" s="31">
+        <v>97</v>
+      </c>
+      <c r="CH91" s="31">
+        <v>3783</v>
+      </c>
+      <c r="CI91" s="31">
+        <v>94</v>
+      </c>
+      <c r="CJ91" s="31">
+        <v>7497</v>
+      </c>
+      <c r="CK91" s="31">
+        <v>650</v>
+      </c>
+      <c r="CL91" s="31">
+        <v>4273</v>
+      </c>
+      <c r="CM91" s="31">
+        <v>120</v>
+      </c>
+      <c r="CN91" s="31">
+        <v>15628</v>
+      </c>
+      <c r="CO91" s="31">
+        <v>400</v>
+      </c>
+      <c r="CP91" s="31">
+        <v>3158</v>
+      </c>
+      <c r="CQ91" s="31">
+        <v>54</v>
+      </c>
+      <c r="CR91" s="31">
+        <v>4680</v>
+      </c>
+      <c r="CS91" s="31">
+        <v>226</v>
+      </c>
+      <c r="CT91" s="31">
+        <v>6318</v>
+      </c>
+      <c r="CU91" s="31">
+        <v>122</v>
+      </c>
+      <c r="CV91" s="31">
+        <v>1771</v>
+      </c>
+      <c r="CW91" s="31">
+        <v>9</v>
+      </c>
+      <c r="CX91" s="31">
+        <v>2941</v>
+      </c>
+      <c r="CY91" s="31">
+        <v>134</v>
+      </c>
+      <c r="CZ91" s="31">
+        <v>3792</v>
+      </c>
+      <c r="DA91" s="31">
+        <v>179</v>
+      </c>
+      <c r="DB91" s="31">
+        <v>6781</v>
+      </c>
+      <c r="DC91" s="31">
+        <v>41</v>
+      </c>
+      <c r="DD91" s="31">
+        <v>6588</v>
+      </c>
+      <c r="DE91" s="31">
+        <v>11</v>
+      </c>
+      <c r="DF91" s="31">
+        <v>5449</v>
+      </c>
+      <c r="DG91" s="31">
+        <v>141</v>
+      </c>
+      <c r="DH91" s="31">
+        <v>1871</v>
+      </c>
+      <c r="DI91" s="31">
+        <v>47</v>
+      </c>
+      <c r="DJ91" s="31">
+        <v>5448</v>
+      </c>
+      <c r="DK91" s="31">
+        <v>8</v>
+      </c>
+      <c r="DL91" s="31">
+        <v>1528</v>
+      </c>
+      <c r="DM91" s="31">
+        <v>40</v>
+      </c>
+      <c r="DN91" s="31">
+        <v>3144</v>
+      </c>
+      <c r="DO91" s="31">
+        <v>239</v>
+      </c>
+      <c r="DP91" s="31">
+        <v>1161</v>
+      </c>
+      <c r="DQ91" s="31">
+        <v>12</v>
+      </c>
+      <c r="DR91" s="31">
+        <v>1431</v>
+      </c>
+      <c r="DS91" s="31">
+        <v>12</v>
+      </c>
+      <c r="DT91" s="31">
+        <v>2855</v>
+      </c>
+      <c r="DU91" s="31">
+        <v>141</v>
+      </c>
+      <c r="DV91" s="31">
+        <v>2472</v>
+      </c>
+      <c r="DW91" s="31">
+        <v>67</v>
+      </c>
+      <c r="DX91" s="31">
+        <v>4779</v>
+      </c>
+      <c r="DY91" s="31">
+        <v>47</v>
+      </c>
+      <c r="DZ91" s="31">
+        <v>1881</v>
+      </c>
+      <c r="EA91" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB91" s="31">
+        <v>1916</v>
+      </c>
+      <c r="EC91" s="31">
+        <v>189</v>
+      </c>
+      <c r="ED91" s="31">
+        <v>2456</v>
+      </c>
+      <c r="EE91" s="31">
+        <v>91</v>
+      </c>
+      <c r="EF91" s="31">
+        <v>1915</v>
+      </c>
+      <c r="EG91" s="31">
+        <v>7</v>
+      </c>
+      <c r="EH91" s="31">
+        <v>1676</v>
+      </c>
+      <c r="EI91" s="31">
+        <v>17</v>
+      </c>
+      <c r="EJ91" s="31">
+        <v>1565</v>
+      </c>
+      <c r="EK91" s="31">
+        <v>5</v>
+      </c>
+      <c r="EL91" s="31">
+        <v>1398</v>
+      </c>
+      <c r="EM91" s="31">
+        <v>19</v>
+      </c>
+      <c r="EN91" s="31">
+        <v>1330</v>
+      </c>
+      <c r="EO91" s="31">
+        <v>74</v>
+      </c>
+      <c r="EP91" s="31">
+        <v>1285</v>
+      </c>
+      <c r="EQ91" s="31">
+        <v>48</v>
+      </c>
+      <c r="ER91" s="31">
+        <v>1291</v>
+      </c>
+      <c r="ES91" s="31">
+        <v>20</v>
+      </c>
+      <c r="ET91" s="31">
+        <v>1298</v>
+      </c>
+      <c r="EU91" s="31">
+        <v>35</v>
+      </c>
+      <c r="EV91" s="31">
+        <v>1266</v>
+      </c>
+      <c r="EW91" s="31">
+        <v>7</v>
+      </c>
+      <c r="EX91" s="31">
+        <v>1207</v>
+      </c>
+      <c r="EY91" s="31">
+        <v>51</v>
+      </c>
+      <c r="EZ91" s="31">
+        <v>1035</v>
+      </c>
+      <c r="FA91" s="31">
+        <v>34</v>
+      </c>
+      <c r="FB91" s="31">
+        <v>996</v>
+      </c>
+      <c r="FC91" s="31">
+        <v>33</v>
+      </c>
+      <c r="FD91" s="31">
+        <v>1017</v>
+      </c>
+      <c r="FE91" s="31">
+        <v>42</v>
+      </c>
+      <c r="FF91" s="31">
+        <v>1042</v>
+      </c>
+      <c r="FG91" s="31">
+        <v>9</v>
+      </c>
     </row>
-    <row r="92" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
         <v>43941</v>
       </c>
-      <c r="AD92" s="24"/>
-      <c r="AF92" s="24"/>
-      <c r="AP92" s="24"/>
+      <c r="B92" s="23">
+        <v>10674</v>
+      </c>
+      <c r="C92" s="23">
+        <v>236</v>
+      </c>
+      <c r="D92" s="23">
+        <v>11135</v>
+      </c>
+      <c r="E92" s="23">
+        <v>263</v>
+      </c>
+      <c r="F92">
+        <v>792759</v>
+      </c>
+      <c r="G92" s="24">
+        <v>42514</v>
+      </c>
+      <c r="H92" s="24">
+        <v>181228</v>
+      </c>
+      <c r="I92" s="24">
+        <v>24114</v>
+      </c>
+      <c r="J92" s="24">
+        <v>200210</v>
+      </c>
+      <c r="K92" s="24">
+        <v>20852</v>
+      </c>
+      <c r="L92">
+        <v>82747</v>
+      </c>
+      <c r="M92" s="27">
+        <v>4632</v>
+      </c>
+      <c r="N92" s="24">
+        <v>147065</v>
+      </c>
+      <c r="O92" s="24">
+        <v>4862</v>
+      </c>
+      <c r="P92" s="24">
+        <v>155383</v>
+      </c>
+      <c r="Q92" s="24">
+        <v>20265</v>
+      </c>
+      <c r="R92" s="23">
+        <v>83505</v>
+      </c>
+      <c r="S92" s="23">
+        <v>5209</v>
+      </c>
+      <c r="T92" s="23">
+        <v>124743</v>
+      </c>
+      <c r="U92" s="24">
+        <v>16509</v>
+      </c>
+      <c r="V92" s="24">
+        <v>27944</v>
+      </c>
+      <c r="W92" s="24">
+        <v>1429</v>
+      </c>
+      <c r="X92" s="24">
+        <v>90980</v>
+      </c>
+      <c r="Y92" s="24">
+        <v>2140</v>
+      </c>
+      <c r="Z92" s="24">
+        <v>39983</v>
+      </c>
+      <c r="AA92" s="24">
+        <v>5828</v>
+      </c>
+      <c r="AB92" s="24">
+        <v>33405</v>
+      </c>
+      <c r="AC92" s="24">
+        <v>3751</v>
+      </c>
+      <c r="AD92" s="24">
+        <v>14795</v>
+      </c>
+      <c r="AE92" s="24">
+        <v>470</v>
+      </c>
+      <c r="AF92" s="24">
+        <v>36829</v>
+      </c>
+      <c r="AG92" s="24">
+        <v>1690</v>
+      </c>
+      <c r="AH92" s="24">
+        <v>20863</v>
+      </c>
+      <c r="AI92" s="24">
+        <v>735</v>
+      </c>
+      <c r="AJ92" s="24">
+        <v>40743</v>
+      </c>
+      <c r="AK92" s="24">
+        <v>2587</v>
+      </c>
+      <c r="AL92" s="31">
+        <v>13713</v>
+      </c>
+      <c r="AM92" s="31">
+        <v>177</v>
+      </c>
+      <c r="AN92" s="31">
+        <v>6625</v>
+      </c>
+      <c r="AO92" s="31">
+        <v>71</v>
+      </c>
+      <c r="AP92" s="30">
+        <v>7156</v>
+      </c>
+      <c r="AQ92" s="31">
+        <v>181</v>
+      </c>
+      <c r="AR92" s="31">
+        <v>14777</v>
+      </c>
+      <c r="AS92" s="31">
+        <v>1580</v>
+      </c>
+      <c r="AT92" s="31">
+        <v>15652</v>
+      </c>
+      <c r="AU92" s="31">
+        <v>687</v>
+      </c>
+      <c r="AV92" s="30">
+        <v>7515</v>
+      </c>
+      <c r="AW92" s="31">
+        <v>364</v>
+      </c>
+      <c r="AX92" s="31">
+        <v>5425</v>
+      </c>
+      <c r="AY92" s="31">
+        <v>89</v>
+      </c>
+      <c r="AZ92" s="31">
+        <v>9593</v>
+      </c>
+      <c r="BA92" s="31">
+        <v>380</v>
+      </c>
+      <c r="BB92" s="31">
+        <v>6459</v>
+      </c>
+      <c r="BC92" s="31">
+        <v>428</v>
+      </c>
+      <c r="BD92" s="31">
+        <v>6760</v>
+      </c>
+      <c r="BE92" s="31">
+        <v>590</v>
+      </c>
+      <c r="BF92" s="30">
+        <v>18539</v>
+      </c>
+      <c r="BG92" s="31">
+        <v>592</v>
+      </c>
+      <c r="BH92" s="31">
+        <v>2245</v>
+      </c>
+      <c r="BI92" s="31">
+        <v>116</v>
+      </c>
+      <c r="BJ92" s="31">
+        <v>2718</v>
+      </c>
+      <c r="BK92" s="31">
+        <v>384</v>
+      </c>
+      <c r="BL92" s="31">
+        <v>1026</v>
+      </c>
+      <c r="BM92" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN92" s="31">
+        <v>1574</v>
+      </c>
+      <c r="BO92" s="31">
+        <v>82</v>
+      </c>
+      <c r="BP92" s="31">
+        <v>47121</v>
+      </c>
+      <c r="BQ92" s="31">
+        <v>405</v>
+      </c>
+      <c r="BR92" s="31">
+        <v>6900</v>
+      </c>
+      <c r="BS92" s="31">
+        <v>194</v>
+      </c>
+      <c r="BT92" s="31">
+        <v>10507</v>
+      </c>
+      <c r="BU92" s="31">
+        <v>139</v>
+      </c>
+      <c r="BV92" s="31">
+        <v>8936</v>
+      </c>
+      <c r="BW92" s="31">
+        <v>478</v>
+      </c>
+      <c r="BX92" s="31">
+        <v>10128</v>
+      </c>
+      <c r="BY92" s="31">
+        <v>507</v>
+      </c>
+      <c r="BZ92" s="31">
+        <v>8892</v>
+      </c>
+      <c r="CA92" s="31">
+        <v>176</v>
+      </c>
+      <c r="CB92" s="31">
+        <v>3558</v>
+      </c>
+      <c r="CC92" s="31">
+        <v>75</v>
+      </c>
+      <c r="CD92" s="31">
+        <v>2792</v>
+      </c>
+      <c r="CE92" s="31">
+        <v>47</v>
+      </c>
+      <c r="CF92" s="31">
+        <v>10484</v>
+      </c>
+      <c r="CG92" s="31">
+        <v>103</v>
+      </c>
+      <c r="CH92" s="31">
+        <v>3868</v>
+      </c>
+      <c r="CI92" s="31">
+        <v>98</v>
+      </c>
+      <c r="CJ92" s="31">
+        <v>8261</v>
+      </c>
+      <c r="CK92" s="31">
+        <v>686</v>
+      </c>
+      <c r="CL92" s="31">
+        <v>4467</v>
+      </c>
+      <c r="CM92" s="31">
+        <v>126</v>
+      </c>
+      <c r="CN92" s="31">
+        <v>16325</v>
+      </c>
+      <c r="CO92" s="31">
+        <v>445</v>
+      </c>
+      <c r="CP92" s="31">
+        <v>3300</v>
+      </c>
+      <c r="CQ92" s="31">
+        <v>58</v>
+      </c>
+      <c r="CR92" s="31">
+        <v>4964</v>
+      </c>
+      <c r="CS92" s="31">
+        <v>235</v>
+      </c>
+      <c r="CT92" s="31">
+        <v>6630</v>
+      </c>
+      <c r="CU92" s="31">
+        <v>125</v>
+      </c>
+      <c r="CV92" s="31">
+        <v>1773</v>
+      </c>
+      <c r="CW92" s="31">
+        <v>10</v>
+      </c>
+      <c r="CX92" s="31">
+        <v>3031</v>
+      </c>
+      <c r="CY92" s="31">
+        <v>142</v>
+      </c>
+      <c r="CZ92" s="31">
+        <v>3977</v>
+      </c>
+      <c r="DA92" s="31">
+        <v>189</v>
+      </c>
+      <c r="DB92" s="31">
+        <v>7265</v>
+      </c>
+      <c r="DC92" s="31">
+        <v>43</v>
+      </c>
+      <c r="DD92" s="31">
+        <v>8014</v>
+      </c>
+      <c r="DE92" s="31">
+        <v>11</v>
+      </c>
+      <c r="DF92" s="31">
+        <v>5710</v>
+      </c>
+      <c r="DG92" s="31">
+        <v>151</v>
+      </c>
+      <c r="DH92" s="31">
+        <v>1881</v>
+      </c>
+      <c r="DI92" s="31">
+        <v>47</v>
+      </c>
+      <c r="DJ92" s="31">
+        <v>6015</v>
+      </c>
+      <c r="DK92" s="31">
+        <v>9</v>
+      </c>
+      <c r="DL92" s="31">
+        <v>1535</v>
+      </c>
+      <c r="DM92" s="31">
+        <v>40</v>
+      </c>
+      <c r="DN92" s="31">
+        <v>3333</v>
+      </c>
+      <c r="DO92" s="31">
+        <v>250</v>
+      </c>
+      <c r="DP92" s="31">
+        <v>1173</v>
+      </c>
+      <c r="DQ92" s="31">
+        <v>13</v>
+      </c>
+      <c r="DR92" s="31">
+        <v>1440</v>
+      </c>
+      <c r="DS92" s="31">
+        <v>12</v>
+      </c>
+      <c r="DT92" s="31">
+        <v>3046</v>
+      </c>
+      <c r="DU92" s="31">
+        <v>143</v>
+      </c>
+      <c r="DV92" s="31">
+        <v>2548</v>
+      </c>
+      <c r="DW92" s="31">
+        <v>70</v>
+      </c>
+      <c r="DX92" s="31">
+        <v>6264</v>
+      </c>
+      <c r="DY92" s="31">
+        <v>51</v>
+      </c>
+      <c r="DZ92" s="31">
+        <v>1907</v>
+      </c>
+      <c r="EA92" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB92" s="31">
+        <v>1984</v>
+      </c>
+      <c r="EC92" s="31">
+        <v>199</v>
+      </c>
+      <c r="ED92" s="31">
+        <v>2948</v>
+      </c>
+      <c r="EE92" s="31">
+        <v>101</v>
+      </c>
+      <c r="EF92" s="31">
+        <v>1995</v>
+      </c>
+      <c r="EG92" s="31">
+        <v>9</v>
+      </c>
+      <c r="EH92" s="31">
+        <v>1852</v>
+      </c>
+      <c r="EI92">
+        <v>19</v>
+      </c>
+      <c r="EJ92" s="31">
+        <v>1627</v>
+      </c>
+      <c r="EK92" s="31">
+        <v>5</v>
+      </c>
+      <c r="EL92" s="31">
+        <v>1436</v>
+      </c>
+      <c r="EM92" s="31">
+        <v>19</v>
+      </c>
+      <c r="EN92" s="31">
+        <v>1335</v>
+      </c>
+      <c r="EO92" s="31">
+        <v>77</v>
+      </c>
+      <c r="EP92" s="31">
+        <v>1309</v>
+      </c>
+      <c r="EQ92" s="31">
+        <v>49</v>
+      </c>
+      <c r="ER92" s="31">
+        <v>1339</v>
+      </c>
+      <c r="ES92" s="31">
+        <v>22</v>
+      </c>
+      <c r="ET92" s="31">
+        <v>1326</v>
+      </c>
+      <c r="EU92" s="31">
+        <v>37</v>
+      </c>
+      <c r="EV92" s="31">
+        <v>1410</v>
+      </c>
+      <c r="EW92" s="31">
+        <v>7</v>
+      </c>
+      <c r="EX92" s="31">
+        <v>1225</v>
+      </c>
+      <c r="EY92" s="31">
+        <v>54</v>
+      </c>
+      <c r="EZ92" s="31">
+        <v>1087</v>
+      </c>
+      <c r="FA92" s="31">
+        <v>36</v>
+      </c>
+      <c r="FB92" s="31">
+        <v>1026</v>
+      </c>
+      <c r="FC92" s="31">
+        <v>36</v>
+      </c>
+      <c r="FD92" s="31">
+        <v>1163</v>
+      </c>
+      <c r="FE92" s="31">
+        <v>42</v>
+      </c>
+      <c r="FF92" s="31">
+        <v>1042</v>
+      </c>
+      <c r="FG92" s="31">
+        <v>9</v>
+      </c>
     </row>
-    <row r="93" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A93" s="28">
         <v>43942</v>
       </c>
-      <c r="AD93" s="24"/>
-      <c r="AF93" s="24"/>
-      <c r="AP93" s="24"/>
+      <c r="B93" s="23">
+        <v>10683</v>
+      </c>
+      <c r="C93" s="23">
+        <v>237</v>
+      </c>
+      <c r="D93" s="23">
+        <v>11512</v>
+      </c>
+      <c r="E93" s="23">
+        <v>281</v>
+      </c>
+      <c r="F93">
+        <v>818744</v>
+      </c>
+      <c r="G93" s="24">
+        <v>45318</v>
+      </c>
+      <c r="H93" s="24">
+        <v>183957</v>
+      </c>
+      <c r="I93" s="24">
+        <v>24648</v>
+      </c>
+      <c r="J93" s="24">
+        <v>204178</v>
+      </c>
+      <c r="K93" s="24">
+        <v>21282</v>
+      </c>
+      <c r="L93">
+        <v>82758</v>
+      </c>
+      <c r="M93" s="27">
+        <v>4632</v>
+      </c>
+      <c r="N93" s="24">
+        <v>148453</v>
+      </c>
+      <c r="O93" s="24">
+        <v>5086</v>
+      </c>
+      <c r="P93" s="24">
+        <v>158050</v>
+      </c>
+      <c r="Q93" s="24">
+        <v>20796</v>
+      </c>
+      <c r="R93" s="23">
+        <v>84802</v>
+      </c>
+      <c r="S93" s="23">
+        <v>5297</v>
+      </c>
+      <c r="T93" s="23">
+        <v>129044</v>
+      </c>
+      <c r="U93" s="24">
+        <v>17337</v>
+      </c>
+      <c r="V93" s="24">
+        <v>28063</v>
+      </c>
+      <c r="W93" s="24">
+        <v>1478</v>
+      </c>
+      <c r="X93" s="24">
+        <v>95591</v>
+      </c>
+      <c r="Y93" s="24">
+        <v>2259</v>
+      </c>
+      <c r="Z93" s="24">
+        <v>40956</v>
+      </c>
+      <c r="AA93" s="24">
+        <v>5998</v>
+      </c>
+      <c r="AB93" s="24">
+        <v>34134</v>
+      </c>
+      <c r="AC93" s="24">
+        <v>3916</v>
+      </c>
+      <c r="AD93" s="24">
+        <v>14873</v>
+      </c>
+      <c r="AE93" s="24">
+        <v>491</v>
+      </c>
+      <c r="AF93" s="24">
+        <v>38422</v>
+      </c>
+      <c r="AG93" s="24">
+        <v>1834</v>
+      </c>
+      <c r="AH93" s="24">
+        <v>21379</v>
+      </c>
+      <c r="AI93" s="24">
+        <v>762</v>
+      </c>
+      <c r="AJ93" s="24">
+        <v>43079</v>
+      </c>
+      <c r="AK93" s="24">
+        <v>2741</v>
+      </c>
+      <c r="AL93" s="31">
+        <v>13942</v>
+      </c>
+      <c r="AM93" s="31">
+        <v>184</v>
+      </c>
+      <c r="AN93" s="31">
+        <v>6645</v>
+      </c>
+      <c r="AO93" s="31">
+        <v>71</v>
+      </c>
+      <c r="AP93" s="30">
+        <v>7241</v>
+      </c>
+      <c r="AQ93" s="31">
+        <v>182</v>
+      </c>
+      <c r="AR93" s="31">
+        <v>15322</v>
+      </c>
+      <c r="AS93" s="31">
+        <v>1765</v>
+      </c>
+      <c r="AT93" s="31">
+        <v>16040</v>
+      </c>
+      <c r="AU93" s="31">
+        <v>730</v>
+      </c>
+      <c r="AV93" s="30">
+        <v>7695</v>
+      </c>
+      <c r="AW93" s="31">
+        <v>370</v>
+      </c>
+      <c r="AX93" s="31">
+        <v>5482</v>
+      </c>
+      <c r="AY93" s="31">
+        <v>92</v>
+      </c>
+      <c r="AZ93" s="31">
+        <v>9856</v>
+      </c>
+      <c r="BA93" s="31">
+        <v>401</v>
+      </c>
+      <c r="BB93" s="31">
+        <v>6599</v>
+      </c>
+      <c r="BC93" s="31">
+        <v>437</v>
+      </c>
+      <c r="BD93" s="31">
+        <v>7135</v>
+      </c>
+      <c r="BE93" s="31">
+        <v>616</v>
+      </c>
+      <c r="BF93" s="30">
+        <v>20080</v>
+      </c>
+      <c r="BG93" s="31">
+        <v>645</v>
+      </c>
+      <c r="BH93" s="31">
+        <v>2401</v>
+      </c>
+      <c r="BI93" s="31">
+        <v>121</v>
+      </c>
+      <c r="BJ93" s="31">
+        <v>2811</v>
+      </c>
+      <c r="BK93" s="31">
+        <v>392</v>
+      </c>
+      <c r="BL93" s="31">
+        <v>1030</v>
+      </c>
+      <c r="BM93" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN93" s="31">
+        <v>1602</v>
+      </c>
+      <c r="BO93" s="31">
+        <v>83</v>
+      </c>
+      <c r="BP93" s="31">
+        <v>52763</v>
+      </c>
+      <c r="BQ93" s="31">
+        <v>456</v>
+      </c>
+      <c r="BR93" s="31">
+        <v>7033</v>
+      </c>
+      <c r="BS93" s="31">
+        <v>201</v>
+      </c>
+      <c r="BT93" s="31">
+        <v>10832</v>
+      </c>
+      <c r="BU93" s="31">
+        <v>147</v>
+      </c>
+      <c r="BV93" s="31">
+        <v>9242</v>
+      </c>
+      <c r="BW93" s="31">
+        <v>498</v>
+      </c>
+      <c r="BX93" s="31">
+        <v>10398</v>
+      </c>
+      <c r="BY93" s="31">
+        <v>520</v>
+      </c>
+      <c r="BZ93" s="31">
+        <v>9565</v>
+      </c>
+      <c r="CA93" s="31">
+        <v>201</v>
+      </c>
+      <c r="CB93" s="31">
+        <v>3618</v>
+      </c>
+      <c r="CC93" s="31">
+        <v>78</v>
+      </c>
+      <c r="CD93" s="31">
+        <v>2811</v>
+      </c>
+      <c r="CE93" s="31">
+        <v>48</v>
+      </c>
+      <c r="CF93" s="31">
+        <v>11631</v>
+      </c>
+      <c r="CG93" s="31">
+        <v>109</v>
+      </c>
+      <c r="CH93" s="31">
+        <v>4014</v>
+      </c>
+      <c r="CI93" s="31">
+        <v>141</v>
+      </c>
+      <c r="CJ93" s="31">
+        <v>8772</v>
+      </c>
+      <c r="CK93" s="31">
+        <v>712</v>
+      </c>
+      <c r="CL93" s="31">
+        <v>4658</v>
+      </c>
+      <c r="CM93" s="31">
+        <v>136</v>
+      </c>
+      <c r="CN93" s="31">
+        <v>17837</v>
+      </c>
+      <c r="CO93" s="31">
+        <v>484</v>
+      </c>
+      <c r="CP93" s="31">
+        <v>3465</v>
+      </c>
+      <c r="CQ93" s="31">
+        <v>58</v>
+      </c>
+      <c r="CR93" s="31">
+        <v>5044</v>
+      </c>
+      <c r="CS93" s="31">
+        <v>245</v>
+      </c>
+      <c r="CT93" s="31">
+        <v>6890</v>
+      </c>
+      <c r="CU93" s="31">
+        <v>130</v>
+      </c>
+      <c r="CV93" s="31">
+        <v>1778</v>
+      </c>
+      <c r="CW93" s="31">
+        <v>10</v>
+      </c>
+      <c r="CX93" s="31">
+        <v>3144</v>
+      </c>
+      <c r="CY93" s="31">
+        <v>151</v>
+      </c>
+      <c r="CZ93" s="31">
+        <v>4149</v>
+      </c>
+      <c r="DA93" s="31">
+        <v>196</v>
+      </c>
+      <c r="DB93" s="31">
+        <v>7755</v>
+      </c>
+      <c r="DC93" s="31">
+        <v>46</v>
+      </c>
+      <c r="DD93" s="31">
+        <v>9125</v>
+      </c>
+      <c r="DE93" s="31">
+        <v>11</v>
+      </c>
+      <c r="DF93" s="31">
+        <v>6125</v>
+      </c>
+      <c r="DG93" s="31">
+        <v>161</v>
+      </c>
+      <c r="DH93" s="31">
+        <v>1908</v>
+      </c>
+      <c r="DI93" s="31">
+        <v>48</v>
+      </c>
+      <c r="DJ93" s="31">
+        <v>6533</v>
+      </c>
+      <c r="DK93" s="31">
+        <v>9</v>
+      </c>
+      <c r="DL93" s="31">
+        <v>1552</v>
+      </c>
+      <c r="DM93" s="31">
+        <v>43</v>
+      </c>
+      <c r="DN93" s="31">
+        <v>3490</v>
+      </c>
+      <c r="DO93" s="31">
+        <v>264</v>
+      </c>
+      <c r="DP93" s="31">
+        <v>1199</v>
+      </c>
+      <c r="DQ93" s="31">
+        <v>14</v>
+      </c>
+      <c r="DR93" s="31">
+        <v>1445</v>
+      </c>
+      <c r="DS93" s="31">
+        <v>13</v>
+      </c>
+      <c r="DT93" s="31">
+        <v>3209</v>
+      </c>
+      <c r="DU93" s="31">
+        <v>145</v>
+      </c>
+      <c r="DV93" s="31">
+        <v>2614</v>
+      </c>
+      <c r="DW93" s="31">
+        <v>72</v>
+      </c>
+      <c r="DX93" s="31">
+        <v>6723</v>
+      </c>
+      <c r="DY93" s="31">
+        <v>55</v>
+      </c>
+      <c r="DZ93" s="31">
+        <v>1973</v>
+      </c>
+      <c r="EA93" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB93" s="31">
+        <v>2098</v>
+      </c>
+      <c r="EC93" s="31">
+        <v>213</v>
+      </c>
+      <c r="ED93" s="31">
+        <v>3382</v>
+      </c>
+      <c r="EE93" s="31">
+        <v>110</v>
+      </c>
+      <c r="EF93" s="31">
+        <v>2080</v>
+      </c>
+      <c r="EG93" s="31">
+        <v>11</v>
+      </c>
+      <c r="EH93" s="31">
+        <v>1995</v>
+      </c>
+      <c r="EI93" s="31">
+        <v>19</v>
+      </c>
+      <c r="EJ93" s="31">
+        <v>1678</v>
+      </c>
+      <c r="EK93" s="31">
+        <v>6</v>
+      </c>
+      <c r="EL93" s="31">
+        <v>1480</v>
+      </c>
+      <c r="EM93" s="31">
+        <v>20</v>
+      </c>
+      <c r="EN93" s="31">
+        <v>1344</v>
+      </c>
+      <c r="EO93" s="31">
+        <v>77</v>
+      </c>
+      <c r="EP93" s="31">
+        <v>1342</v>
+      </c>
+      <c r="EQ93" s="31">
+        <v>51</v>
+      </c>
+      <c r="ER93" s="31">
+        <v>1401</v>
+      </c>
+      <c r="ES93" s="31">
+        <v>24</v>
+      </c>
+      <c r="ET93" s="31">
+        <v>1350</v>
+      </c>
+      <c r="EU93" s="31">
+        <v>38</v>
+      </c>
+      <c r="EV93" s="31">
+        <v>1508</v>
+      </c>
+      <c r="EW93" s="31">
+        <v>8</v>
+      </c>
+      <c r="EX93" s="31">
+        <v>1231</v>
+      </c>
+      <c r="EY93" s="31">
+        <v>55</v>
+      </c>
+      <c r="EZ93" s="31">
+        <v>1137</v>
+      </c>
+      <c r="FA93" s="31">
+        <v>38</v>
+      </c>
+      <c r="FB93" s="31">
+        <v>1092</v>
+      </c>
+      <c r="FC93" s="31">
+        <v>36</v>
+      </c>
+      <c r="FD93" s="31">
+        <v>1163</v>
+      </c>
+      <c r="FE93" s="31">
+        <v>43</v>
+      </c>
+      <c r="FF93" s="31">
+        <v>1042</v>
+      </c>
+      <c r="FG93" s="31">
+        <v>9</v>
+      </c>
     </row>
-    <row r="94" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A94" s="28">
         <v>43943</v>
       </c>
-      <c r="AD94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AP94" s="24"/>
+      <c r="B94" s="23">
+        <v>10694</v>
+      </c>
+      <c r="C94" s="23">
+        <v>238</v>
+      </c>
+      <c r="D94" s="23">
+        <v>11950</v>
+      </c>
+      <c r="E94" s="23">
+        <v>299</v>
+      </c>
+      <c r="F94">
+        <v>848717</v>
+      </c>
+      <c r="G94">
+        <v>47659</v>
+      </c>
+      <c r="H94" s="24">
+        <v>187327</v>
+      </c>
+      <c r="I94" s="24">
+        <v>25085</v>
+      </c>
+      <c r="J94" s="24">
+        <v>208389</v>
+      </c>
+      <c r="K94" s="24">
+        <v>21717</v>
+      </c>
+      <c r="L94">
+        <v>82788</v>
+      </c>
+      <c r="M94" s="27">
+        <v>4632</v>
+      </c>
+      <c r="N94" s="24">
+        <v>150648</v>
+      </c>
+      <c r="O94" s="24">
+        <v>5315</v>
+      </c>
+      <c r="P94" s="24">
+        <v>159877</v>
+      </c>
+      <c r="Q94" s="24">
+        <v>21340</v>
+      </c>
+      <c r="R94" s="23">
+        <v>85996</v>
+      </c>
+      <c r="S94" s="23">
+        <v>5391</v>
+      </c>
+      <c r="T94" s="23">
+        <v>133495</v>
+      </c>
+      <c r="U94" s="24">
+        <v>18100</v>
+      </c>
+      <c r="V94" s="24">
+        <v>28268</v>
+      </c>
+      <c r="W94" s="24">
+        <v>1509</v>
+      </c>
+      <c r="X94" s="24">
+        <v>98674</v>
+      </c>
+      <c r="Y94" s="24">
+        <v>2376</v>
+      </c>
+      <c r="Z94" s="24">
+        <v>41889</v>
+      </c>
+      <c r="AA94" s="24">
+        <v>6262</v>
+      </c>
+      <c r="AB94" s="24">
+        <v>34842</v>
+      </c>
+      <c r="AC94" s="24">
+        <v>4054</v>
+      </c>
+      <c r="AD94" s="24">
+        <v>14925</v>
+      </c>
+      <c r="AE94" s="24">
+        <v>510</v>
+      </c>
+      <c r="AF94" s="24">
+        <v>40190</v>
+      </c>
+      <c r="AG94" s="24">
+        <v>1974</v>
+      </c>
+      <c r="AH94" s="24">
+        <v>21982</v>
+      </c>
+      <c r="AI94" s="24">
+        <v>785</v>
+      </c>
+      <c r="AJ94" s="24">
+        <v>45757</v>
+      </c>
+      <c r="AK94" s="24">
+        <v>2906</v>
+      </c>
+      <c r="AL94" s="31">
+        <v>14498</v>
+      </c>
+      <c r="AM94" s="31">
+        <v>189</v>
+      </c>
+      <c r="AN94" s="31">
+        <v>6649</v>
+      </c>
+      <c r="AO94" s="31">
+        <v>74</v>
+      </c>
+      <c r="AP94" s="30">
+        <v>7338</v>
+      </c>
+      <c r="AQ94" s="31">
+        <v>187</v>
+      </c>
+      <c r="AR94" s="31">
+        <v>16004</v>
+      </c>
+      <c r="AS94" s="31">
+        <v>1937</v>
+      </c>
+      <c r="AT94" s="31">
+        <v>16671</v>
+      </c>
+      <c r="AU94" s="31">
+        <v>769</v>
+      </c>
+      <c r="AV94" s="30">
+        <v>7912</v>
+      </c>
+      <c r="AW94" s="31">
+        <v>384</v>
+      </c>
+      <c r="AX94" s="31">
+        <v>5532</v>
+      </c>
+      <c r="AY94" s="31">
+        <v>93</v>
+      </c>
+      <c r="AZ94" s="31">
+        <v>10169</v>
+      </c>
+      <c r="BA94" s="31">
+        <v>426</v>
+      </c>
+      <c r="BB94" s="31">
+        <v>6710</v>
+      </c>
+      <c r="BC94" s="31">
+        <v>446</v>
+      </c>
+      <c r="BD94" s="31">
+        <v>7418</v>
+      </c>
+      <c r="BE94" s="31">
+        <v>635</v>
+      </c>
+      <c r="BF94" s="30">
+        <v>21370</v>
+      </c>
+      <c r="BG94" s="31">
+        <v>681</v>
+      </c>
+      <c r="BH94" s="31">
+        <v>2408</v>
+      </c>
+      <c r="BI94" s="31">
+        <v>121</v>
+      </c>
+      <c r="BJ94" s="31">
+        <v>2910</v>
+      </c>
+      <c r="BK94" s="31">
+        <v>402</v>
+      </c>
+      <c r="BL94" s="31">
+        <v>1034</v>
+      </c>
+      <c r="BM94" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN94" s="31">
+        <v>1631</v>
+      </c>
+      <c r="BO94" s="31">
+        <v>83</v>
+      </c>
+      <c r="BP94" s="31">
+        <v>57999</v>
+      </c>
+      <c r="BQ94" s="31">
+        <v>513</v>
+      </c>
+      <c r="BR94" s="31">
+        <v>7132</v>
+      </c>
+      <c r="BS94" s="31">
+        <v>208</v>
+      </c>
+      <c r="BT94" s="31">
+        <v>11296</v>
+      </c>
+      <c r="BU94" s="31">
+        <v>160</v>
+      </c>
+      <c r="BV94" s="31">
+        <v>9710</v>
+      </c>
+      <c r="BW94" s="31">
+        <v>524</v>
+      </c>
+      <c r="BX94" s="31">
+        <v>10850</v>
+      </c>
+      <c r="BY94" s="31">
+        <v>537</v>
+      </c>
+      <c r="BZ94" s="31">
+        <v>10076</v>
+      </c>
+      <c r="CA94" s="31">
+        <v>212</v>
+      </c>
+      <c r="CB94" s="31">
+        <v>3654</v>
+      </c>
+      <c r="CC94" s="31">
+        <v>78</v>
+      </c>
+      <c r="CD94" s="31">
+        <v>2826</v>
+      </c>
+      <c r="CE94" s="31">
+        <v>49</v>
+      </c>
+      <c r="CF94" s="31">
+        <v>12772</v>
+      </c>
+      <c r="CG94" s="31">
+        <v>114</v>
+      </c>
+      <c r="CH94" s="31">
+        <v>4129</v>
+      </c>
+      <c r="CI94" s="31">
+        <v>149</v>
+      </c>
+      <c r="CJ94" s="31">
+        <v>9501</v>
+      </c>
+      <c r="CK94" s="31">
+        <v>857</v>
+      </c>
+      <c r="CL94" s="31">
+        <v>4821</v>
+      </c>
+      <c r="CM94" s="31">
+        <v>141</v>
+      </c>
+      <c r="CN94" s="31">
+        <v>19250</v>
+      </c>
+      <c r="CO94" s="31">
+        <v>530</v>
+      </c>
+      <c r="CP94" s="31">
+        <v>3635</v>
+      </c>
+      <c r="CQ94" s="31">
+        <v>65</v>
+      </c>
+      <c r="CR94" s="31">
+        <v>5300</v>
+      </c>
+      <c r="CS94" s="31">
+        <v>260</v>
+      </c>
+      <c r="CT94" s="31">
+        <v>7114</v>
+      </c>
+      <c r="CU94" s="31">
+        <v>134</v>
+      </c>
+      <c r="CV94" s="31">
+        <v>1785</v>
+      </c>
+      <c r="CW94" s="31">
+        <v>10</v>
+      </c>
+      <c r="CX94" s="31">
+        <v>3288</v>
+      </c>
+      <c r="CY94" s="31">
+        <v>159</v>
+      </c>
+      <c r="CZ94" s="31">
+        <v>4356</v>
+      </c>
+      <c r="DA94" s="31">
+        <v>206</v>
+      </c>
+      <c r="DB94" s="31">
+        <v>8238</v>
+      </c>
+      <c r="DC94" s="31">
+        <v>52</v>
+      </c>
+      <c r="DD94" s="31">
+        <v>10141</v>
+      </c>
+      <c r="DE94" s="31">
+        <v>12</v>
+      </c>
+      <c r="DF94" s="31">
+        <v>6592</v>
+      </c>
+      <c r="DG94" s="31">
+        <v>174</v>
+      </c>
+      <c r="DH94" s="31">
+        <v>1950</v>
+      </c>
+      <c r="DI94" s="31">
+        <v>48</v>
+      </c>
+      <c r="DJ94" s="31">
+        <v>7141</v>
+      </c>
+      <c r="DK94" s="31">
+        <v>10</v>
+      </c>
+      <c r="DL94" s="31">
+        <v>1559</v>
+      </c>
+      <c r="DM94" s="31">
+        <v>44</v>
+      </c>
+      <c r="DN94" s="31">
+        <v>3659</v>
+      </c>
+      <c r="DO94" s="31">
+        <v>276</v>
+      </c>
+      <c r="DP94" s="31">
+        <v>1244</v>
+      </c>
+      <c r="DQ94" s="31">
+        <v>14</v>
+      </c>
+      <c r="DR94" s="31">
+        <v>1448</v>
+      </c>
+      <c r="DS94" s="31">
+        <v>14</v>
+      </c>
+      <c r="DT94" s="31">
+        <v>3446</v>
+      </c>
+      <c r="DU94" s="31">
+        <v>149</v>
+      </c>
+      <c r="DV94" s="31">
+        <v>2778</v>
+      </c>
+      <c r="DW94" s="31">
+        <v>75</v>
+      </c>
+      <c r="DX94" s="31">
+        <v>7281</v>
+      </c>
+      <c r="DY94" s="31">
+        <v>58</v>
+      </c>
+      <c r="DZ94" s="31">
+        <v>2027</v>
+      </c>
+      <c r="EA94" s="31">
+        <v>7</v>
+      </c>
+      <c r="EB94" s="31">
+        <v>2168</v>
+      </c>
+      <c r="EC94" s="31">
+        <v>225</v>
+      </c>
+      <c r="ED94" s="31">
+        <v>3772</v>
+      </c>
+      <c r="EE94" s="31">
+        <v>120</v>
+      </c>
+      <c r="EF94" s="31">
+        <v>2248</v>
+      </c>
+      <c r="EG94" s="31">
+        <v>13</v>
+      </c>
+      <c r="EH94" s="31">
+        <v>2135</v>
+      </c>
+      <c r="EI94" s="31">
+        <v>19</v>
+      </c>
+      <c r="EJ94" s="31">
+        <v>1716</v>
+      </c>
+      <c r="EK94" s="31">
+        <v>7</v>
+      </c>
+      <c r="EL94" s="31">
+        <v>1518</v>
+      </c>
+      <c r="EM94" s="31">
+        <v>20</v>
+      </c>
+      <c r="EN94" s="31">
+        <v>1353</v>
+      </c>
+      <c r="EO94" s="31">
+        <v>79</v>
+      </c>
+      <c r="EP94" s="31">
+        <v>1368</v>
+      </c>
+      <c r="EQ94" s="31">
+        <v>53</v>
+      </c>
+      <c r="ER94" s="31">
+        <v>1473</v>
+      </c>
+      <c r="ES94" s="31">
+        <v>24</v>
+      </c>
+      <c r="ET94" s="31">
+        <v>1370</v>
+      </c>
+      <c r="EU94" s="31">
+        <v>38</v>
+      </c>
+      <c r="EV94" s="31">
+        <v>1614</v>
+      </c>
+      <c r="EW94" s="31">
+        <v>8</v>
+      </c>
+      <c r="EX94" s="31">
+        <v>1259</v>
+      </c>
+      <c r="EY94" s="31">
+        <v>56</v>
+      </c>
+      <c r="EZ94" s="31">
+        <v>1189</v>
+      </c>
+      <c r="FA94" s="31">
+        <v>40</v>
+      </c>
+      <c r="FB94" s="31">
+        <v>1176</v>
+      </c>
+      <c r="FC94" s="31">
+        <v>40</v>
+      </c>
+      <c r="FD94" s="31">
+        <v>1163</v>
+      </c>
+      <c r="FE94" s="31">
+        <v>43</v>
+      </c>
+      <c r="FF94" s="31">
+        <v>1154</v>
+      </c>
+      <c r="FG94" s="31">
+        <v>9</v>
+      </c>
     </row>
-    <row r="95" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A95" s="28">
         <v>43944</v>
       </c>
@@ -32066,7 +37388,7 @@
       <c r="AF95" s="24"/>
       <c r="AP95" s="24"/>
     </row>
-    <row r="96" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A96" s="28">
         <v>43945</v>
       </c>
